--- a/data/safira_cana_soca.xlsx
+++ b/data/safira_cana_soca.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,21 @@
           <t>comprimento</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>volume_cm3_dm3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>area_cm2_dm3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_cm_dm3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -432,6 +447,15 @@
       <c r="H2">
         <v>8693.654607743019</v>
       </c>
+      <c r="I2">
+        <v>15.2264043815579</v>
+      </c>
+      <c r="J2">
+        <v>459.6900118926316</v>
+      </c>
+      <c r="K2">
+        <v>1830.24307531432</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -466,6 +490,15 @@
       <c r="H3">
         <v>5048.13178312778</v>
       </c>
+      <c r="I3">
+        <v>8.752766066989473</v>
+      </c>
+      <c r="J3">
+        <v>276.8056555705264</v>
+      </c>
+      <c r="K3">
+        <v>1062.764585921638</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +533,15 @@
       <c r="H4">
         <v>1012.29277032614</v>
       </c>
+      <c r="I4">
+        <v>4.351829789326316</v>
+      </c>
+      <c r="J4">
+        <v>82.14452473052631</v>
+      </c>
+      <c r="K4">
+        <v>213.1142674370821</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +576,15 @@
       <c r="H5">
         <v>4240.93589770794</v>
       </c>
+      <c r="I5">
+        <v>4.144274160063158</v>
+      </c>
+      <c r="J5">
+        <v>180.7591782147369</v>
+      </c>
+      <c r="K5">
+        <v>892.8286100437769</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -568,6 +619,15 @@
       <c r="H6">
         <v>176.949440211058</v>
       </c>
+      <c r="I6">
+        <v>0.09688930454736841</v>
+      </c>
+      <c r="J6">
+        <v>6.297415770526316</v>
+      </c>
+      <c r="K6">
+        <v>37.25251372864379</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -602,6 +662,15 @@
       <c r="H7">
         <v>292.164680689573</v>
       </c>
+      <c r="I7">
+        <v>0.351525600631579</v>
+      </c>
+      <c r="J7">
+        <v>14.37395651368421</v>
+      </c>
+      <c r="K7">
+        <v>61.50835382938379</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -636,6 +705,15 @@
       <c r="H8">
         <v>2068.35091343522</v>
       </c>
+      <c r="I8">
+        <v>6.504714574042105</v>
+      </c>
+      <c r="J8">
+        <v>142.2856264821053</v>
+      </c>
+      <c r="K8">
+        <v>435.4422975653095</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -670,6 +748,15 @@
       <c r="H9">
         <v>1658.88995814323</v>
       </c>
+      <c r="I9">
+        <v>19.80455372989474</v>
+      </c>
+      <c r="J9">
+        <v>236.3090438526316</v>
+      </c>
+      <c r="K9">
+        <v>349.2399911880484</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -704,6 +791,15 @@
       <c r="H10">
         <v>351.249604046345</v>
       </c>
+      <c r="I10">
+        <v>0.352833538968421</v>
+      </c>
+      <c r="J10">
+        <v>15.45793978947369</v>
+      </c>
+      <c r="K10">
+        <v>73.94728506238843</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -738,6 +834,15 @@
       <c r="H11">
         <v>13301.539547652</v>
       </c>
+      <c r="I11">
+        <v>20.73605881366316</v>
+      </c>
+      <c r="J11">
+        <v>688.3400761221053</v>
+      </c>
+      <c r="K11">
+        <v>2800.324115295158</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -772,6 +877,15 @@
       <c r="H12">
         <v>2529.70666953921</v>
       </c>
+      <c r="I12">
+        <v>7.127505331726316</v>
+      </c>
+      <c r="J12">
+        <v>180.9356029410527</v>
+      </c>
+      <c r="K12">
+        <v>532.5698251661495</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -806,6 +920,15 @@
       <c r="H13">
         <v>704.050309598446</v>
       </c>
+      <c r="I13">
+        <v>1.908251052273684</v>
+      </c>
+      <c r="J13">
+        <v>48.20383730105263</v>
+      </c>
+      <c r="K13">
+        <v>148.2211178101992</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -840,6 +963,15 @@
       <c r="H14">
         <v>609.484549164772</v>
       </c>
+      <c r="I14">
+        <v>0.7292782521473685</v>
+      </c>
+      <c r="J14">
+        <v>29.30449400421053</v>
+      </c>
+      <c r="K14">
+        <v>128.3125366662678</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -874,6 +1006,15 @@
       <c r="H15">
         <v>2852.01504999399</v>
       </c>
+      <c r="I15">
+        <v>4.820216468673684</v>
+      </c>
+      <c r="J15">
+        <v>157.7069854252632</v>
+      </c>
+      <c r="K15">
+        <v>600.4242210513663</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -908,6 +1049,15 @@
       <c r="H16">
         <v>282.738227367401</v>
       </c>
+      <c r="I16">
+        <v>1.081987586589474</v>
+      </c>
+      <c r="J16">
+        <v>23.1346325431579</v>
+      </c>
+      <c r="K16">
+        <v>59.52383734050548</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -942,6 +1092,15 @@
       <c r="H17">
         <v>547.037922859192</v>
       </c>
+      <c r="I17">
+        <v>1.051423621894737</v>
+      </c>
+      <c r="J17">
+        <v>33.97062136631578</v>
+      </c>
+      <c r="K17">
+        <v>115.165878496672</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -976,6 +1135,15 @@
       <c r="H18">
         <v>93.4582967758179</v>
       </c>
+      <c r="I18">
+        <v>0.1477039187368421</v>
+      </c>
+      <c r="J18">
+        <v>5.45507267368421</v>
+      </c>
+      <c r="K18">
+        <v>19.67543090017219</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1010,6 +1178,15 @@
       <c r="H19">
         <v>142.573894679546</v>
       </c>
+      <c r="I19">
+        <v>0.1285594478736842</v>
+      </c>
+      <c r="J19">
+        <v>6.154779772631579</v>
+      </c>
+      <c r="K19">
+        <v>30.01555677464127</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1044,6 +1221,15 @@
       <c r="H20">
         <v>4703.60328450799</v>
       </c>
+      <c r="I20">
+        <v>9.115633227663158</v>
+      </c>
+      <c r="J20">
+        <v>281.11716256</v>
+      </c>
+      <c r="K20">
+        <v>990.2322704227348</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1078,6 +1264,15 @@
       <c r="H21">
         <v>1596.62533736229</v>
       </c>
+      <c r="I21">
+        <v>2.650794058105264</v>
+      </c>
+      <c r="J21">
+        <v>87.23393001894736</v>
+      </c>
+      <c r="K21">
+        <v>336.1316499710085</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1112,6 +1307,15 @@
       <c r="H22">
         <v>795.879743561149</v>
       </c>
+      <c r="I22">
+        <v>1.451060549389474</v>
+      </c>
+      <c r="J22">
+        <v>43.71782385473685</v>
+      </c>
+      <c r="K22">
+        <v>167.5536302233998</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1146,6 +1350,15 @@
       <c r="H23">
         <v>3938.80540043116</v>
       </c>
+      <c r="I23">
+        <v>7.85523780423158</v>
+      </c>
+      <c r="J23">
+        <v>225.1744060273685</v>
+      </c>
+      <c r="K23">
+        <v>829.2221895644547</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1180,6 +1393,15 @@
       <c r="H24">
         <v>1500.09344398975</v>
       </c>
+      <c r="I24">
+        <v>5.504702669157894</v>
+      </c>
+      <c r="J24">
+        <v>106.1561052442106</v>
+      </c>
+      <c r="K24">
+        <v>315.8091461031053</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1214,6 +1436,15 @@
       <c r="H25">
         <v>339.01194152236</v>
       </c>
+      <c r="I25">
+        <v>4.337717214926316</v>
+      </c>
+      <c r="J25">
+        <v>43.35054181052632</v>
+      </c>
+      <c r="K25">
+        <v>71.37093505733895</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1248,6 +1479,15 @@
       <c r="H26">
         <v>3111.83745156229</v>
       </c>
+      <c r="I26">
+        <v>4.677281215452632</v>
+      </c>
+      <c r="J26">
+        <v>160.4518435873684</v>
+      </c>
+      <c r="K26">
+        <v>655.1236740131137</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1282,6 +1522,15 @@
       <c r="H27">
         <v>85.8011113107204</v>
       </c>
+      <c r="I27">
+        <v>0.179724584631579</v>
+      </c>
+      <c r="J27">
+        <v>5.555097402105264</v>
+      </c>
+      <c r="K27">
+        <v>18.06339185488851</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1316,6 +1565,15 @@
       <c r="H28">
         <v>55.8293909430504</v>
       </c>
+      <c r="I28">
+        <v>0.04840791254736842</v>
+      </c>
+      <c r="J28">
+        <v>2.42351384</v>
+      </c>
+      <c r="K28">
+        <v>11.75355598801061</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1350,6 +1608,15 @@
       <c r="H29">
         <v>97.29662835597991</v>
       </c>
+      <c r="I29">
+        <v>0.6778407801263158</v>
+      </c>
+      <c r="J29">
+        <v>12.28640483789474</v>
+      </c>
+      <c r="K29">
+        <v>20.48350070652209</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1384,6 +1651,15 @@
       <c r="H30">
         <v>819.340662583709</v>
       </c>
+      <c r="I30">
+        <v>1.397790950210526</v>
+      </c>
+      <c r="J30">
+        <v>44.97024656421053</v>
+      </c>
+      <c r="K30">
+        <v>172.4927710702546</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1418,6 +1694,15 @@
       <c r="H31">
         <v>2104.90878504515</v>
       </c>
+      <c r="I31">
+        <v>7.126907088505264</v>
+      </c>
+      <c r="J31">
+        <v>162.1018864189474</v>
+      </c>
+      <c r="K31">
+        <v>443.1386915884527</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1452,6 +1737,15 @@
       <c r="H32">
         <v>5980.73054769635</v>
       </c>
+      <c r="I32">
+        <v>7.414419911600001</v>
+      </c>
+      <c r="J32">
+        <v>286.375276848421</v>
+      </c>
+      <c r="K32">
+        <v>1259.101167936074</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1486,6 +1780,15 @@
       <c r="H33">
         <v>92.62130281329151</v>
       </c>
+      <c r="I33">
+        <v>0.09889338922105265</v>
+      </c>
+      <c r="J33">
+        <v>4.123260652631579</v>
+      </c>
+      <c r="K33">
+        <v>19.49922164490348</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1520,6 +1823,15 @@
       <c r="H34">
         <v>511.146399587393</v>
       </c>
+      <c r="I34">
+        <v>4.312083997873685</v>
+      </c>
+      <c r="J34">
+        <v>53.82970058526316</v>
+      </c>
+      <c r="K34">
+        <v>107.609768334188</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1554,6 +1866,15 @@
       <c r="H35">
         <v>5715.67253625393</v>
       </c>
+      <c r="I35">
+        <v>10.13841189492632</v>
+      </c>
+      <c r="J35">
+        <v>321.6919401052631</v>
+      </c>
+      <c r="K35">
+        <v>1203.299481316617</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1588,6 +1909,15 @@
       <c r="H36">
         <v>70.7066966891289</v>
       </c>
+      <c r="I36">
+        <v>0.04627025564210527</v>
+      </c>
+      <c r="J36">
+        <v>2.692952983157895</v>
+      </c>
+      <c r="K36">
+        <v>14.88562035560608</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1622,6 +1952,15 @@
       <c r="H37">
         <v>6.36598205566406</v>
       </c>
+      <c r="I37">
+        <v>0.0028283536</v>
+      </c>
+      <c r="J37">
+        <v>0.2084578631578948</v>
+      </c>
+      <c r="K37">
+        <v>1.340206748560855</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1656,6 +1995,15 @@
       <c r="H38">
         <v>8623.187925875191</v>
       </c>
+      <c r="I38">
+        <v>10.25013662463158</v>
+      </c>
+      <c r="J38">
+        <v>404.9233744926316</v>
+      </c>
+      <c r="K38">
+        <v>1815.407984394777</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1690,6 +2038,15 @@
       <c r="H39">
         <v>1290.70709049702</v>
       </c>
+      <c r="I39">
+        <v>5.050592431978948</v>
+      </c>
+      <c r="J39">
+        <v>103.6487295810526</v>
+      </c>
+      <c r="K39">
+        <v>271.7278085256884</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1724,6 +2081,15 @@
       <c r="H40">
         <v>587.177669227123</v>
       </c>
+      <c r="I40">
+        <v>1.905828556210526</v>
+      </c>
+      <c r="J40">
+        <v>46.23235340210527</v>
+      </c>
+      <c r="K40">
+        <v>123.6163514162364</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1758,6 +2124,15 @@
       <c r="H41">
         <v>4593.74058443308</v>
       </c>
+      <c r="I41">
+        <v>4.865265269621053</v>
+      </c>
+      <c r="J41">
+        <v>207.1415318378948</v>
+      </c>
+      <c r="K41">
+        <v>967.10328093328</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1792,6 +2167,15 @@
       <c r="H42">
         <v>710.994483053684</v>
       </c>
+      <c r="I42">
+        <v>0.8937179309894737</v>
+      </c>
+      <c r="J42">
+        <v>34.62576821894737</v>
+      </c>
+      <c r="K42">
+        <v>149.6830490639335</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1826,6 +2210,15 @@
       <c r="H43">
         <v>2227.65336102247</v>
       </c>
+      <c r="I43">
+        <v>6.95946438391579</v>
+      </c>
+      <c r="J43">
+        <v>149.9780512863158</v>
+      </c>
+      <c r="K43">
+        <v>468.979654952099</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1860,6 +2253,15 @@
       <c r="H44">
         <v>3909.67187947035</v>
       </c>
+      <c r="I44">
+        <v>3.616554448898948</v>
+      </c>
+      <c r="J44">
+        <v>165.6442866305263</v>
+      </c>
+      <c r="K44">
+        <v>823.0888167306001</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1894,6 +2296,15 @@
       <c r="H45">
         <v>48.1707630753517</v>
       </c>
+      <c r="I45">
+        <v>0.02962058484210527</v>
+      </c>
+      <c r="J45">
+        <v>1.746160469473684</v>
+      </c>
+      <c r="K45">
+        <v>10.14121327902141</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1928,6 +2339,15 @@
       <c r="H46">
         <v>99.0398507714272</v>
       </c>
+      <c r="I46">
+        <v>0.04097142625263158</v>
+      </c>
+      <c r="J46">
+        <v>3.139735107368421</v>
+      </c>
+      <c r="K46">
+        <v>20.85049489924783</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1962,6 +2382,15 @@
       <c r="H47">
         <v>4462.15669766068</v>
       </c>
+      <c r="I47">
+        <v>7.725639559494737</v>
+      </c>
+      <c r="J47">
+        <v>242.6298836947369</v>
+      </c>
+      <c r="K47">
+        <v>939.4014100338275</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1996,6 +2425,15 @@
       <c r="H48">
         <v>4886.78374834359</v>
       </c>
+      <c r="I48">
+        <v>9.667983252926316</v>
+      </c>
+      <c r="J48">
+        <v>291.8013173200001</v>
+      </c>
+      <c r="K48">
+        <v>1028.796578598651</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2030,6 +2468,15 @@
       <c r="H49">
         <v>1893.29919785261</v>
       </c>
+      <c r="I49">
+        <v>9.483821738736843</v>
+      </c>
+      <c r="J49">
+        <v>158.04011836</v>
+      </c>
+      <c r="K49">
+        <v>398.5893048110758</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2064,6 +2511,15 @@
       <c r="H50">
         <v>432.624103546143</v>
       </c>
+      <c r="I50">
+        <v>1.054989684421053</v>
+      </c>
+      <c r="J50">
+        <v>30.35918083157895</v>
+      </c>
+      <c r="K50">
+        <v>91.07875864129326</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2098,6 +2554,15 @@
       <c r="H51">
         <v>1379.70538979769</v>
       </c>
+      <c r="I51">
+        <v>2.807525017873684</v>
+      </c>
+      <c r="J51">
+        <v>83.88745316631581</v>
+      </c>
+      <c r="K51">
+        <v>290.4642925889874</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2132,6 +2597,15 @@
       <c r="H52">
         <v>1913.15217781067</v>
       </c>
+      <c r="I52">
+        <v>3.529039653726316</v>
+      </c>
+      <c r="J52">
+        <v>111.6569445136842</v>
+      </c>
+      <c r="K52">
+        <v>402.7688795390885</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2166,6 +2640,15 @@
       <c r="H53">
         <v>4869.50353915989</v>
       </c>
+      <c r="I53">
+        <v>11.51350181311579</v>
+      </c>
+      <c r="J53">
+        <v>272.3025082252632</v>
+      </c>
+      <c r="K53">
+        <v>1025.158639823135</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2200,6 +2683,15 @@
       <c r="H54">
         <v>188.902553677559</v>
       </c>
+      <c r="I54">
+        <v>1.071813289136842</v>
+      </c>
+      <c r="J54">
+        <v>18.34543310526316</v>
+      </c>
+      <c r="K54">
+        <v>39.7689586689598</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2234,6 +2726,15 @@
       <c r="H55">
         <v>4482.11653649807</v>
       </c>
+      <c r="I55">
+        <v>6.639305027600001</v>
+      </c>
+      <c r="J55">
+        <v>229.7702768336842</v>
+      </c>
+      <c r="K55">
+        <v>943.6034813680147</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2268,6 +2769,15 @@
       <c r="H56">
         <v>1616.3374298811</v>
       </c>
+      <c r="I56">
+        <v>5.362463276442105</v>
+      </c>
+      <c r="J56">
+        <v>119.8695389578948</v>
+      </c>
+      <c r="K56">
+        <v>340.2815641854947</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2302,6 +2812,15 @@
       <c r="H57">
         <v>936.895027846098</v>
       </c>
+      <c r="I57">
+        <v>1.307430428778947</v>
+      </c>
+      <c r="J57">
+        <v>48.83171416421053</v>
+      </c>
+      <c r="K57">
+        <v>197.2410584939154</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2336,6 +2855,15 @@
       <c r="H58">
         <v>2110.93192237616</v>
       </c>
+      <c r="I58">
+        <v>4.463810481031579</v>
+      </c>
+      <c r="J58">
+        <v>124.7308064694737</v>
+      </c>
+      <c r="K58">
+        <v>444.4067205002442</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2370,6 +2898,15 @@
       <c r="H59">
         <v>202.000958010554</v>
       </c>
+      <c r="I59">
+        <v>0.2926146318105264</v>
+      </c>
+      <c r="J59">
+        <v>11.16982725263158</v>
+      </c>
+      <c r="K59">
+        <v>42.52651747590611</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2404,6 +2941,15 @@
       <c r="H60">
         <v>66.17144370079041</v>
       </c>
+      <c r="I60">
+        <v>0.05773740351578947</v>
+      </c>
+      <c r="J60">
+        <v>2.846641675789474</v>
+      </c>
+      <c r="K60">
+        <v>13.93083025279798</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2438,6 +2984,15 @@
       <c r="H61">
         <v>907.492208689451</v>
       </c>
+      <c r="I61">
+        <v>2.052286506189474</v>
+      </c>
+      <c r="J61">
+        <v>59.72436152842106</v>
+      </c>
+      <c r="K61">
+        <v>191.0509913030423</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2472,6 +3027,15 @@
       <c r="H62">
         <v>560.163375422359</v>
       </c>
+      <c r="I62">
+        <v>0.9419661276</v>
+      </c>
+      <c r="J62">
+        <v>32.05648530526316</v>
+      </c>
+      <c r="K62">
+        <v>117.9291316678651</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2506,6 +3070,15 @@
       <c r="H63">
         <v>6641.27674418688</v>
       </c>
+      <c r="I63">
+        <v>16.78160129208421</v>
+      </c>
+      <c r="J63">
+        <v>442.0239063894737</v>
+      </c>
+      <c r="K63">
+        <v>1398.163525091975</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2540,6 +3113,15 @@
       <c r="H64">
         <v>1074.12002794445</v>
       </c>
+      <c r="I64">
+        <v>3.722113187494737</v>
+      </c>
+      <c r="J64">
+        <v>81.75736535368422</v>
+      </c>
+      <c r="K64">
+        <v>226.1305321988316</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2574,6 +3156,15 @@
       <c r="H65">
         <v>2713.02645909786</v>
       </c>
+      <c r="I65">
+        <v>17.42577752162105</v>
+      </c>
+      <c r="J65">
+        <v>260.2510842863158</v>
+      </c>
+      <c r="K65">
+        <v>571.1634650732337</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2608,6 +3199,15 @@
       <c r="H66">
         <v>8064.3053085804</v>
       </c>
+      <c r="I66">
+        <v>9.67118716734737</v>
+      </c>
+      <c r="J66">
+        <v>374.73661256</v>
+      </c>
+      <c r="K66">
+        <v>1697.748486016926</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2642,6 +3242,15 @@
       <c r="H67">
         <v>1403.69590103626</v>
       </c>
+      <c r="I67">
+        <v>2.052077793494737</v>
+      </c>
+      <c r="J67">
+        <v>73.10761705473685</v>
+      </c>
+      <c r="K67">
+        <v>295.5149265339495</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2676,6 +3285,15 @@
       <c r="H68">
         <v>107.580711185932</v>
       </c>
+      <c r="I68">
+        <v>0.109967208</v>
+      </c>
+      <c r="J68">
+        <v>5.044061663157894</v>
+      </c>
+      <c r="K68">
+        <v>22.64857077598569</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2710,6 +3328,15 @@
       <c r="H69">
         <v>2606.57429659367</v>
       </c>
+      <c r="I69">
+        <v>8.483595979431579</v>
+      </c>
+      <c r="J69">
+        <v>184.0178737726316</v>
+      </c>
+      <c r="K69">
+        <v>548.7524834934043</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2744,6 +3371,15 @@
       <c r="H70">
         <v>1014.02577766776</v>
       </c>
+      <c r="I70">
+        <v>2.94529072191579</v>
+      </c>
+      <c r="J70">
+        <v>72.52473103789474</v>
+      </c>
+      <c r="K70">
+        <v>213.4791110879495</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2778,6 +3414,15 @@
       <c r="H71">
         <v>596.427478343248</v>
       </c>
+      <c r="I71">
+        <v>0.5156182593263159</v>
+      </c>
+      <c r="J71">
+        <v>24.94498599578948</v>
+      </c>
+      <c r="K71">
+        <v>125.5636796512101</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2812,6 +3457,15 @@
       <c r="H72">
         <v>5036.74508501589</v>
       </c>
+      <c r="I72">
+        <v>10.91060652218947</v>
+      </c>
+      <c r="J72">
+        <v>296.3707492568422</v>
+      </c>
+      <c r="K72">
+        <v>1060.367386319135</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2846,6 +3500,15 @@
       <c r="H73">
         <v>2564.58887401223</v>
       </c>
+      <c r="I73">
+        <v>9.618146198021053</v>
+      </c>
+      <c r="J73">
+        <v>202.089083168421</v>
+      </c>
+      <c r="K73">
+        <v>539.9134471604696</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2880,6 +3543,15 @@
       <c r="H74">
         <v>3423.12801349163</v>
       </c>
+      <c r="I74">
+        <v>17.64437460642106</v>
+      </c>
+      <c r="J74">
+        <v>283.0787088694737</v>
+      </c>
+      <c r="K74">
+        <v>720.6585291561327</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2914,6 +3586,15 @@
       <c r="H75">
         <v>2032.32493364811</v>
       </c>
+      <c r="I75">
+        <v>7.85679956271579</v>
+      </c>
+      <c r="J75">
+        <v>150.3002585768421</v>
+      </c>
+      <c r="K75">
+        <v>427.8578807680231</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2948,6 +3629,15 @@
       <c r="H76">
         <v>148.972713708878</v>
       </c>
+      <c r="I76">
+        <v>0.1593152484210527</v>
+      </c>
+      <c r="J76">
+        <v>6.721724490526317</v>
+      </c>
+      <c r="K76">
+        <v>31.36267657029011</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2982,6 +3672,15 @@
       <c r="H77">
         <v>240.953355893493</v>
       </c>
+      <c r="I77">
+        <v>0.4288788646315789</v>
+      </c>
+      <c r="J77">
+        <v>13.64150322315789</v>
+      </c>
+      <c r="K77">
+        <v>50.72702229336695</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3016,6 +3715,15 @@
       <c r="H78">
         <v>2686.50399008393</v>
       </c>
+      <c r="I78">
+        <v>4.10865745583158</v>
+      </c>
+      <c r="J78">
+        <v>141.0897590505263</v>
+      </c>
+      <c r="K78">
+        <v>565.5797873860906</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3050,6 +3758,15 @@
       <c r="H79">
         <v>635.832109570503</v>
       </c>
+      <c r="I79">
+        <v>3.391618922736843</v>
+      </c>
+      <c r="J79">
+        <v>50.87151346315789</v>
+      </c>
+      <c r="K79">
+        <v>133.8593914885269</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3084,6 +3801,15 @@
       <c r="H80">
         <v>204.651579976082</v>
       </c>
+      <c r="I80">
+        <v>0.6785730708210527</v>
+      </c>
+      <c r="J80">
+        <v>15.86801488421053</v>
+      </c>
+      <c r="K80">
+        <v>43.08454315285937</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3118,6 +3844,15 @@
       <c r="H81">
         <v>4290.66520409286</v>
       </c>
+      <c r="I81">
+        <v>7.0819395476</v>
+      </c>
+      <c r="J81">
+        <v>225.1588207389474</v>
+      </c>
+      <c r="K81">
+        <v>903.29793770376</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3152,6 +3887,15 @@
       <c r="H82">
         <v>1739.13612231612</v>
       </c>
+      <c r="I82">
+        <v>6.351943636715791</v>
+      </c>
+      <c r="J82">
+        <v>126.2615801263158</v>
+      </c>
+      <c r="K82">
+        <v>366.1339204876043</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3186,6 +3930,15 @@
       <c r="H83">
         <v>113.220996871591</v>
       </c>
+      <c r="I83">
+        <v>0.2687149898105263</v>
+      </c>
+      <c r="J83">
+        <v>7.562449389473684</v>
+      </c>
+      <c r="K83">
+        <v>23.83599934138758</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3220,6 +3973,15 @@
       <c r="H84">
         <v>3452.62900328636</v>
       </c>
+      <c r="I84">
+        <v>5.154468122378948</v>
+      </c>
+      <c r="J84">
+        <v>179.28902664</v>
+      </c>
+      <c r="K84">
+        <v>726.8692638497599</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3254,6 +4016,15 @@
       <c r="H85">
         <v>149.808581084013</v>
       </c>
+      <c r="I85">
+        <v>0.1353831410526316</v>
+      </c>
+      <c r="J85">
+        <v>6.600245326315791</v>
+      </c>
+      <c r="K85">
+        <v>31.5386486492659</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3288,6 +4059,15 @@
       <c r="H86">
         <v>62.9134621918201</v>
       </c>
+      <c r="I86">
+        <v>0.09471506378947368</v>
+      </c>
+      <c r="J86">
+        <v>3.507168905263158</v>
+      </c>
+      <c r="K86">
+        <v>13.24493940880423</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3322,6 +4102,15 @@
       <c r="H87">
         <v>2973.01051035523</v>
       </c>
+      <c r="I87">
+        <v>2.669112720884211</v>
+      </c>
+      <c r="J87">
+        <v>126.8910130989474</v>
+      </c>
+      <c r="K87">
+        <v>625.8969495484696</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3356,6 +4145,15 @@
       <c r="H88">
         <v>76.014099240303</v>
       </c>
+      <c r="I88">
+        <v>0.09874268675789473</v>
+      </c>
+      <c r="J88">
+        <v>3.87285081263158</v>
+      </c>
+      <c r="K88">
+        <v>16.00296826111642</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3390,6 +4188,15 @@
       <c r="H89">
         <v>7218.63316607475</v>
       </c>
+      <c r="I89">
+        <v>6.944576906126316</v>
+      </c>
+      <c r="J89">
+        <v>306.5784233368422</v>
+      </c>
+      <c r="K89">
+        <v>1519.712245489421</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3424,6 +4231,15 @@
       <c r="H90">
         <v>2543.44419074059</v>
       </c>
+      <c r="I90">
+        <v>6.4733923724</v>
+      </c>
+      <c r="J90">
+        <v>163.9110072673684</v>
+      </c>
+      <c r="K90">
+        <v>535.4619348927557</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3458,6 +4274,15 @@
       <c r="H91">
         <v>1577.5894266963</v>
       </c>
+      <c r="I91">
+        <v>1.911327847284211</v>
+      </c>
+      <c r="J91">
+        <v>76.99277358736843</v>
+      </c>
+      <c r="K91">
+        <v>332.1240898308001</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3492,6 +4317,15 @@
       <c r="H92">
         <v>3043.95390887558</v>
       </c>
+      <c r="I92">
+        <v>3.106604803873684</v>
+      </c>
+      <c r="J92">
+        <v>136.2349721136842</v>
+      </c>
+      <c r="K92">
+        <v>640.8324018685432</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3526,6 +4360,15 @@
       <c r="H93">
         <v>32.0758450031281</v>
       </c>
+      <c r="I93">
+        <v>0.009526319831578948</v>
+      </c>
+      <c r="J93">
+        <v>0.8991036168421053</v>
+      </c>
+      <c r="K93">
+        <v>6.752809474342758</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3560,6 +4403,15 @@
       <c r="H94">
         <v>2444.43044418097</v>
       </c>
+      <c r="I94">
+        <v>2.748199536084211</v>
+      </c>
+      <c r="J94">
+        <v>114.8705796484211</v>
+      </c>
+      <c r="K94">
+        <v>514.6169356170464</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3594,6 +4446,15 @@
       <c r="H95">
         <v>13.6800256371498</v>
       </c>
+      <c r="I95">
+        <v>0.009060479873684212</v>
+      </c>
+      <c r="J95">
+        <v>0.5078541915789474</v>
+      </c>
+      <c r="K95">
+        <v>2.880005397294695</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3628,6 +4489,15 @@
       <c r="H96">
         <v>295.396203041077</v>
       </c>
+      <c r="I96">
+        <v>0.2880052646947369</v>
+      </c>
+      <c r="J96">
+        <v>13.13200844210526</v>
+      </c>
+      <c r="K96">
+        <v>62.18867432443727</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3662,6 +4532,15 @@
       <c r="H97">
         <v>2300.60241128504</v>
       </c>
+      <c r="I97">
+        <v>2.745442605452631</v>
+      </c>
+      <c r="J97">
+        <v>109.48732168</v>
+      </c>
+      <c r="K97">
+        <v>484.337349744219</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3696,6 +4575,15 @@
       <c r="H98">
         <v>149.588878154755</v>
       </c>
+      <c r="I98">
+        <v>0.1451944105684211</v>
+      </c>
+      <c r="J98">
+        <v>6.670079185263158</v>
+      </c>
+      <c r="K98">
+        <v>31.49239540100106</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3730,6 +4618,15 @@
       <c r="H99">
         <v>149.588780552149</v>
       </c>
+      <c r="I99">
+        <v>0.451317724</v>
+      </c>
+      <c r="J99">
+        <v>11.87476828842106</v>
+      </c>
+      <c r="K99">
+        <v>31.492374853084</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3764,6 +4661,15 @@
       <c r="H100">
         <v>1353.7254319489</v>
       </c>
+      <c r="I100">
+        <v>1.87636962031579</v>
+      </c>
+      <c r="J100">
+        <v>69.54284979368421</v>
+      </c>
+      <c r="K100">
+        <v>284.9948277787158</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3798,6 +4704,15 @@
       <c r="H101">
         <v>50.5568670034409</v>
       </c>
+      <c r="I101">
+        <v>0.1223546203368421</v>
+      </c>
+      <c r="J101">
+        <v>3.441473404210526</v>
+      </c>
+      <c r="K101">
+        <v>10.64355094809282</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3832,6 +4747,15 @@
       <c r="H102">
         <v>27.3868218660355</v>
       </c>
+      <c r="I102">
+        <v>0.009019664694736843</v>
+      </c>
+      <c r="J102">
+        <v>0.7922043473684211</v>
+      </c>
+      <c r="K102">
+        <v>5.765646708639054</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3866,6 +4790,15 @@
       <c r="H103">
         <v>2142.28491985798</v>
       </c>
+      <c r="I103">
+        <v>2.52801033543158</v>
+      </c>
+      <c r="J103">
+        <v>99.87882813473685</v>
+      </c>
+      <c r="K103">
+        <v>451.0073515490485</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3900,6 +4833,15 @@
       <c r="H104">
         <v>725.262787535787</v>
       </c>
+      <c r="I104">
+        <v>2.098907610863158</v>
+      </c>
+      <c r="J104">
+        <v>52.82255728421053</v>
+      </c>
+      <c r="K104">
+        <v>152.686902639113</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3934,6 +4876,15 @@
       <c r="H105">
         <v>86.6267912387848</v>
       </c>
+      <c r="I105">
+        <v>0.03611439305263158</v>
+      </c>
+      <c r="J105">
+        <v>2.757950835789474</v>
+      </c>
+      <c r="K105">
+        <v>18.23721920816522</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3968,6 +4919,15 @@
       <c r="H106">
         <v>4696.91302424669</v>
       </c>
+      <c r="I106">
+        <v>8.360175762547369</v>
+      </c>
+      <c r="J106">
+        <v>266.3226376147368</v>
+      </c>
+      <c r="K106">
+        <v>988.8237945782506</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4002,6 +4962,15 @@
       <c r="H107">
         <v>497.388228192925</v>
       </c>
+      <c r="I107">
+        <v>1.018365508968421</v>
+      </c>
+      <c r="J107">
+        <v>30.57930152842106</v>
+      </c>
+      <c r="K107">
+        <v>104.7133111985105</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4036,6 +5005,15 @@
       <c r="H108">
         <v>700.256073102355</v>
       </c>
+      <c r="I108">
+        <v>1.739090187473684</v>
+      </c>
+      <c r="J108">
+        <v>47.71792184842106</v>
+      </c>
+      <c r="K108">
+        <v>147.4223311794432</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4070,6 +5048,15 @@
       <c r="H109">
         <v>3429.81546041369</v>
       </c>
+      <c r="I109">
+        <v>4.860802461936842</v>
+      </c>
+      <c r="J109">
+        <v>173.6471674652632</v>
+      </c>
+      <c r="K109">
+        <v>722.0664127186716</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4104,6 +5091,15 @@
       <c r="H110">
         <v>238.215886414051</v>
       </c>
+      <c r="I110">
+        <v>0.1890110096631579</v>
+      </c>
+      <c r="J110">
+        <v>9.662882334736842</v>
+      </c>
+      <c r="K110">
+        <v>50.15071292927389</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4138,6 +5134,15 @@
       <c r="H111">
         <v>53.9733228683472</v>
       </c>
+      <c r="I111">
+        <v>0.03324676810526316</v>
+      </c>
+      <c r="J111">
+        <v>2.017596947368421</v>
+      </c>
+      <c r="K111">
+        <v>11.36280481438888</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4172,6 +5177,15 @@
       <c r="H112">
         <v>4632.64837805927</v>
       </c>
+      <c r="I112">
+        <v>5.758654682378948</v>
+      </c>
+      <c r="J112">
+        <v>220.0133459663158</v>
+      </c>
+      <c r="K112">
+        <v>975.2943953808989</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4206,6 +5220,15 @@
       <c r="H113">
         <v>513.35659481585</v>
       </c>
+      <c r="I113">
+        <v>0.7347536029052633</v>
+      </c>
+      <c r="J113">
+        <v>26.47130292631579</v>
+      </c>
+      <c r="K113">
+        <v>108.0750725928105</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4240,6 +5263,15 @@
       <c r="H114">
         <v>234.568594321609</v>
       </c>
+      <c r="I114">
+        <v>0.5929717529894737</v>
+      </c>
+      <c r="J114">
+        <v>15.77836866947368</v>
+      </c>
+      <c r="K114">
+        <v>49.382861962444</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4274,6 +5306,15 @@
       <c r="H115">
         <v>3584.44351688027</v>
       </c>
+      <c r="I115">
+        <v>6.76706862368421</v>
+      </c>
+      <c r="J115">
+        <v>208.3073698210526</v>
+      </c>
+      <c r="K115">
+        <v>754.6196877642675</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4308,6 +5349,15 @@
       <c r="H116">
         <v>1639.95383429527</v>
       </c>
+      <c r="I116">
+        <v>3.910114818547369</v>
+      </c>
+      <c r="J116">
+        <v>105.5069563052632</v>
+      </c>
+      <c r="K116">
+        <v>345.2534387990042</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4342,6 +5392,15 @@
       <c r="H117">
         <v>649.7983941733841</v>
       </c>
+      <c r="I117">
+        <v>2.393206827473684</v>
+      </c>
+      <c r="J117">
+        <v>43.18596668421053</v>
+      </c>
+      <c r="K117">
+        <v>136.7996619312388</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4376,6 +5435,15 @@
       <c r="H118">
         <v>2905.4460657239</v>
       </c>
+      <c r="I118">
+        <v>2.958676252884211</v>
+      </c>
+      <c r="J118">
+        <v>129.4018506210526</v>
+      </c>
+      <c r="K118">
+        <v>611.6728559418738</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4410,6 +5478,15 @@
       <c r="H119">
         <v>129.904288768768</v>
       </c>
+      <c r="I119">
+        <v>0.1864693797894737</v>
+      </c>
+      <c r="J119">
+        <v>7.004892063157895</v>
+      </c>
+      <c r="K119">
+        <v>27.34827131974063</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4444,6 +5521,15 @@
       <c r="H120">
         <v>2819.69092160463</v>
       </c>
+      <c r="I120">
+        <v>2.910777725663158</v>
+      </c>
+      <c r="J120">
+        <v>122.7163900947369</v>
+      </c>
+      <c r="K120">
+        <v>593.6191413904485</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4478,6 +5564,15 @@
       <c r="H121">
         <v>1019.25198882818</v>
       </c>
+      <c r="I121">
+        <v>2.201896288778948</v>
+      </c>
+      <c r="J121">
+        <v>59.14188923368421</v>
+      </c>
+      <c r="K121">
+        <v>214.5793660690905</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4512,6 +5607,15 @@
       <c r="H122">
         <v>17.9235789775848</v>
       </c>
+      <c r="I122">
+        <v>0.006398709684210526</v>
+      </c>
+      <c r="J122">
+        <v>0.5423701810526316</v>
+      </c>
+      <c r="K122">
+        <v>3.77338504791259</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4546,6 +5650,15 @@
       <c r="H123">
         <v>3379.67548635602</v>
       </c>
+      <c r="I123">
+        <v>8.750844267326315</v>
+      </c>
+      <c r="J123">
+        <v>215.9240237936842</v>
+      </c>
+      <c r="K123">
+        <v>711.5106287065305</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4580,6 +5693,15 @@
       <c r="H124">
         <v>862.667210638523</v>
       </c>
+      <c r="I124">
+        <v>1.189506475578948</v>
+      </c>
+      <c r="J124">
+        <v>43.41255696210526</v>
+      </c>
+      <c r="K124">
+        <v>181.6141496081101</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4614,6 +5736,15 @@
       <c r="H125">
         <v>3075.52866274118</v>
       </c>
+      <c r="I125">
+        <v>5.040959694842106</v>
+      </c>
+      <c r="J125">
+        <v>170.8810021031579</v>
+      </c>
+      <c r="K125">
+        <v>647.4797184718274</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4648,6 +5779,15 @@
       <c r="H126">
         <v>1057.12138098478</v>
       </c>
+      <c r="I126">
+        <v>2.064170698526316</v>
+      </c>
+      <c r="J126">
+        <v>62.58335644631579</v>
+      </c>
+      <c r="K126">
+        <v>222.5518696810063</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4682,6 +5822,15 @@
       <c r="H127">
         <v>6.45155239105225</v>
       </c>
+      <c r="I127">
+        <v>0.002116095157894737</v>
+      </c>
+      <c r="J127">
+        <v>0.1900456</v>
+      </c>
+      <c r="K127">
+        <v>1.358221556011</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4716,6 +5865,15 @@
       <c r="H128">
         <v>5645.90638694167</v>
       </c>
+      <c r="I128">
+        <v>5.883497077705264</v>
+      </c>
+      <c r="J128">
+        <v>250.043962951579</v>
+      </c>
+      <c r="K128">
+        <v>1188.611870935088</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4750,6 +5908,15 @@
       <c r="H129">
         <v>160.082246899605</v>
       </c>
+      <c r="I129">
+        <v>0.3436539705263158</v>
+      </c>
+      <c r="J129">
+        <v>10.54502282105263</v>
+      </c>
+      <c r="K129">
+        <v>33.70152566307474</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4784,6 +5951,15 @@
       <c r="H130">
         <v>2908.04599389434</v>
       </c>
+      <c r="I130">
+        <v>3.297907350926316</v>
+      </c>
+      <c r="J130">
+        <v>136.4209560589474</v>
+      </c>
+      <c r="K130">
+        <v>612.2202092409136</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4818,6 +5994,15 @@
       <c r="H131">
         <v>980.384364366531</v>
       </c>
+      <c r="I131">
+        <v>3.000793477515789</v>
+      </c>
+      <c r="J131">
+        <v>66.67211580631579</v>
+      </c>
+      <c r="K131">
+        <v>206.3967082876908</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4852,6 +6037,15 @@
       <c r="H132">
         <v>93.0981657207012</v>
       </c>
+      <c r="I132">
+        <v>0.1275026768421053</v>
+      </c>
+      <c r="J132">
+        <v>5.046144463157894</v>
+      </c>
+      <c r="K132">
+        <v>19.5996138359371</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4886,6 +6080,15 @@
       <c r="H133">
         <v>1431.18960949779</v>
       </c>
+      <c r="I133">
+        <v>1.732607373852632</v>
+      </c>
+      <c r="J133">
+        <v>66.48558306315789</v>
+      </c>
+      <c r="K133">
+        <v>301.3030756837453</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4920,6 +6123,15 @@
       <c r="H134">
         <v>13.1136765480042</v>
       </c>
+      <c r="I134">
+        <v>0.0299994652631579</v>
+      </c>
+      <c r="J134">
+        <v>0.977813157894737</v>
+      </c>
+      <c r="K134">
+        <v>2.760774010106148</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4954,6 +6166,15 @@
       <c r="H135">
         <v>43.9242856502533</v>
       </c>
+      <c r="I135">
+        <v>0.0191331576</v>
+      </c>
+      <c r="J135">
+        <v>1.440545410526316</v>
+      </c>
+      <c r="K135">
+        <v>9.247218031632276</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4988,6 +6209,15 @@
       <c r="H136">
         <v>3057.21026000381</v>
       </c>
+      <c r="I136">
+        <v>2.557365001494737</v>
+      </c>
+      <c r="J136">
+        <v>125.6836838463158</v>
+      </c>
+      <c r="K136">
+        <v>643.6232126323811</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5022,6 +6252,15 @@
       <c r="H137">
         <v>250.106812149286</v>
       </c>
+      <c r="I137">
+        <v>0.3575932450526316</v>
+      </c>
+      <c r="J137">
+        <v>13.40063294526316</v>
+      </c>
+      <c r="K137">
+        <v>52.65406571563916</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5056,6 +6295,15 @@
       <c r="H138">
         <v>78.87241348624229</v>
       </c>
+      <c r="I138">
+        <v>0.1934674547368421</v>
+      </c>
+      <c r="J138">
+        <v>5.519695136842105</v>
+      </c>
+      <c r="K138">
+        <v>16.60471862868259</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5090,6 +6338,15 @@
       <c r="H139">
         <v>7831.81152799726</v>
       </c>
+      <c r="I139">
+        <v>9.779157024757897</v>
+      </c>
+      <c r="J139">
+        <v>369.4655494105263</v>
+      </c>
+      <c r="K139">
+        <v>1648.802426946792</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5124,6 +6381,15 @@
       <c r="H140">
         <v>1981.10623559356</v>
       </c>
+      <c r="I140">
+        <v>4.515177267873685</v>
+      </c>
+      <c r="J140">
+        <v>119.8349333221053</v>
+      </c>
+      <c r="K140">
+        <v>417.0749969670653</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5158,6 +6424,15 @@
       <c r="H141">
         <v>226.066040813923</v>
       </c>
+      <c r="I141">
+        <v>0.2420018689894737</v>
+      </c>
+      <c r="J141">
+        <v>10.48362891789474</v>
+      </c>
+      <c r="K141">
+        <v>47.592850697668</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5192,6 +6467,15 @@
       <c r="H142">
         <v>4338.79545331001</v>
       </c>
+      <c r="I142">
+        <v>6.012700613178948</v>
+      </c>
+      <c r="J142">
+        <v>216.7362267305263</v>
+      </c>
+      <c r="K142">
+        <v>913.4306217494758</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5226,6 +6510,15 @@
       <c r="H143">
         <v>544.922555685043</v>
       </c>
+      <c r="I143">
+        <v>0.3668349261052632</v>
+      </c>
+      <c r="J143">
+        <v>20.99687471789474</v>
+      </c>
+      <c r="K143">
+        <v>114.7205380389564</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5260,6 +6553,15 @@
       <c r="H144">
         <v>700.877563595772</v>
       </c>
+      <c r="I144">
+        <v>0.9551152477473685</v>
+      </c>
+      <c r="J144">
+        <v>35.86897119789474</v>
+      </c>
+      <c r="K144">
+        <v>147.5531712833204</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5294,6 +6596,15 @@
       <c r="H145">
         <v>9015.597810566431</v>
       </c>
+      <c r="I145">
+        <v>11.66698488044211</v>
+      </c>
+      <c r="J145">
+        <v>420.1157397494737</v>
+      </c>
+      <c r="K145">
+        <v>1898.020591698196</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5328,6 +6639,15 @@
       <c r="H146">
         <v>1080.71493831277</v>
       </c>
+      <c r="I146">
+        <v>3.371608927010526</v>
+      </c>
+      <c r="J146">
+        <v>76.48718677684212</v>
+      </c>
+      <c r="K146">
+        <v>227.5189343816358</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5362,6 +6682,15 @@
       <c r="H147">
         <v>128.617435783148</v>
       </c>
+      <c r="I147">
+        <v>0.09134633208421053</v>
+      </c>
+      <c r="J147">
+        <v>5.007097374736842</v>
+      </c>
+      <c r="K147">
+        <v>27.07735490171537</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5396,6 +6725,15 @@
       <c r="H148">
         <v>3058.8034542948</v>
       </c>
+      <c r="I148">
+        <v>8.054866887768421</v>
+      </c>
+      <c r="J148">
+        <v>199.2914302294737</v>
+      </c>
+      <c r="K148">
+        <v>643.9586219568</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5430,6 +6768,15 @@
       <c r="H149">
         <v>564.561066895723</v>
       </c>
+      <c r="I149">
+        <v>1.087193004189474</v>
+      </c>
+      <c r="J149">
+        <v>32.34356747789474</v>
+      </c>
+      <c r="K149">
+        <v>118.8549614517312</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5464,6 +6811,15 @@
       <c r="H150">
         <v>114.311129271984</v>
       </c>
+      <c r="I150">
+        <v>0.1910472701052632</v>
+      </c>
+      <c r="J150">
+        <v>7.032867705263159</v>
+      </c>
+      <c r="K150">
+        <v>24.06550089936506</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5498,6 +6854,15 @@
       <c r="H151">
         <v>805.079485952854</v>
       </c>
+      <c r="I151">
+        <v>0.8103162659578947</v>
+      </c>
+      <c r="J151">
+        <v>36.41842161052632</v>
+      </c>
+      <c r="K151">
+        <v>169.4904180953377</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5532,6 +6897,15 @@
       <c r="H152">
         <v>669.289186269045</v>
       </c>
+      <c r="I152">
+        <v>1.368182487284211</v>
+      </c>
+      <c r="J152">
+        <v>36.41254442105263</v>
+      </c>
+      <c r="K152">
+        <v>140.9029865829569</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5566,6 +6940,15 @@
       <c r="H153">
         <v>333.7053784132</v>
       </c>
+      <c r="I153">
+        <v>0.5116042403368422</v>
+      </c>
+      <c r="J153">
+        <v>18.06092515578947</v>
+      </c>
+      <c r="K153">
+        <v>70.25376387646317</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5600,6 +6983,15 @@
       <c r="H154">
         <v>349.208034157753</v>
       </c>
+      <c r="I154">
+        <v>0.4990976784421053</v>
+      </c>
+      <c r="J154">
+        <v>18.31129209684211</v>
+      </c>
+      <c r="K154">
+        <v>73.51748087531642</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5634,6 +7026,15 @@
       <c r="H155">
         <v>31.4992333650589</v>
       </c>
+      <c r="I155">
+        <v>0.01860906294736842</v>
+      </c>
+      <c r="J155">
+        <v>1.166282463157895</v>
+      </c>
+      <c r="K155">
+        <v>6.631417550538716</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5668,6 +7069,15 @@
       <c r="H156">
         <v>54.9551453590393</v>
       </c>
+      <c r="I156">
+        <v>0.03599263263157895</v>
+      </c>
+      <c r="J156">
+        <v>2.123917972631579</v>
+      </c>
+      <c r="K156">
+        <v>11.56950428611354</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5702,6 +7112,15 @@
       <c r="H157">
         <v>5869.12201994658</v>
       </c>
+      <c r="I157">
+        <v>6.362457568357895</v>
+      </c>
+      <c r="J157">
+        <v>264.224737511579</v>
+      </c>
+      <c r="K157">
+        <v>1235.604635778227</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5736,6 +7155,15 @@
       <c r="H158">
         <v>226.816702648997</v>
       </c>
+      <c r="I158">
+        <v>0.3114759972631579</v>
+      </c>
+      <c r="J158">
+        <v>11.95657789263158</v>
+      </c>
+      <c r="K158">
+        <v>47.7508847682099</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5770,6 +7198,15 @@
       <c r="H159">
         <v>449.869393676519</v>
       </c>
+      <c r="I159">
+        <v>0.5500514134526316</v>
+      </c>
+      <c r="J159">
+        <v>22.27900274947369</v>
+      </c>
+      <c r="K159">
+        <v>94.70934603716189</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5804,6 +7241,15 @@
       <c r="H160">
         <v>2133.30929610133</v>
       </c>
+      <c r="I160">
+        <v>2.186391443621053</v>
+      </c>
+      <c r="J160">
+        <v>94.55139306736842</v>
+      </c>
+      <c r="K160">
+        <v>449.1177465476484</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5838,6 +7284,15 @@
       <c r="H161">
         <v>362.984613895416</v>
       </c>
+      <c r="I161">
+        <v>0.4597865123368422</v>
+      </c>
+      <c r="J161">
+        <v>17.65334833473684</v>
+      </c>
+      <c r="K161">
+        <v>76.41781345166653</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5872,6 +7327,15 @@
       <c r="H162">
         <v>47.5140070915222</v>
       </c>
+      <c r="I162">
+        <v>0.04297728456842105</v>
+      </c>
+      <c r="J162">
+        <v>2.156263936842106</v>
+      </c>
+      <c r="K162">
+        <v>10.0029488613731</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5906,6 +7370,15 @@
       <c r="H163">
         <v>2801.49446052313</v>
       </c>
+      <c r="I163">
+        <v>5.635822244968421</v>
+      </c>
+      <c r="J163">
+        <v>156.6369828315789</v>
+      </c>
+      <c r="K163">
+        <v>589.7883074785538</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5940,6 +7413,15 @@
       <c r="H164">
         <v>715.631818622351</v>
       </c>
+      <c r="I164">
+        <v>0.8919313626736842</v>
+      </c>
+      <c r="J164">
+        <v>34.81359142610526</v>
+      </c>
+      <c r="K164">
+        <v>150.6593302362844</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5974,6 +7456,15 @@
       <c r="H165">
         <v>2019.24645806849</v>
       </c>
+      <c r="I165">
+        <v>1.840743398147368</v>
+      </c>
+      <c r="J165">
+        <v>84.60498948421052</v>
+      </c>
+      <c r="K165">
+        <v>425.1045174881032</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6008,6 +7499,15 @@
       <c r="H166">
         <v>9614.23182541132</v>
       </c>
+      <c r="I166">
+        <v>15.21849964317895</v>
+      </c>
+      <c r="J166">
+        <v>495.2877115052632</v>
+      </c>
+      <c r="K166">
+        <v>2024.048805349752</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6042,6 +7542,15 @@
       <c r="H167">
         <v>1200.76102995872</v>
       </c>
+      <c r="I167">
+        <v>7.305295821684211</v>
+      </c>
+      <c r="J167">
+        <v>112.1089814821053</v>
+      </c>
+      <c r="K167">
+        <v>252.7917957807832</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6076,6 +7585,15 @@
       <c r="H168">
         <v>293.601321682334</v>
       </c>
+      <c r="I168">
+        <v>0.4448444065473685</v>
+      </c>
+      <c r="J168">
+        <v>16.732693</v>
+      </c>
+      <c r="K168">
+        <v>61.8108045647019</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6110,6 +7628,15 @@
       <c r="H169">
         <v>3386.41005042195</v>
       </c>
+      <c r="I169">
+        <v>4.25223033471579</v>
+      </c>
+      <c r="J169">
+        <v>160.2474256484211</v>
+      </c>
+      <c r="K169">
+        <v>712.9284316677789</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6144,6 +7671,15 @@
       <c r="H170">
         <v>1300.19590942562</v>
       </c>
+      <c r="I170">
+        <v>4.497150436526316</v>
+      </c>
+      <c r="J170">
+        <v>96.3106534568421</v>
+      </c>
+      <c r="K170">
+        <v>273.72545461592</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6178,6 +7714,15 @@
       <c r="H171">
         <v>2320.48902072012</v>
       </c>
+      <c r="I171">
+        <v>4.629456356526316</v>
+      </c>
+      <c r="J171">
+        <v>135.3638691957895</v>
+      </c>
+      <c r="K171">
+        <v>488.5240043621306</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6212,6 +7757,15 @@
       <c r="H172">
         <v>4416.69379192591</v>
       </c>
+      <c r="I172">
+        <v>6.734501662905263</v>
+      </c>
+      <c r="J172">
+        <v>227.6476469305263</v>
+      </c>
+      <c r="K172">
+        <v>929.8302719844022</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6246,6 +7800,15 @@
       <c r="H173">
         <v>1415.55006696284</v>
       </c>
+      <c r="I173">
+        <v>6.316218577621052</v>
+      </c>
+      <c r="J173">
+        <v>113.41102804</v>
+      </c>
+      <c r="K173">
+        <v>298.0105404132295</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6280,6 +7843,15 @@
       <c r="H174">
         <v>176.22240075469</v>
       </c>
+      <c r="I174">
+        <v>0.2673665319578948</v>
+      </c>
+      <c r="J174">
+        <v>9.61158472</v>
+      </c>
+      <c r="K174">
+        <v>37.09945279046106</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6314,6 +7886,15 @@
       <c r="H175">
         <v>3321.3036441803</v>
       </c>
+      <c r="I175">
+        <v>4.83055545351579</v>
+      </c>
+      <c r="J175">
+        <v>171.0869113473684</v>
+      </c>
+      <c r="K175">
+        <v>699.2218198274317</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6348,6 +7929,15 @@
       <c r="H176">
         <v>2034.07704633474</v>
       </c>
+      <c r="I176">
+        <v>4.282365695052632</v>
+      </c>
+      <c r="J176">
+        <v>123.106138991579</v>
+      </c>
+      <c r="K176">
+        <v>428.2267465967874</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6382,6 +7972,15 @@
       <c r="H177">
         <v>300.886443167925</v>
       </c>
+      <c r="I177">
+        <v>0.5280339938947368</v>
+      </c>
+      <c r="J177">
+        <v>17.94927108842105</v>
+      </c>
+      <c r="K177">
+        <v>63.34451435114211</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6416,6 +8015,15 @@
       <c r="H178">
         <v>2118.58455139399</v>
       </c>
+      <c r="I178">
+        <v>2.582701276505263</v>
+      </c>
+      <c r="J178">
+        <v>100.6283677136842</v>
+      </c>
+      <c r="K178">
+        <v>446.0178002934716</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6450,6 +8058,15 @@
       <c r="H179">
         <v>47.7243491411209</v>
       </c>
+      <c r="I179">
+        <v>0.07381483600000001</v>
+      </c>
+      <c r="J179">
+        <v>2.755644989473685</v>
+      </c>
+      <c r="K179">
+        <v>10.04723139813072</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6484,6 +8101,15 @@
       <c r="H180">
         <v>47.3110512495041</v>
       </c>
+      <c r="I180">
+        <v>0.02128991452631579</v>
+      </c>
+      <c r="J180">
+        <v>1.535680273684211</v>
+      </c>
+      <c r="K180">
+        <v>9.960221315685073</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6518,6 +8144,15 @@
       <c r="H181">
         <v>6293.03443828225</v>
       </c>
+      <c r="I181">
+        <v>8.358510226021053</v>
+      </c>
+      <c r="J181">
+        <v>307.1314412505263</v>
+      </c>
+      <c r="K181">
+        <v>1324.849355427842</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6552,6 +8187,15 @@
       <c r="H182">
         <v>4601.11343318224</v>
       </c>
+      <c r="I182">
+        <v>6.981959403557895</v>
+      </c>
+      <c r="J182">
+        <v>237.1632167578948</v>
+      </c>
+      <c r="K182">
+        <v>968.6554596173138</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6586,6 +8230,15 @@
       <c r="H183">
         <v>193.482412517071</v>
       </c>
+      <c r="I183">
+        <v>0.1103377031578947</v>
+      </c>
+      <c r="J183">
+        <v>6.967121058947369</v>
+      </c>
+      <c r="K183">
+        <v>40.73313947727811</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6620,6 +8273,15 @@
       <c r="H184">
         <v>4572.97599062324</v>
       </c>
+      <c r="I184">
+        <v>7.512992692126316</v>
+      </c>
+      <c r="J184">
+        <v>250.7877848610526</v>
+      </c>
+      <c r="K184">
+        <v>962.7317874996296</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6654,6 +8316,15 @@
       <c r="H185">
         <v>581.875418007374</v>
       </c>
+      <c r="I185">
+        <v>1.817062696105263</v>
+      </c>
+      <c r="J185">
+        <v>43.21649839578948</v>
+      </c>
+      <c r="K185">
+        <v>122.5000880015524</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6688,6 +8359,15 @@
       <c r="H186">
         <v>172.499442115426</v>
       </c>
+      <c r="I186">
+        <v>0.2483402953894737</v>
+      </c>
+      <c r="J186">
+        <v>9.571003058947369</v>
+      </c>
+      <c r="K186">
+        <v>36.31567202430021</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6722,6 +8402,15 @@
       <c r="H187">
         <v>2220.37776768208</v>
       </c>
+      <c r="I187">
+        <v>3.45627115423158</v>
+      </c>
+      <c r="J187">
+        <v>118.869113231579</v>
+      </c>
+      <c r="K187">
+        <v>467.4479510909642</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6756,6 +8445,15 @@
       <c r="H188">
         <v>567.576842725277</v>
       </c>
+      <c r="I188">
+        <v>0.8508541284210526</v>
+      </c>
+      <c r="J188">
+        <v>28.89858429052632</v>
+      </c>
+      <c r="K188">
+        <v>119.4898616263741</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6790,6 +8488,15 @@
       <c r="H189">
         <v>58.0941770076752</v>
       </c>
+      <c r="I189">
+        <v>0.07438301452631579</v>
+      </c>
+      <c r="J189">
+        <v>2.80358608631579</v>
+      </c>
+      <c r="K189">
+        <v>12.23035305424741</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6824,6 +8531,15 @@
       <c r="H190">
         <v>4536.48876586556</v>
       </c>
+      <c r="I190">
+        <v>6.888820636273685</v>
+      </c>
+      <c r="J190">
+        <v>232.4248245052632</v>
+      </c>
+      <c r="K190">
+        <v>955.0502664980126</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6858,6 +8574,15 @@
       <c r="H191">
         <v>487.967858940363</v>
       </c>
+      <c r="I191">
+        <v>0.8953824352421054</v>
+      </c>
+      <c r="J191">
+        <v>28.04237188842106</v>
+      </c>
+      <c r="K191">
+        <v>102.7300755663922</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6892,6 +8617,15 @@
       <c r="H192">
         <v>36.315378844738</v>
       </c>
+      <c r="I192">
+        <v>0.3818376341052632</v>
+      </c>
+      <c r="J192">
+        <v>5.393373094736843</v>
+      </c>
+      <c r="K192">
+        <v>7.645342914681685</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6926,6 +8660,15 @@
       <c r="H193">
         <v>9885.91155800223</v>
       </c>
+      <c r="I193">
+        <v>19.57820844452632</v>
+      </c>
+      <c r="J193">
+        <v>592.4816143768422</v>
+      </c>
+      <c r="K193">
+        <v>2081.244538526785</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6960,6 +8703,15 @@
       <c r="H194">
         <v>34.4723553061485</v>
       </c>
+      <c r="I194">
+        <v>0.02138089256842105</v>
+      </c>
+      <c r="J194">
+        <v>1.310957747368421</v>
+      </c>
+      <c r="K194">
+        <v>7.257337959189158</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6994,6 +8746,15 @@
       <c r="H195">
         <v>310.300355136395</v>
       </c>
+      <c r="I195">
+        <v>1.2700267544</v>
+      </c>
+      <c r="J195">
+        <v>24.31708882315789</v>
+      </c>
+      <c r="K195">
+        <v>65.32639055503053</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7028,6 +8789,15 @@
       <c r="H196">
         <v>1312.68862521648</v>
       </c>
+      <c r="I196">
+        <v>2.024282182863158</v>
+      </c>
+      <c r="J196">
+        <v>71.48638407578947</v>
+      </c>
+      <c r="K196">
+        <v>276.3555000455747</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7062,6 +8832,15 @@
       <c r="H197">
         <v>53.8835606575012</v>
       </c>
+      <c r="I197">
+        <v>0.06294947842105264</v>
+      </c>
+      <c r="J197">
+        <v>2.625013536842106</v>
+      </c>
+      <c r="K197">
+        <v>11.34390750684236</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7096,6 +8875,15 @@
       <c r="H198">
         <v>186.153921172023</v>
       </c>
+      <c r="I198">
+        <v>0.1930975356210526</v>
+      </c>
+      <c r="J198">
+        <v>8.457543903157895</v>
+      </c>
+      <c r="K198">
+        <v>39.1902991941101</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7130,6 +8918,15 @@
       <c r="H199">
         <v>1176.38146162033</v>
       </c>
+      <c r="I199">
+        <v>1.920136038252632</v>
+      </c>
+      <c r="J199">
+        <v>59.88243428000001</v>
+      </c>
+      <c r="K199">
+        <v>247.6592550779642</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7164,6 +8961,15 @@
       <c r="H200">
         <v>538.031349360943</v>
       </c>
+      <c r="I200">
+        <v>0.7509290957894738</v>
+      </c>
+      <c r="J200">
+        <v>27.81467199578947</v>
+      </c>
+      <c r="K200">
+        <v>113.2697577601985</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7198,6 +9004,15 @@
       <c r="H201">
         <v>215.525413125753</v>
       </c>
+      <c r="I201">
+        <v>0.185303556</v>
+      </c>
+      <c r="J201">
+        <v>9.358845315789473</v>
+      </c>
+      <c r="K201">
+        <v>45.37377118436906</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7232,6 +9047,15 @@
       <c r="H202">
         <v>3032.83048978448</v>
       </c>
+      <c r="I202">
+        <v>2.056906966926316</v>
+      </c>
+      <c r="J202">
+        <v>113.7208210842105</v>
+      </c>
+      <c r="K202">
+        <v>638.4906294283117</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7266,6 +9090,15 @@
       <c r="H203">
         <v>619.679204910994</v>
       </c>
+      <c r="I203">
+        <v>3.688588822442105</v>
+      </c>
+      <c r="J203">
+        <v>56.44992632631579</v>
+      </c>
+      <c r="K203">
+        <v>130.4587799812619</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7300,6 +9133,15 @@
       <c r="H204">
         <v>52.1464307904243</v>
       </c>
+      <c r="I204">
+        <v>0.02025486884210527</v>
+      </c>
+      <c r="J204">
+        <v>1.604756749473684</v>
+      </c>
+      <c r="K204">
+        <v>10.9781959558788</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7334,6 +9176,15 @@
       <c r="H205">
         <v>3090.25014768541</v>
       </c>
+      <c r="I205">
+        <v>5.25038652768421</v>
+      </c>
+      <c r="J205">
+        <v>167.0958156968421</v>
+      </c>
+      <c r="K205">
+        <v>650.5789784600863</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7368,6 +9219,15 @@
       <c r="H206">
         <v>919.908909022808</v>
       </c>
+      <c r="I206">
+        <v>2.548998877473685</v>
+      </c>
+      <c r="J206">
+        <v>61.27182925473684</v>
+      </c>
+      <c r="K206">
+        <v>193.6650334784859</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7402,6 +9262,15 @@
       <c r="H207">
         <v>1500.69834664464</v>
       </c>
+      <c r="I207">
+        <v>4.609104508842105</v>
+      </c>
+      <c r="J207">
+        <v>109.0858792063158</v>
+      </c>
+      <c r="K207">
+        <v>315.9364940304506</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7435,6 +9304,15 @@
       </c>
       <c r="H208">
         <v>149.15327835083</v>
+      </c>
+      <c r="I208">
+        <v>0.199523655368421</v>
+      </c>
+      <c r="J208">
+        <v>7.613438905263158</v>
+      </c>
+      <c r="K208">
+        <v>31.40069017912211</v>
       </c>
     </row>
   </sheetData>

--- a/data/safira_cana_soca.xlsx
+++ b/data/safira_cana_soca.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:Q208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,22 +395,52 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>comprimento</t>
+          <t>comprimento_total</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>comprimento_05</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_m2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>volume_cm3_dm3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>area_cm2_dm3</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>comprimento_cm_dm3</t>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_total_cm_dm3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_05_cm_dm3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_2_cm_dm3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>comprimento_m2_cm_dm3</t>
         </is>
       </c>
     </row>
@@ -448,13 +478,31 @@
         <v>8693.654607743019</v>
       </c>
       <c r="I2">
+        <v>4955.21249528229</v>
+      </c>
+      <c r="J2">
+        <v>1857.14133784175</v>
+      </c>
+      <c r="K2">
+        <v>1881.30077461898</v>
+      </c>
+      <c r="L2">
         <v>15.2264043815579</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>459.6900118926316</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>1830.24307531432</v>
+      </c>
+      <c r="O2">
+        <v>1043.202630585745</v>
+      </c>
+      <c r="P2">
+        <v>390.9771237561579</v>
+      </c>
+      <c r="Q2">
+        <v>396.0633209724169</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +539,31 @@
         <v>5048.13178312778</v>
       </c>
       <c r="I3">
+        <v>2540.43058627844</v>
+      </c>
+      <c r="J3">
+        <v>1286.99337010086</v>
+      </c>
+      <c r="K3">
+        <v>1220.70782674849</v>
+      </c>
+      <c r="L3">
         <v>8.752766066989473</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>276.8056555705264</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>1062.764585921638</v>
+      </c>
+      <c r="O3">
+        <v>534.8274918480927</v>
+      </c>
+      <c r="P3">
+        <v>270.9459726528127</v>
+      </c>
+      <c r="Q3">
+        <v>256.9911214207348</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +600,31 @@
         <v>1012.29277032614</v>
       </c>
       <c r="I4">
+        <v>425.846452593803</v>
+      </c>
+      <c r="J4">
+        <v>176.192044615746</v>
+      </c>
+      <c r="K4">
+        <v>410.254273116589</v>
+      </c>
+      <c r="L4">
         <v>4.351829789326316</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>82.14452473052631</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>213.1142674370821</v>
+      </c>
+      <c r="O4">
+        <v>89.65188475659012</v>
+      </c>
+      <c r="P4">
+        <v>37.09306202436758</v>
+      </c>
+      <c r="Q4">
+        <v>86.369320656124</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +661,31 @@
         <v>4240.93589770794</v>
       </c>
       <c r="I5">
+        <v>2961.3325304985</v>
+      </c>
+      <c r="J5">
+        <v>797.88198775053</v>
+      </c>
+      <c r="K5">
+        <v>481.721379458904</v>
+      </c>
+      <c r="L5">
         <v>4.144274160063158</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>180.7591782147369</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>892.8286100437769</v>
+      </c>
+      <c r="O5">
+        <v>623.4384274733684</v>
+      </c>
+      <c r="P5">
+        <v>167.9751553159011</v>
+      </c>
+      <c r="Q5">
+        <v>101.4150272545061</v>
       </c>
     </row>
     <row r="6">
@@ -620,13 +722,31 @@
         <v>176.949440211058</v>
       </c>
       <c r="I6">
+        <v>133.260684788227</v>
+      </c>
+      <c r="J6">
+        <v>40.5702900886536</v>
+      </c>
+      <c r="K6">
+        <v>3.11846533417702</v>
+      </c>
+      <c r="L6">
         <v>0.09688930454736841</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>6.297415770526316</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>37.25251372864379</v>
+      </c>
+      <c r="O6">
+        <v>28.05488100804779</v>
+      </c>
+      <c r="P6">
+        <v>8.541113702874442</v>
+      </c>
+      <c r="Q6">
+        <v>0.6565190177214778</v>
       </c>
     </row>
     <row r="7">
@@ -663,13 +783,31 @@
         <v>292.164680689573</v>
       </c>
       <c r="I7">
+        <v>167.893702596426</v>
+      </c>
+      <c r="J7">
+        <v>55.3986524939537</v>
+      </c>
+      <c r="K7">
+        <v>68.8723255991936</v>
+      </c>
+      <c r="L7">
         <v>0.351525600631579</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>14.37395651368421</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>61.50835382938379</v>
+      </c>
+      <c r="O7">
+        <v>35.34604265187917</v>
+      </c>
+      <c r="P7">
+        <v>11.66287420925341</v>
+      </c>
+      <c r="Q7">
+        <v>14.49943696825129</v>
       </c>
     </row>
     <row r="8">
@@ -706,13 +844,31 @@
         <v>2068.35091343522</v>
       </c>
       <c r="I8">
+        <v>963.313973665237</v>
+      </c>
+      <c r="J8">
+        <v>459.70970338583</v>
+      </c>
+      <c r="K8">
+        <v>645.327236384153</v>
+      </c>
+      <c r="L8">
         <v>6.504714574042105</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>142.2856264821053</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>435.4422975653095</v>
+      </c>
+      <c r="O8">
+        <v>202.8029418242604</v>
+      </c>
+      <c r="P8">
+        <v>96.78099018649053</v>
+      </c>
+      <c r="Q8">
+        <v>135.8583655545585</v>
       </c>
     </row>
     <row r="9">
@@ -749,13 +905,31 @@
         <v>1658.88995814323</v>
       </c>
       <c r="I9">
+        <v>871.8024716377259</v>
+      </c>
+      <c r="J9">
+        <v>345.012886166573</v>
+      </c>
+      <c r="K9">
+        <v>442.074600338936</v>
+      </c>
+      <c r="L9">
         <v>19.80455372989474</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>236.3090438526316</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>349.2399911880484</v>
+      </c>
+      <c r="O9">
+        <v>183.5373624500476</v>
+      </c>
+      <c r="P9">
+        <v>72.63429182454171</v>
+      </c>
+      <c r="Q9">
+        <v>93.06833691346023</v>
       </c>
     </row>
     <row r="10">
@@ -792,13 +966,31 @@
         <v>351.249604046345</v>
       </c>
       <c r="I10">
+        <v>237.161045074463</v>
+      </c>
+      <c r="J10">
+        <v>57.608998477459</v>
+      </c>
+      <c r="K10">
+        <v>56.4795604944229</v>
+      </c>
+      <c r="L10">
         <v>0.352833538968421</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>15.45793978947369</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>73.94728506238843</v>
+      </c>
+      <c r="O10">
+        <v>49.928641068308</v>
+      </c>
+      <c r="P10">
+        <v>12.12821020578084</v>
+      </c>
+      <c r="Q10">
+        <v>11.89043378829956</v>
       </c>
     </row>
     <row r="11">
@@ -835,13 +1027,31 @@
         <v>13301.539547652</v>
       </c>
       <c r="I11">
+        <v>7955.40345959365</v>
+      </c>
+      <c r="J11">
+        <v>2530.46726295352</v>
+      </c>
+      <c r="K11">
+        <v>2815.66882510483</v>
+      </c>
+      <c r="L11">
         <v>20.73605881366316</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>688.3400761221053</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>2800.324115295158</v>
+      </c>
+      <c r="O11">
+        <v>1674.821780967084</v>
+      </c>
+      <c r="P11">
+        <v>532.7299500954779</v>
+      </c>
+      <c r="Q11">
+        <v>592.7723842325958</v>
       </c>
     </row>
     <row r="12">
@@ -878,13 +1088,31 @@
         <v>2529.70666953921</v>
       </c>
       <c r="I12">
+        <v>955.787110805511</v>
+      </c>
+      <c r="J12">
+        <v>516.101809322834</v>
+      </c>
+      <c r="K12">
+        <v>1057.81774941087</v>
+      </c>
+      <c r="L12">
         <v>7.127505331726316</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>180.9356029410527</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>532.5698251661495</v>
+      </c>
+      <c r="O12">
+        <v>201.2183391169497</v>
+      </c>
+      <c r="P12">
+        <v>108.6530124890177</v>
+      </c>
+      <c r="Q12">
+        <v>222.6984735601832</v>
       </c>
     </row>
     <row r="13">
@@ -921,13 +1149,31 @@
         <v>704.050309598446</v>
       </c>
       <c r="I13">
+        <v>331.913454890251</v>
+      </c>
+      <c r="J13">
+        <v>102.642478197813</v>
+      </c>
+      <c r="K13">
+        <v>269.494376510382</v>
+      </c>
+      <c r="L13">
         <v>1.908251052273684</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>48.20383730105263</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>148.2211178101992</v>
+      </c>
+      <c r="O13">
+        <v>69.8765168190002</v>
+      </c>
+      <c r="P13">
+        <v>21.60894277848695</v>
+      </c>
+      <c r="Q13">
+        <v>56.735658212712</v>
       </c>
     </row>
     <row r="14">
@@ -964,13 +1210,31 @@
         <v>609.484549164772</v>
       </c>
       <c r="I14">
+        <v>355.887096881866</v>
+      </c>
+      <c r="J14">
+        <v>135.062788963318</v>
+      </c>
+      <c r="K14">
+        <v>118.534663319588</v>
+      </c>
+      <c r="L14">
         <v>0.7292782521473685</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>29.30449400421053</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>128.3125366662678</v>
+      </c>
+      <c r="O14">
+        <v>74.92359934355073</v>
+      </c>
+      <c r="P14">
+        <v>28.43427136069853</v>
+      </c>
+      <c r="Q14">
+        <v>24.95466596201853</v>
       </c>
     </row>
     <row r="15">
@@ -1007,13 +1271,31 @@
         <v>2852.01504999399</v>
       </c>
       <c r="I15">
+        <v>1553.6258200407</v>
+      </c>
+      <c r="J15">
+        <v>539.031474262476</v>
+      </c>
+      <c r="K15">
+        <v>759.357755690813</v>
+      </c>
+      <c r="L15">
         <v>4.820216468673684</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>157.7069854252632</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>600.4242210513663</v>
+      </c>
+      <c r="O15">
+        <v>327.0791200085685</v>
+      </c>
+      <c r="P15">
+        <v>113.4803103710476</v>
+      </c>
+      <c r="Q15">
+        <v>159.8647906717501</v>
       </c>
     </row>
     <row r="16">
@@ -1050,13 +1332,31 @@
         <v>282.738227367401</v>
       </c>
       <c r="I16">
+        <v>86.0627824366093</v>
+      </c>
+      <c r="J16">
+        <v>57.6966238617897</v>
+      </c>
+      <c r="K16">
+        <v>138.978821069002</v>
+      </c>
+      <c r="L16">
         <v>1.081987586589474</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>23.1346325431579</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>59.52383734050548</v>
+      </c>
+      <c r="O16">
+        <v>18.11848051297038</v>
+      </c>
+      <c r="P16">
+        <v>12.14665765511362</v>
+      </c>
+      <c r="Q16">
+        <v>29.25869917242148</v>
       </c>
     </row>
     <row r="17">
@@ -1093,13 +1393,31 @@
         <v>547.037922859192</v>
       </c>
       <c r="I17">
+        <v>224.316412210464</v>
+      </c>
+      <c r="J17">
+        <v>127.189104378223</v>
+      </c>
+      <c r="K17">
+        <v>195.532406270504</v>
+      </c>
+      <c r="L17">
         <v>1.051423621894737</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>33.97062136631578</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>115.165878496672</v>
+      </c>
+      <c r="O17">
+        <v>47.22450783378189</v>
+      </c>
+      <c r="P17">
+        <v>26.77665355331011</v>
+      </c>
+      <c r="Q17">
+        <v>41.16471710957979</v>
       </c>
     </row>
     <row r="18">
@@ -1136,13 +1454,31 @@
         <v>93.4582967758179</v>
       </c>
       <c r="I18">
+        <v>32.1575855016708</v>
+      </c>
+      <c r="J18">
+        <v>33.1122106313705</v>
+      </c>
+      <c r="K18">
+        <v>28.1885006427765</v>
+      </c>
+      <c r="L18">
         <v>0.1477039187368421</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>5.45507267368421</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>19.67543090017219</v>
+      </c>
+      <c r="O18">
+        <v>6.770018000351747</v>
+      </c>
+      <c r="P18">
+        <v>6.970991711867474</v>
+      </c>
+      <c r="Q18">
+        <v>5.934421187952948</v>
       </c>
     </row>
     <row r="19">
@@ -1179,13 +1515,31 @@
         <v>142.573894679546</v>
       </c>
       <c r="I19">
+        <v>90.608478307724</v>
+      </c>
+      <c r="J19">
+        <v>32.9020273089409</v>
+      </c>
+      <c r="K19">
+        <v>19.0633890628815</v>
+      </c>
+      <c r="L19">
         <v>0.1285594478736842</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>6.154779772631579</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>30.01555677464127</v>
+      </c>
+      <c r="O19">
+        <v>19.07546911741558</v>
+      </c>
+      <c r="P19">
+        <v>6.926742591355979</v>
+      </c>
+      <c r="Q19">
+        <v>4.01334506586979</v>
       </c>
     </row>
     <row r="20">
@@ -1222,13 +1576,31 @@
         <v>4703.60328450799</v>
       </c>
       <c r="I20">
+        <v>2273.75202056766</v>
+      </c>
+      <c r="J20">
+        <v>998.105227917433</v>
+      </c>
+      <c r="K20">
+        <v>1431.7460360229</v>
+      </c>
+      <c r="L20">
         <v>9.115633227663158</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>281.11716256</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>990.2322704227348</v>
+      </c>
+      <c r="O20">
+        <v>478.6846359089811</v>
+      </c>
+      <c r="P20">
+        <v>210.1274164036701</v>
+      </c>
+      <c r="Q20">
+        <v>301.4202181100843</v>
       </c>
     </row>
     <row r="21">
@@ -1265,13 +1637,31 @@
         <v>1596.62533736229</v>
       </c>
       <c r="I21">
+        <v>896.040977478027</v>
+      </c>
+      <c r="J21">
+        <v>293.244366526604</v>
+      </c>
+      <c r="K21">
+        <v>407.339993357658</v>
+      </c>
+      <c r="L21">
         <v>2.650794058105264</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>87.23393001894736</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>336.1316499710085</v>
+      </c>
+      <c r="O21">
+        <v>188.6402057848478</v>
+      </c>
+      <c r="P21">
+        <v>61.735656110864</v>
+      </c>
+      <c r="Q21">
+        <v>85.75578807529642</v>
       </c>
     </row>
     <row r="22">
@@ -1308,13 +1698,31 @@
         <v>795.879743561149</v>
       </c>
       <c r="I22">
+        <v>415.933036312461</v>
+      </c>
+      <c r="J22">
+        <v>226.328633829951</v>
+      </c>
+      <c r="K22">
+        <v>153.618073418736</v>
+      </c>
+      <c r="L22">
         <v>1.451060549389474</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>43.71782385473685</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>167.5536302233998</v>
+      </c>
+      <c r="O22">
+        <v>87.56484974999179</v>
+      </c>
+      <c r="P22">
+        <v>47.64813343788443</v>
+      </c>
+      <c r="Q22">
+        <v>32.34064703552337</v>
       </c>
     </row>
     <row r="23">
@@ -1351,13 +1759,31 @@
         <v>3938.80540043116</v>
       </c>
       <c r="I23">
+        <v>2113.57188302279</v>
+      </c>
+      <c r="J23">
+        <v>903.812179535627</v>
+      </c>
+      <c r="K23">
+        <v>921.421337872744</v>
+      </c>
+      <c r="L23">
         <v>7.85523780423158</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>225.1744060273685</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>829.2221895644547</v>
+      </c>
+      <c r="O23">
+        <v>444.9625016890085</v>
+      </c>
+      <c r="P23">
+        <v>190.2762483232899</v>
+      </c>
+      <c r="Q23">
+        <v>193.9834395521566</v>
       </c>
     </row>
     <row r="24">
@@ -1394,13 +1820,31 @@
         <v>1500.09344398975</v>
       </c>
       <c r="I24">
+        <v>771.238313913345</v>
+      </c>
+      <c r="J24">
+        <v>303.396460592747</v>
+      </c>
+      <c r="K24">
+        <v>425.458669483662</v>
+      </c>
+      <c r="L24">
         <v>5.504702669157894</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>106.1561052442106</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>315.8091461031053</v>
+      </c>
+      <c r="O24">
+        <v>162.3659608238621</v>
+      </c>
+      <c r="P24">
+        <v>63.87293907215727</v>
+      </c>
+      <c r="Q24">
+        <v>89.57024620708674</v>
       </c>
     </row>
     <row r="25">
@@ -1437,13 +1881,31 @@
         <v>339.01194152236</v>
       </c>
       <c r="I25">
+        <v>119.812295287848</v>
+      </c>
+      <c r="J25">
+        <v>55.8048237860203</v>
+      </c>
+      <c r="K25">
+        <v>163.394822448492</v>
+      </c>
+      <c r="L25">
         <v>4.337717214926316</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>43.35054181052632</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>71.37093505733895</v>
+      </c>
+      <c r="O25">
+        <v>25.22364111323116</v>
+      </c>
+      <c r="P25">
+        <v>11.74838395495164</v>
+      </c>
+      <c r="Q25">
+        <v>34.39890998915622</v>
       </c>
     </row>
     <row r="26">
@@ -1480,13 +1942,31 @@
         <v>3111.83745156229</v>
       </c>
       <c r="I26">
+        <v>1877.39598843455</v>
+      </c>
+      <c r="J26">
+        <v>586.976516082883</v>
+      </c>
+      <c r="K26">
+        <v>647.4649470448491</v>
+      </c>
+      <c r="L26">
         <v>4.677281215452632</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>160.4518435873684</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>655.1236740131137</v>
+      </c>
+      <c r="O26">
+        <v>395.2412607230631</v>
+      </c>
+      <c r="P26">
+        <v>123.5740033858701</v>
+      </c>
+      <c r="Q26">
+        <v>136.3084099041788</v>
       </c>
     </row>
     <row r="27">
@@ -1523,13 +2003,31 @@
         <v>85.8011113107204</v>
       </c>
       <c r="I27">
+        <v>34.0510954856873</v>
+      </c>
+      <c r="J27">
+        <v>17.9810124635696</v>
+      </c>
+      <c r="K27">
+        <v>33.7690033614635</v>
+      </c>
+      <c r="L27">
         <v>0.179724584631579</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>5.555097402105264</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>18.06339185488851</v>
+      </c>
+      <c r="O27">
+        <v>7.168651681197327</v>
+      </c>
+      <c r="P27">
+        <v>3.785476308119916</v>
+      </c>
+      <c r="Q27">
+        <v>7.109263865571263</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +2064,31 @@
         <v>55.8293909430504</v>
       </c>
       <c r="I28">
+        <v>31.4021739959717</v>
+      </c>
+      <c r="J28">
+        <v>17.9787746071815</v>
+      </c>
+      <c r="K28">
+        <v>6.44844233989716</v>
+      </c>
+      <c r="L28">
         <v>0.04840791254736842</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>2.42351384</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>11.75355598801061</v>
+      </c>
+      <c r="O28">
+        <v>6.610983999151938</v>
+      </c>
+      <c r="P28">
+        <v>3.785005180459264</v>
+      </c>
+      <c r="Q28">
+        <v>1.357566808399402</v>
       </c>
     </row>
     <row r="29">
@@ -1609,13 +2125,31 @@
         <v>97.29662835597991</v>
       </c>
       <c r="I29">
+        <v>10.3939954936504</v>
+      </c>
+      <c r="J29">
+        <v>4.60868933796883</v>
+      </c>
+      <c r="K29">
+        <v>82.2939435243607</v>
+      </c>
+      <c r="L29">
         <v>0.6778407801263158</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>12.28640483789474</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>20.48350070652209</v>
+      </c>
+      <c r="O29">
+        <v>2.188209577610611</v>
+      </c>
+      <c r="P29">
+        <v>0.9702503869408063</v>
+      </c>
+      <c r="Q29">
+        <v>17.32504074197068</v>
       </c>
     </row>
     <row r="30">
@@ -1652,13 +2186,31 @@
         <v>819.340662583709</v>
       </c>
       <c r="I30">
+        <v>446.582484960556</v>
+      </c>
+      <c r="J30">
+        <v>185.819732472301</v>
+      </c>
+      <c r="K30">
+        <v>186.938445150852</v>
+      </c>
+      <c r="L30">
         <v>1.397790950210526</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>44.97024656421053</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>172.4927710702546</v>
+      </c>
+      <c r="O30">
+        <v>94.0173652548539</v>
+      </c>
+      <c r="P30">
+        <v>39.11994367837917</v>
+      </c>
+      <c r="Q30">
+        <v>39.35546213702148</v>
       </c>
     </row>
     <row r="31">
@@ -1695,13 +2247,31 @@
         <v>2104.90878504515</v>
       </c>
       <c r="I31">
+        <v>681.028581798077</v>
+      </c>
+      <c r="J31">
+        <v>487.615481346846</v>
+      </c>
+      <c r="K31">
+        <v>936.264721900225</v>
+      </c>
+      <c r="L31">
         <v>7.126907088505264</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>162.1018864189474</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>443.1386915884527</v>
+      </c>
+      <c r="O31">
+        <v>143.3744382732794</v>
+      </c>
+      <c r="P31">
+        <v>102.6558908098623</v>
+      </c>
+      <c r="Q31">
+        <v>197.1083625053105</v>
       </c>
     </row>
     <row r="32">
@@ -1738,13 +2308,31 @@
         <v>5980.73054769635</v>
       </c>
       <c r="I32">
+        <v>3739.13345092535</v>
+      </c>
+      <c r="J32">
+        <v>1158.87625846267</v>
+      </c>
+      <c r="K32">
+        <v>1082.72083830833</v>
+      </c>
+      <c r="L32">
         <v>7.414419911600001</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>286.375276848421</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>1259.101167936074</v>
+      </c>
+      <c r="O32">
+        <v>787.1859896684948</v>
+      </c>
+      <c r="P32">
+        <v>243.9739491500358</v>
+      </c>
+      <c r="Q32">
+        <v>227.9412291175432</v>
       </c>
     </row>
     <row r="33">
@@ -1781,13 +2369,31 @@
         <v>92.62130281329151</v>
       </c>
       <c r="I33">
+        <v>61.9092152714729</v>
+      </c>
+      <c r="J33">
+        <v>18.2269889712334</v>
+      </c>
+      <c r="K33">
+        <v>12.4850985705853</v>
+      </c>
+      <c r="L33">
         <v>0.09889338922105265</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>4.123260652631579</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>19.49922164490348</v>
+      </c>
+      <c r="O33">
+        <v>13.03351900452061</v>
+      </c>
+      <c r="P33">
+        <v>3.837260836049137</v>
+      </c>
+      <c r="Q33">
+        <v>2.628441804333748</v>
       </c>
     </row>
     <row r="34">
@@ -1824,13 +2430,31 @@
         <v>511.146399587393</v>
       </c>
       <c r="I34">
+        <v>198.040283948183</v>
+      </c>
+      <c r="J34">
+        <v>95.4419394731522</v>
+      </c>
+      <c r="K34">
+        <v>217.664176166058</v>
+      </c>
+      <c r="L34">
         <v>4.312083997873685</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>53.82970058526316</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>107.609768334188</v>
+      </c>
+      <c r="O34">
+        <v>41.69269135751221</v>
+      </c>
+      <c r="P34">
+        <v>20.09303988908468</v>
+      </c>
+      <c r="Q34">
+        <v>45.82403708759116</v>
       </c>
     </row>
     <row r="35">
@@ -1867,13 +2491,31 @@
         <v>5715.67253625393</v>
       </c>
       <c r="I35">
+        <v>2710.64501166344</v>
+      </c>
+      <c r="J35">
+        <v>1556.35476854444</v>
+      </c>
+      <c r="K35">
+        <v>1448.67275604606</v>
+      </c>
+      <c r="L35">
         <v>10.13841189492632</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>321.6919401052631</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>1203.299481316617</v>
+      </c>
+      <c r="O35">
+        <v>570.662107718619</v>
+      </c>
+      <c r="P35">
+        <v>327.65363548304</v>
+      </c>
+      <c r="Q35">
+        <v>304.98373811496</v>
       </c>
     </row>
     <row r="36">
@@ -1910,13 +2552,31 @@
         <v>70.7066966891289</v>
       </c>
       <c r="I36">
+        <v>49.9225707054138</v>
+      </c>
+      <c r="J36">
+        <v>16.2994507551193</v>
+      </c>
+      <c r="K36">
+        <v>4.48467522859573</v>
+      </c>
+      <c r="L36">
         <v>0.04627025564210527</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>2.692952983157895</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>14.88562035560608</v>
+      </c>
+      <c r="O36">
+        <v>10.51001488535027</v>
+      </c>
+      <c r="P36">
+        <v>3.431463316867221</v>
+      </c>
+      <c r="Q36">
+        <v>0.9441421533885749</v>
       </c>
     </row>
     <row r="37">
@@ -1953,13 +2613,31 @@
         <v>6.36598205566406</v>
       </c>
       <c r="I37">
+        <v>5.41522842645645</v>
+      </c>
+      <c r="J37">
+        <v>0.950753629207611</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
         <v>0.0028283536</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>0.2084578631578948</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>1.340206748560855</v>
+      </c>
+      <c r="O37">
+        <v>1.140048089780305</v>
+      </c>
+      <c r="P37">
+        <v>0.2001586587805497</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1996,13 +2674,31 @@
         <v>8623.187925875191</v>
       </c>
       <c r="I38">
+        <v>5453.84414795041</v>
+      </c>
+      <c r="J38">
+        <v>1770.29322956502</v>
+      </c>
+      <c r="K38">
+        <v>1399.05054835975</v>
+      </c>
+      <c r="L38">
         <v>10.25013662463158</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>404.9233744926316</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>1815.407984394777</v>
+      </c>
+      <c r="O38">
+        <v>1148.177715357981</v>
+      </c>
+      <c r="P38">
+        <v>372.6933114873726</v>
+      </c>
+      <c r="Q38">
+        <v>294.5369575494211</v>
       </c>
     </row>
     <row r="39">
@@ -2039,13 +2735,31 @@
         <v>1290.70709049702</v>
       </c>
       <c r="I39">
+        <v>475.779545068741</v>
+      </c>
+      <c r="J39">
+        <v>287.256455540657</v>
+      </c>
+      <c r="K39">
+        <v>527.671089887619</v>
+      </c>
+      <c r="L39">
         <v>5.050592431978948</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>103.6487295810526</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>271.7278085256884</v>
+      </c>
+      <c r="O39">
+        <v>100.1641147513139</v>
+      </c>
+      <c r="P39">
+        <v>60.47504327171727</v>
+      </c>
+      <c r="Q39">
+        <v>111.0886505026567</v>
       </c>
     </row>
     <row r="40">
@@ -2082,13 +2796,31 @@
         <v>587.177669227123</v>
       </c>
       <c r="I40">
+        <v>145.627412632108</v>
+      </c>
+      <c r="J40">
+        <v>150.486613750458</v>
+      </c>
+      <c r="K40">
+        <v>291.063642844558</v>
+      </c>
+      <c r="L40">
         <v>1.905828556210526</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>46.23235340210527</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>123.6163514162364</v>
+      </c>
+      <c r="O40">
+        <v>30.65840265939116</v>
+      </c>
+      <c r="P40">
+        <v>31.68139236851748</v>
+      </c>
+      <c r="Q40">
+        <v>61.276556388328</v>
       </c>
     </row>
     <row r="41">
@@ -2125,13 +2857,31 @@
         <v>4593.74058443308</v>
       </c>
       <c r="I41">
+        <v>2904.85789728165</v>
+      </c>
+      <c r="J41">
+        <v>1009.13722153008</v>
+      </c>
+      <c r="K41">
+        <v>679.745465621352</v>
+      </c>
+      <c r="L41">
         <v>4.865265269621053</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>207.1415318378948</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>967.10328093328</v>
+      </c>
+      <c r="O41">
+        <v>611.5490310066632</v>
+      </c>
+      <c r="P41">
+        <v>212.4499413747537</v>
+      </c>
+      <c r="Q41">
+        <v>143.1043085518636</v>
       </c>
     </row>
     <row r="42">
@@ -2168,13 +2918,31 @@
         <v>710.994483053684</v>
       </c>
       <c r="I42">
+        <v>423.421254307032</v>
+      </c>
+      <c r="J42">
+        <v>129.744649589062</v>
+      </c>
+      <c r="K42">
+        <v>157.828579157591</v>
+      </c>
+      <c r="L42">
         <v>0.8937179309894737</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>34.62576821894737</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>149.6830490639335</v>
+      </c>
+      <c r="O42">
+        <v>89.14131669621726</v>
+      </c>
+      <c r="P42">
+        <v>27.31466307138147</v>
+      </c>
+      <c r="Q42">
+        <v>33.22706929633495</v>
       </c>
     </row>
     <row r="43">
@@ -2211,13 +2979,31 @@
         <v>2227.65336102247</v>
       </c>
       <c r="I43">
+        <v>1043.01594889164</v>
+      </c>
+      <c r="J43">
+        <v>565.116225361824</v>
+      </c>
+      <c r="K43">
+        <v>619.521186769009</v>
+      </c>
+      <c r="L43">
         <v>6.95946438391579</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>149.9780512863158</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>468.979654952099</v>
+      </c>
+      <c r="O43">
+        <v>219.5823050298189</v>
+      </c>
+      <c r="P43">
+        <v>118.9718369182787</v>
+      </c>
+      <c r="Q43">
+        <v>130.4255130040019</v>
       </c>
     </row>
     <row r="44">
@@ -2254,13 +3040,31 @@
         <v>3909.67187947035</v>
       </c>
       <c r="I44">
+        <v>2725.92501798272</v>
+      </c>
+      <c r="J44">
+        <v>706.312989860773</v>
+      </c>
+      <c r="K44">
+        <v>477.433871626854</v>
+      </c>
+      <c r="L44">
         <v>3.616554448898948</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>165.6442866305263</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>823.0888167306001</v>
+      </c>
+      <c r="O44">
+        <v>573.8789511542568</v>
+      </c>
+      <c r="P44">
+        <v>148.6974715496364</v>
+      </c>
+      <c r="Q44">
+        <v>100.5123940267061</v>
       </c>
     </row>
     <row r="45">
@@ -2297,13 +3101,31 @@
         <v>48.1707630753517</v>
       </c>
       <c r="I45">
+        <v>38.4172224998474</v>
+      </c>
+      <c r="J45">
+        <v>5.13153654336929</v>
+      </c>
+      <c r="K45">
+        <v>4.62200403213501</v>
+      </c>
+      <c r="L45">
         <v>0.02962058484210527</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>1.746160469473684</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>10.14121327902141</v>
+      </c>
+      <c r="O45">
+        <v>8.087836315757347</v>
+      </c>
+      <c r="P45">
+        <v>1.080323482814587</v>
+      </c>
+      <c r="Q45">
+        <v>0.9730534804494758</v>
       </c>
     </row>
     <row r="46">
@@ -2340,13 +3162,31 @@
         <v>99.0398507714272</v>
       </c>
       <c r="I46">
+        <v>86.0683608055115</v>
+      </c>
+      <c r="J46">
+        <v>12.9714899659157</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>0.04097142625263158</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>3.139735107368421</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>20.85049489924783</v>
+      </c>
+      <c r="O46">
+        <v>18.11965490642348</v>
+      </c>
+      <c r="P46">
+        <v>2.730839992824358</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2383,13 +3223,31 @@
         <v>4462.15669766068</v>
       </c>
       <c r="I47">
+        <v>2509.14278435707</v>
+      </c>
+      <c r="J47">
+        <v>940.872100353241</v>
+      </c>
+      <c r="K47">
+        <v>1012.14181295037</v>
+      </c>
+      <c r="L47">
         <v>7.725639559494737</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>242.6298836947369</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>939.4014100338275</v>
+      </c>
+      <c r="O47">
+        <v>528.2405861804358</v>
+      </c>
+      <c r="P47">
+        <v>198.0783369164718</v>
+      </c>
+      <c r="Q47">
+        <v>213.08248693692</v>
       </c>
     </row>
     <row r="48">
@@ -2426,13 +3284,31 @@
         <v>4886.78374834359</v>
       </c>
       <c r="I48">
+        <v>2258.63259410858</v>
+      </c>
+      <c r="J48">
+        <v>1206.12052308023</v>
+      </c>
+      <c r="K48">
+        <v>1422.03063115478</v>
+      </c>
+      <c r="L48">
         <v>9.667983252926316</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>291.8013173200001</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>1028.796578598651</v>
+      </c>
+      <c r="O48">
+        <v>475.5015987597011</v>
+      </c>
+      <c r="P48">
+        <v>253.9201101221537</v>
+      </c>
+      <c r="Q48">
+        <v>299.3748697167958</v>
       </c>
     </row>
     <row r="49">
@@ -2469,13 +3345,31 @@
         <v>1893.29919785261</v>
       </c>
       <c r="I49">
+        <v>766.907344013453</v>
+      </c>
+      <c r="J49">
+        <v>360.906376689672</v>
+      </c>
+      <c r="K49">
+        <v>765.485477149487</v>
+      </c>
+      <c r="L49">
         <v>9.483821738736843</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>158.04011836</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>398.5893048110758</v>
+      </c>
+      <c r="O49">
+        <v>161.4541776870427</v>
+      </c>
+      <c r="P49">
+        <v>75.98028982940464</v>
+      </c>
+      <c r="Q49">
+        <v>161.1548372946288</v>
       </c>
     </row>
     <row r="50">
@@ -2512,13 +3406,31 @@
         <v>432.624103546143</v>
       </c>
       <c r="I50">
+        <v>228.252045750618</v>
+      </c>
+      <c r="J50">
+        <v>107.624227762222</v>
+      </c>
+      <c r="K50">
+        <v>96.74783003330229</v>
+      </c>
+      <c r="L50">
         <v>1.054989684421053</v>
       </c>
-      <c r="J50">
+      <c r="M50">
         <v>30.35918083157895</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>91.07875864129326</v>
+      </c>
+      <c r="O50">
+        <v>48.05306226328801</v>
+      </c>
+      <c r="P50">
+        <v>22.65773216046779</v>
+      </c>
+      <c r="Q50">
+        <v>20.36796421753733</v>
       </c>
     </row>
     <row r="51">
@@ -2555,13 +3467,31 @@
         <v>1379.70538979769</v>
       </c>
       <c r="I51">
+        <v>614.497024536133</v>
+      </c>
+      <c r="J51">
+        <v>350.35230833292</v>
+      </c>
+      <c r="K51">
+        <v>414.856056928635</v>
+      </c>
+      <c r="L51">
         <v>2.807525017873684</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>83.88745316631581</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>290.4642925889874</v>
+      </c>
+      <c r="O51">
+        <v>129.3677946391859</v>
+      </c>
+      <c r="P51">
+        <v>73.75838070166738</v>
+      </c>
+      <c r="Q51">
+        <v>87.33811724813369</v>
       </c>
     </row>
     <row r="52">
@@ -2598,13 +3528,31 @@
         <v>1913.15217781067</v>
       </c>
       <c r="I52">
+        <v>930.614520460367</v>
+      </c>
+      <c r="J52">
+        <v>422.399654567242</v>
+      </c>
+      <c r="K52">
+        <v>560.13800278306</v>
+      </c>
+      <c r="L52">
         <v>3.529039653726316</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>111.6569445136842</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>402.7688795390885</v>
+      </c>
+      <c r="O52">
+        <v>195.9188464127088</v>
+      </c>
+      <c r="P52">
+        <v>88.92624306678779</v>
+      </c>
+      <c r="Q52">
+        <v>117.9237900595916</v>
       </c>
     </row>
     <row r="53">
@@ -2641,13 +3589,31 @@
         <v>4869.50353915989</v>
       </c>
       <c r="I53">
+        <v>2736.16832470894</v>
+      </c>
+      <c r="J53">
+        <v>1174.24269740283</v>
+      </c>
+      <c r="K53">
+        <v>959.09251704812</v>
+      </c>
+      <c r="L53">
         <v>11.51350181311579</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>272.3025082252632</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>1025.158639823135</v>
+      </c>
+      <c r="O53">
+        <v>576.0354367808295</v>
+      </c>
+      <c r="P53">
+        <v>247.2089889269116</v>
+      </c>
+      <c r="Q53">
+        <v>201.9142141153937</v>
       </c>
     </row>
     <row r="54">
@@ -2684,13 +3650,31 @@
         <v>188.902553677559</v>
       </c>
       <c r="I54">
+        <v>70.4050142765045</v>
+      </c>
+      <c r="J54">
+        <v>26.6514461636543</v>
+      </c>
+      <c r="K54">
+        <v>91.8460932374001</v>
+      </c>
+      <c r="L54">
         <v>1.071813289136842</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>18.34543310526316</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>39.7689586689598</v>
+      </c>
+      <c r="O54">
+        <v>14.82210826873779</v>
+      </c>
+      <c r="P54">
+        <v>5.610830771295642</v>
+      </c>
+      <c r="Q54">
+        <v>19.33601962892634</v>
       </c>
     </row>
     <row r="55">
@@ -2727,13 +3711,31 @@
         <v>4482.11653649807</v>
       </c>
       <c r="I55">
+        <v>2524.2516297698</v>
+      </c>
+      <c r="J55">
+        <v>935.5514466762541</v>
+      </c>
+      <c r="K55">
+        <v>1022.31346005201</v>
+      </c>
+      <c r="L55">
         <v>6.639305027600001</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>229.7702768336842</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>943.6034813680147</v>
+      </c>
+      <c r="O55">
+        <v>531.4213957410105</v>
+      </c>
+      <c r="P55">
+        <v>196.958199300264</v>
+      </c>
+      <c r="Q55">
+        <v>215.223886326739</v>
       </c>
     </row>
     <row r="56">
@@ -2770,13 +3772,31 @@
         <v>1616.3374298811</v>
       </c>
       <c r="I56">
+        <v>696.519769906998</v>
+      </c>
+      <c r="J56">
+        <v>307.909153223038</v>
+      </c>
+      <c r="K56">
+        <v>611.90850675106</v>
+      </c>
+      <c r="L56">
         <v>5.362463276442105</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>119.8695389578948</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>340.2815641854947</v>
+      </c>
+      <c r="O56">
+        <v>146.6357410330522</v>
+      </c>
+      <c r="P56">
+        <v>64.82297962590273</v>
+      </c>
+      <c r="Q56">
+        <v>128.822843526539</v>
       </c>
     </row>
     <row r="57">
@@ -2813,13 +3833,31 @@
         <v>936.895027846098</v>
       </c>
       <c r="I57">
+        <v>510.662591814995</v>
+      </c>
+      <c r="J57">
+        <v>189.979002475739</v>
+      </c>
+      <c r="K57">
+        <v>236.253433555365</v>
+      </c>
+      <c r="L57">
         <v>1.307430428778947</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>48.83171416421053</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>197.2410584939154</v>
+      </c>
+      <c r="O57">
+        <v>107.5079140663147</v>
+      </c>
+      <c r="P57">
+        <v>39.99557946857664</v>
+      </c>
+      <c r="Q57">
+        <v>49.73756495902421</v>
       </c>
     </row>
     <row r="58">
@@ -2856,13 +3894,31 @@
         <v>2110.93192237616</v>
       </c>
       <c r="I58">
+        <v>1048.2146589458</v>
+      </c>
+      <c r="J58">
+        <v>474.965940564871</v>
+      </c>
+      <c r="K58">
+        <v>587.751322865486</v>
+      </c>
+      <c r="L58">
         <v>4.463810481031579</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>124.7308064694737</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>444.4067205002442</v>
+      </c>
+      <c r="O58">
+        <v>220.676770304379</v>
+      </c>
+      <c r="P58">
+        <v>99.99282959260442</v>
+      </c>
+      <c r="Q58">
+        <v>123.7371206032602</v>
       </c>
     </row>
     <row r="59">
@@ -2899,13 +3955,31 @@
         <v>202.000958010554</v>
       </c>
       <c r="I59">
+        <v>80.0749413967133</v>
+      </c>
+      <c r="J59">
+        <v>71.0631187707186</v>
+      </c>
+      <c r="K59">
+        <v>50.8628978431225</v>
+      </c>
+      <c r="L59">
         <v>0.2926146318105264</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>11.16982725263158</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>42.52651747590611</v>
+      </c>
+      <c r="O59">
+        <v>16.85788239930806</v>
+      </c>
+      <c r="P59">
+        <v>14.96065658330918</v>
+      </c>
+      <c r="Q59">
+        <v>10.70797849328895</v>
       </c>
     </row>
     <row r="60">
@@ -2942,13 +4016,31 @@
         <v>66.17144370079041</v>
       </c>
       <c r="I60">
+        <v>39.2692224979401</v>
+      </c>
+      <c r="J60">
+        <v>21.4702038764954</v>
+      </c>
+      <c r="K60">
+        <v>5.43201732635498</v>
+      </c>
+      <c r="L60">
         <v>0.05773740351578947</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>2.846641675789474</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>13.93083025279798</v>
+      </c>
+      <c r="O60">
+        <v>8.267204736408441</v>
+      </c>
+      <c r="P60">
+        <v>4.520042921367453</v>
+      </c>
+      <c r="Q60">
+        <v>1.143582595022101</v>
       </c>
     </row>
     <row r="61">
@@ -2985,13 +4077,31 @@
         <v>907.492208689451</v>
       </c>
       <c r="I61">
+        <v>370.008767724037</v>
+      </c>
+      <c r="J61">
+        <v>206.037923693657</v>
+      </c>
+      <c r="K61">
+        <v>331.445517271757</v>
+      </c>
+      <c r="L61">
         <v>2.052286506189474</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>59.72436152842106</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>191.0509913030423</v>
+      </c>
+      <c r="O61">
+        <v>77.89658267874464</v>
+      </c>
+      <c r="P61">
+        <v>43.37640498813832</v>
+      </c>
+      <c r="Q61">
+        <v>69.77800363615938</v>
       </c>
     </row>
     <row r="62">
@@ -3028,13 +4138,31 @@
         <v>560.163375422359</v>
       </c>
       <c r="I62">
+        <v>238.985022619367</v>
+      </c>
+      <c r="J62">
+        <v>167.069686487317</v>
+      </c>
+      <c r="K62">
+        <v>154.108666315675</v>
+      </c>
+      <c r="L62">
         <v>0.9419661276</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>32.05648530526316</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>117.9291316678651</v>
+      </c>
+      <c r="O62">
+        <v>50.31263634091937</v>
+      </c>
+      <c r="P62">
+        <v>35.17256557627727</v>
+      </c>
+      <c r="Q62">
+        <v>32.44392975066842</v>
       </c>
     </row>
     <row r="63">
@@ -3071,13 +4199,31 @@
         <v>6641.27674418688</v>
       </c>
       <c r="I63">
+        <v>2795.28340253234</v>
+      </c>
+      <c r="J63">
+        <v>1436.1662889123</v>
+      </c>
+      <c r="K63">
+        <v>2409.82705274224</v>
+      </c>
+      <c r="L63">
         <v>16.78160129208421</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>442.0239063894737</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>1398.163525091975</v>
+      </c>
+      <c r="O63">
+        <v>588.4807163225979</v>
+      </c>
+      <c r="P63">
+        <v>302.3507976657474</v>
+      </c>
+      <c r="Q63">
+        <v>507.3320111036295</v>
       </c>
     </row>
     <row r="64">
@@ -3114,13 +4260,31 @@
         <v>1074.12002794445</v>
       </c>
       <c r="I64">
+        <v>349.074250936508</v>
+      </c>
+      <c r="J64">
+        <v>228.743673145771</v>
+      </c>
+      <c r="K64">
+        <v>496.302103862166</v>
+      </c>
+      <c r="L64">
         <v>3.722113187494737</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>81.75736535368422</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>226.1305321988316</v>
+      </c>
+      <c r="O64">
+        <v>73.48931598663327</v>
+      </c>
+      <c r="P64">
+        <v>48.15656276753074</v>
+      </c>
+      <c r="Q64">
+        <v>104.4846534446665</v>
       </c>
     </row>
     <row r="65">
@@ -3157,13 +4321,31 @@
         <v>2713.02645909786</v>
       </c>
       <c r="I65">
+        <v>1033.52202743292</v>
+      </c>
+      <c r="J65">
+        <v>474.437432527542</v>
+      </c>
+      <c r="K65">
+        <v>1205.0669991374</v>
+      </c>
+      <c r="L65">
         <v>17.42577752162105</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>260.2510842863158</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>571.1634650732337</v>
+      </c>
+      <c r="O65">
+        <v>217.58358472272</v>
+      </c>
+      <c r="P65">
+        <v>99.88156474264044</v>
+      </c>
+      <c r="Q65">
+        <v>253.6983156078737</v>
       </c>
     </row>
     <row r="66">
@@ -3200,13 +4382,31 @@
         <v>8064.3053085804</v>
       </c>
       <c r="I66">
+        <v>5212.9115909636</v>
+      </c>
+      <c r="J66">
+        <v>1599.74025163054</v>
+      </c>
+      <c r="K66">
+        <v>1251.65346598625</v>
+      </c>
+      <c r="L66">
         <v>9.67118716734737</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>374.73661256</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>1697.748486016926</v>
+      </c>
+      <c r="O66">
+        <v>1097.455071781811</v>
+      </c>
+      <c r="P66">
+        <v>336.7874213959032</v>
+      </c>
+      <c r="Q66">
+        <v>263.5059928392105</v>
       </c>
     </row>
     <row r="67">
@@ -3243,13 +4443,31 @@
         <v>1403.69590103626</v>
       </c>
       <c r="I67">
+        <v>771.070886254311</v>
+      </c>
+      <c r="J67">
+        <v>316.742910861969</v>
+      </c>
+      <c r="K67">
+        <v>315.882103919983</v>
+      </c>
+      <c r="L67">
         <v>2.052077793494737</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>73.10761705473685</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>295.5149265339495</v>
+      </c>
+      <c r="O67">
+        <v>162.3307128956444</v>
+      </c>
+      <c r="P67">
+        <v>66.682718076204</v>
+      </c>
+      <c r="Q67">
+        <v>66.5014955621017</v>
       </c>
     </row>
     <row r="68">
@@ -3286,13 +4504,31 @@
         <v>107.580711185932</v>
       </c>
       <c r="I68">
+        <v>56.5337266921997</v>
+      </c>
+      <c r="J68">
+        <v>30.4126763343811</v>
+      </c>
+      <c r="K68">
+        <v>20.6343081593513</v>
+      </c>
+      <c r="L68">
         <v>0.109967208</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>5.044061663157894</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>22.64857077598569</v>
+      </c>
+      <c r="O68">
+        <v>11.90183719835783</v>
+      </c>
+      <c r="P68">
+        <v>6.402668701974968</v>
+      </c>
+      <c r="Q68">
+        <v>4.344064875652905</v>
       </c>
     </row>
     <row r="69">
@@ -3329,13 +4565,31 @@
         <v>2606.57429659367</v>
       </c>
       <c r="I69">
+        <v>998.281611979008</v>
+      </c>
+      <c r="J69">
+        <v>643.652963042259</v>
+      </c>
+      <c r="K69">
+        <v>964.639721572399</v>
+      </c>
+      <c r="L69">
         <v>8.483595979431579</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>184.0178737726316</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>548.7524834934043</v>
+      </c>
+      <c r="O69">
+        <v>210.1645498903175</v>
+      </c>
+      <c r="P69">
+        <v>135.505886956265</v>
+      </c>
+      <c r="Q69">
+        <v>203.0820466468209</v>
       </c>
     </row>
     <row r="70">
@@ -3372,13 +4626,31 @@
         <v>1014.02577766776</v>
       </c>
       <c r="I70">
+        <v>424.234038233757</v>
+      </c>
+      <c r="J70">
+        <v>162.774273723364</v>
+      </c>
+      <c r="K70">
+        <v>427.01746571064</v>
+      </c>
+      <c r="L70">
         <v>2.94529072191579</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>72.52473103789474</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>213.4791110879495</v>
+      </c>
+      <c r="O70">
+        <v>89.31242910184359</v>
+      </c>
+      <c r="P70">
+        <v>34.26826815228716</v>
+      </c>
+      <c r="Q70">
+        <v>89.89841383381895</v>
       </c>
     </row>
     <row r="71">
@@ -3415,13 +4687,31 @@
         <v>596.427478343248</v>
       </c>
       <c r="I71">
+        <v>392.837697327137</v>
+      </c>
+      <c r="J71">
+        <v>140.114216566086</v>
+      </c>
+      <c r="K71">
+        <v>63.4755644500256</v>
+      </c>
+      <c r="L71">
         <v>0.5156182593263159</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>24.94498599578948</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>125.5636796512101</v>
+      </c>
+      <c r="O71">
+        <v>82.70267312150253</v>
+      </c>
+      <c r="P71">
+        <v>29.49772980338653</v>
+      </c>
+      <c r="Q71">
+        <v>13.36327672632118</v>
       </c>
     </row>
     <row r="72">
@@ -3458,13 +4748,31 @@
         <v>5036.74508501589</v>
       </c>
       <c r="I72">
+        <v>2449.28186136484</v>
+      </c>
+      <c r="J72">
+        <v>1256.09113125503</v>
+      </c>
+      <c r="K72">
+        <v>1331.37209239602</v>
+      </c>
+      <c r="L72">
         <v>10.91060652218947</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>296.3707492568422</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>1060.367386319135</v>
+      </c>
+      <c r="O72">
+        <v>515.6382866031242</v>
+      </c>
+      <c r="P72">
+        <v>264.4402381589537</v>
+      </c>
+      <c r="Q72">
+        <v>280.2888615570568</v>
       </c>
     </row>
     <row r="73">
@@ -3501,13 +4809,31 @@
         <v>2564.58887401223</v>
       </c>
       <c r="I73">
+        <v>879.211641252041</v>
+      </c>
+      <c r="J73">
+        <v>647.729725450277</v>
+      </c>
+      <c r="K73">
+        <v>1037.64750730991</v>
+      </c>
+      <c r="L73">
         <v>9.618146198021053</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>202.089083168421</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>539.9134471604696</v>
+      </c>
+      <c r="O73">
+        <v>185.0971876320087</v>
+      </c>
+      <c r="P73">
+        <v>136.3641527263741</v>
+      </c>
+      <c r="Q73">
+        <v>218.4521068020863</v>
       </c>
     </row>
     <row r="74">
@@ -3544,13 +4870,31 @@
         <v>3423.12801349163</v>
       </c>
       <c r="I74">
+        <v>1635.47849678993</v>
+      </c>
+      <c r="J74">
+        <v>592.5604348182681</v>
+      </c>
+      <c r="K74">
+        <v>1195.08908188343</v>
+      </c>
+      <c r="L74">
         <v>17.64437460642106</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>283.0787088694737</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>720.6585291561327</v>
+      </c>
+      <c r="O74">
+        <v>344.3112624820906</v>
+      </c>
+      <c r="P74">
+        <v>124.7495652248986</v>
+      </c>
+      <c r="Q74">
+        <v>251.5977014491432</v>
       </c>
     </row>
     <row r="75">
@@ -3587,13 +4931,31 @@
         <v>2032.32493364811</v>
       </c>
       <c r="I75">
+        <v>856.145969390869</v>
+      </c>
+      <c r="J75">
+        <v>493.436868190765</v>
+      </c>
+      <c r="K75">
+        <v>682.742096066475</v>
+      </c>
+      <c r="L75">
         <v>7.85679956271579</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>150.3002585768421</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>427.8578807680231</v>
+      </c>
+      <c r="O75">
+        <v>180.2412567138672</v>
+      </c>
+      <c r="P75">
+        <v>103.8814459348979</v>
+      </c>
+      <c r="Q75">
+        <v>143.7351781192579</v>
       </c>
     </row>
     <row r="76">
@@ -3630,13 +4992,31 @@
         <v>148.972713708878</v>
       </c>
       <c r="I76">
+        <v>98.9034540653229</v>
+      </c>
+      <c r="J76">
+        <v>23.5694568157196</v>
+      </c>
+      <c r="K76">
+        <v>26.4998028278351</v>
+      </c>
+      <c r="L76">
         <v>0.1593152484210527</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>6.721724490526317</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>31.36267657029011</v>
+      </c>
+      <c r="O76">
+        <v>20.82177980322588</v>
+      </c>
+      <c r="P76">
+        <v>4.961990908572548</v>
+      </c>
+      <c r="Q76">
+        <v>5.5789058584916</v>
       </c>
     </row>
     <row r="77">
@@ -3673,13 +5053,31 @@
         <v>240.953355893493</v>
       </c>
       <c r="I77">
+        <v>118.546936661005</v>
+      </c>
+      <c r="J77">
+        <v>59.5624884366989</v>
+      </c>
+      <c r="K77">
+        <v>62.8439307957888</v>
+      </c>
+      <c r="L77">
         <v>0.4288788646315789</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>13.64150322315789</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>50.72702229336695</v>
+      </c>
+      <c r="O77">
+        <v>24.95724982336948</v>
+      </c>
+      <c r="P77">
+        <v>12.53947124983135</v>
+      </c>
+      <c r="Q77">
+        <v>13.23030122016606</v>
       </c>
     </row>
     <row r="78">
@@ -3716,13 +5114,31 @@
         <v>2686.50399008393</v>
       </c>
       <c r="I78">
+        <v>1535.39940071106</v>
+      </c>
+      <c r="J78">
+        <v>548.564593315125</v>
+      </c>
+      <c r="K78">
+        <v>602.539996057749</v>
+      </c>
+      <c r="L78">
         <v>4.10865745583158</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>141.0897590505263</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>565.5797873860906</v>
+      </c>
+      <c r="O78">
+        <v>323.2419790970653</v>
+      </c>
+      <c r="P78">
+        <v>115.4872828031842</v>
+      </c>
+      <c r="Q78">
+        <v>126.8505254858419</v>
       </c>
     </row>
     <row r="79">
@@ -3759,13 +5175,31 @@
         <v>635.832109570503</v>
       </c>
       <c r="I79">
+        <v>320.861865997314</v>
+      </c>
+      <c r="J79">
+        <v>125.23900270462</v>
+      </c>
+      <c r="K79">
+        <v>189.731240868568</v>
+      </c>
+      <c r="L79">
         <v>3.391618922736843</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>50.87151346315789</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>133.8593914885269</v>
+      </c>
+      <c r="O79">
+        <v>67.54986652575032</v>
+      </c>
+      <c r="P79">
+        <v>26.36610583255158</v>
+      </c>
+      <c r="Q79">
+        <v>39.94341913022484</v>
       </c>
     </row>
     <row r="80">
@@ -3802,13 +5236,31 @@
         <v>204.651579976082</v>
       </c>
       <c r="I80">
+        <v>78.5197336673737</v>
+      </c>
+      <c r="J80">
+        <v>35.6274254322052</v>
+      </c>
+      <c r="K80">
+        <v>90.50442087650301</v>
+      </c>
+      <c r="L80">
         <v>0.6785730708210527</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>15.86801488421053</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>43.08454315285937</v>
+      </c>
+      <c r="O80">
+        <v>16.53047024576289</v>
+      </c>
+      <c r="P80">
+        <v>7.500510617306358</v>
+      </c>
+      <c r="Q80">
+        <v>19.0535622897901</v>
       </c>
     </row>
     <row r="81">
@@ -3845,13 +5297,31 @@
         <v>4290.66520409286</v>
       </c>
       <c r="I81">
+        <v>2229.5371761471</v>
+      </c>
+      <c r="J81">
+        <v>1197.54885314405</v>
+      </c>
+      <c r="K81">
+        <v>863.579174801707</v>
+      </c>
+      <c r="L81">
         <v>7.0819395476</v>
       </c>
-      <c r="J81">
+      <c r="M81">
         <v>225.1588207389474</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>903.29793770376</v>
+      </c>
+      <c r="O81">
+        <v>469.3762476099158</v>
+      </c>
+      <c r="P81">
+        <v>252.1155480303264</v>
+      </c>
+      <c r="Q81">
+        <v>181.8061420635173</v>
       </c>
     </row>
     <row r="82">
@@ -3888,13 +5358,31 @@
         <v>1739.13612231612</v>
       </c>
       <c r="I82">
+        <v>853.448757529259</v>
+      </c>
+      <c r="J82">
+        <v>320.237250834703</v>
+      </c>
+      <c r="K82">
+        <v>565.45011395216</v>
+      </c>
+      <c r="L82">
         <v>6.351943636715791</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>126.2615801263158</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>366.1339204876043</v>
+      </c>
+      <c r="O82">
+        <v>179.6734226377388</v>
+      </c>
+      <c r="P82">
+        <v>67.41836859677957</v>
+      </c>
+      <c r="Q82">
+        <v>119.0421292530863</v>
       </c>
     </row>
     <row r="83">
@@ -3931,13 +5419,31 @@
         <v>113.220996871591</v>
       </c>
       <c r="I83">
+        <v>41.4406325817108</v>
+      </c>
+      <c r="J83">
+        <v>33.5237489938736</v>
+      </c>
+      <c r="K83">
+        <v>38.2566152960062</v>
+      </c>
+      <c r="L83">
         <v>0.2687149898105263</v>
       </c>
-      <c r="J83">
+      <c r="M83">
         <v>7.562449389473684</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>23.83599934138758</v>
+      </c>
+      <c r="O83">
+        <v>8.724343701412801</v>
+      </c>
+      <c r="P83">
+        <v>7.057631367131285</v>
+      </c>
+      <c r="Q83">
+        <v>8.054024272843412</v>
       </c>
     </row>
     <row r="84">
@@ -3974,13 +5480,31 @@
         <v>3452.62900328636</v>
       </c>
       <c r="I84">
+        <v>1988.49924075603</v>
+      </c>
+      <c r="J84">
+        <v>783.842670872808</v>
+      </c>
+      <c r="K84">
+        <v>680.287091657519</v>
+      </c>
+      <c r="L84">
         <v>5.154468122378948</v>
       </c>
-      <c r="J84">
+      <c r="M84">
         <v>179.28902664</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>726.8692638497599</v>
+      </c>
+      <c r="O84">
+        <v>418.6314191065327</v>
+      </c>
+      <c r="P84">
+        <v>165.0195096574333</v>
+      </c>
+      <c r="Q84">
+        <v>143.2183350857935</v>
       </c>
     </row>
     <row r="85">
@@ -4017,13 +5541,31 @@
         <v>149.808581084013</v>
       </c>
       <c r="I85">
+        <v>85.0469126701355</v>
+      </c>
+      <c r="J85">
+        <v>42.7103238105774</v>
+      </c>
+      <c r="K85">
+        <v>22.0513446033001</v>
+      </c>
+      <c r="L85">
         <v>0.1353831410526316</v>
       </c>
-      <c r="J85">
+      <c r="M85">
         <v>6.600245326315791</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>31.5386486492659</v>
+      </c>
+      <c r="O85">
+        <v>17.90461319371274</v>
+      </c>
+      <c r="P85">
+        <v>8.991647118016296</v>
+      </c>
+      <c r="Q85">
+        <v>4.642388337536864</v>
       </c>
     </row>
     <row r="86">
@@ -4060,13 +5602,31 @@
         <v>62.9134621918201</v>
       </c>
       <c r="I86">
+        <v>26.9597029685974</v>
+      </c>
+      <c r="J86">
+        <v>18.6227371096611</v>
+      </c>
+      <c r="K86">
+        <v>17.3310221135616</v>
+      </c>
+      <c r="L86">
         <v>0.09471506378947368</v>
       </c>
-      <c r="J86">
+      <c r="M86">
         <v>3.507168905263158</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>13.24493940880423</v>
+      </c>
+      <c r="O86">
+        <v>5.675726940757349</v>
+      </c>
+      <c r="P86">
+        <v>3.920576233612863</v>
+      </c>
+      <c r="Q86">
+        <v>3.648636234434021</v>
       </c>
     </row>
     <row r="87">
@@ -4103,13 +5663,31 @@
         <v>2973.01051035523</v>
       </c>
       <c r="I87">
+        <v>1984.40581214428</v>
+      </c>
+      <c r="J87">
+        <v>677.97581294179</v>
+      </c>
+      <c r="K87">
+        <v>310.628885269165</v>
+      </c>
+      <c r="L87">
         <v>2.669112720884211</v>
       </c>
-      <c r="J87">
+      <c r="M87">
         <v>126.8910130989474</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>625.8969495484696</v>
+      </c>
+      <c r="O87">
+        <v>417.7696446619537</v>
+      </c>
+      <c r="P87">
+        <v>142.7317500930084</v>
+      </c>
+      <c r="Q87">
+        <v>65.39555479350842</v>
       </c>
     </row>
     <row r="88">
@@ -4146,13 +5724,31 @@
         <v>76.014099240303</v>
       </c>
       <c r="I88">
+        <v>38.879905462265</v>
+      </c>
+      <c r="J88">
+        <v>21.7867566347122</v>
+      </c>
+      <c r="K88">
+        <v>15.3474371433258</v>
+      </c>
+      <c r="L88">
         <v>0.09874268675789473</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>3.87285081263158</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>16.00296826111642</v>
+      </c>
+      <c r="O88">
+        <v>8.185243255213685</v>
+      </c>
+      <c r="P88">
+        <v>4.586685607307833</v>
+      </c>
+      <c r="Q88">
+        <v>3.231039398594905</v>
       </c>
     </row>
     <row r="89">
@@ -4189,13 +5785,31 @@
         <v>7218.63316607475</v>
       </c>
       <c r="I89">
+        <v>5079.19665133953</v>
+      </c>
+      <c r="J89">
+        <v>1233.73022037745</v>
+      </c>
+      <c r="K89">
+        <v>905.706294357777</v>
+      </c>
+      <c r="L89">
         <v>6.944576906126316</v>
       </c>
-      <c r="J89">
+      <c r="M89">
         <v>306.5784233368422</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>1519.712245489421</v>
+      </c>
+      <c r="O89">
+        <v>1069.304558176743</v>
+      </c>
+      <c r="P89">
+        <v>259.7326779742</v>
+      </c>
+      <c r="Q89">
+        <v>190.6750093384794</v>
       </c>
     </row>
     <row r="90">
@@ -4232,13 +5846,31 @@
         <v>2543.44419074059</v>
       </c>
       <c r="I90">
+        <v>1229.74974632263</v>
+      </c>
+      <c r="J90">
+        <v>538.598016560078</v>
+      </c>
+      <c r="K90">
+        <v>775.0964278578761</v>
+      </c>
+      <c r="L90">
         <v>6.4733923724</v>
       </c>
-      <c r="J90">
+      <c r="M90">
         <v>163.9110072673684</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>535.4619348927557</v>
+      </c>
+      <c r="O90">
+        <v>258.8946834363431</v>
+      </c>
+      <c r="P90">
+        <v>113.3890561179112</v>
+      </c>
+      <c r="Q90">
+        <v>163.1781953385002</v>
       </c>
     </row>
     <row r="91">
@@ -4275,13 +5907,31 @@
         <v>1577.5894266963</v>
       </c>
       <c r="I91">
+        <v>955.5010738372801</v>
+      </c>
+      <c r="J91">
+        <v>355.395270913839</v>
+      </c>
+      <c r="K91">
+        <v>266.693081945181</v>
+      </c>
+      <c r="L91">
         <v>1.911327847284211</v>
       </c>
-      <c r="J91">
+      <c r="M91">
         <v>76.99277358736843</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>332.1240898308001</v>
+      </c>
+      <c r="O91">
+        <v>201.1581208078484</v>
+      </c>
+      <c r="P91">
+        <v>74.82005703449244</v>
+      </c>
+      <c r="Q91">
+        <v>56.14591198845916</v>
       </c>
     </row>
     <row r="92">
@@ -4318,13 +5968,31 @@
         <v>3043.95390887558</v>
       </c>
       <c r="I92">
+        <v>1862.26652795076</v>
+      </c>
+      <c r="J92">
+        <v>727.711267158389</v>
+      </c>
+      <c r="K92">
+        <v>453.976113766432</v>
+      </c>
+      <c r="L92">
         <v>3.106604803873684</v>
       </c>
-      <c r="J92">
+      <c r="M92">
         <v>136.2349721136842</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>640.8324018685432</v>
+      </c>
+      <c r="O92">
+        <v>392.0561111475284</v>
+      </c>
+      <c r="P92">
+        <v>153.2023720333451</v>
+      </c>
+      <c r="Q92">
+        <v>95.57391868766989</v>
       </c>
     </row>
     <row r="93">
@@ -4361,13 +6029,31 @@
         <v>32.0758450031281</v>
       </c>
       <c r="I93">
+        <v>32.0758450031281</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
         <v>0.009526319831578948</v>
       </c>
-      <c r="J93">
+      <c r="M93">
         <v>0.8991036168421053</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>6.752809474342758</v>
+      </c>
+      <c r="O93">
+        <v>6.752809474342758</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4404,13 +6090,31 @@
         <v>2444.43044418097</v>
       </c>
       <c r="I94">
+        <v>1486.1125972867</v>
+      </c>
+      <c r="J94">
+        <v>533.591251552105</v>
+      </c>
+      <c r="K94">
+        <v>424.726595342159</v>
+      </c>
+      <c r="L94">
         <v>2.748199536084211</v>
       </c>
-      <c r="J94">
+      <c r="M94">
         <v>114.8705796484211</v>
       </c>
-      <c r="K94">
+      <c r="N94">
         <v>514.6169356170464</v>
+      </c>
+      <c r="O94">
+        <v>312.8658099550948</v>
+      </c>
+      <c r="P94">
+        <v>112.3350003267589</v>
+      </c>
+      <c r="Q94">
+        <v>89.41612533519137</v>
       </c>
     </row>
     <row r="95">
@@ -4447,13 +6151,31 @@
         <v>13.6800256371498</v>
       </c>
       <c r="I95">
+        <v>11.0289545059204</v>
+      </c>
+      <c r="J95">
+        <v>0.900864064693451</v>
+      </c>
+      <c r="K95">
+        <v>1.75020706653595</v>
+      </c>
+      <c r="L95">
         <v>0.009060479873684212</v>
       </c>
-      <c r="J95">
+      <c r="M95">
         <v>0.5078541915789474</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>2.880005397294695</v>
+      </c>
+      <c r="O95">
+        <v>2.321885159141137</v>
+      </c>
+      <c r="P95">
+        <v>0.1896555925670423</v>
+      </c>
+      <c r="Q95">
+        <v>0.3684646455865158</v>
       </c>
     </row>
     <row r="96">
@@ -4490,13 +6212,31 @@
         <v>295.396203041077</v>
       </c>
       <c r="I96">
+        <v>183.977496534586</v>
+      </c>
+      <c r="J96">
+        <v>66.2287908792496</v>
+      </c>
+      <c r="K96">
+        <v>45.1899156272411</v>
+      </c>
+      <c r="L96">
         <v>0.2880052646947369</v>
       </c>
-      <c r="J96">
+      <c r="M96">
         <v>13.13200844210526</v>
       </c>
-      <c r="K96">
+      <c r="N96">
         <v>62.18867432443727</v>
+      </c>
+      <c r="O96">
+        <v>38.73210453359705</v>
+      </c>
+      <c r="P96">
+        <v>13.94290334299992</v>
+      </c>
+      <c r="Q96">
+        <v>9.513666447840231</v>
       </c>
     </row>
     <row r="97">
@@ -4533,13 +6273,31 @@
         <v>2300.60241128504</v>
       </c>
       <c r="I97">
+        <v>1301.3395511955</v>
+      </c>
+      <c r="J97">
+        <v>590.205232858658</v>
+      </c>
+      <c r="K97">
+        <v>409.057627230883</v>
+      </c>
+      <c r="L97">
         <v>2.745442605452631</v>
       </c>
-      <c r="J97">
+      <c r="M97">
         <v>109.48732168</v>
       </c>
-      <c r="K97">
+      <c r="N97">
         <v>484.337349744219</v>
+      </c>
+      <c r="O97">
+        <v>273.9662213043158</v>
+      </c>
+      <c r="P97">
+        <v>124.2537332334017</v>
+      </c>
+      <c r="Q97">
+        <v>86.1173952065017</v>
       </c>
     </row>
     <row r="98">
@@ -4576,13 +6334,31 @@
         <v>149.588878154755</v>
       </c>
       <c r="I98">
+        <v>91.5174063444138</v>
+      </c>
+      <c r="J98">
+        <v>35.9626144170761</v>
+      </c>
+      <c r="K98">
+        <v>22.1088573932648</v>
+      </c>
+      <c r="L98">
         <v>0.1451944105684211</v>
       </c>
-      <c r="J98">
+      <c r="M98">
         <v>6.670079185263158</v>
       </c>
-      <c r="K98">
+      <c r="N98">
         <v>31.49239540100106</v>
+      </c>
+      <c r="O98">
+        <v>19.26682238829764</v>
+      </c>
+      <c r="P98">
+        <v>7.571076719384442</v>
+      </c>
+      <c r="Q98">
+        <v>4.654496293318905</v>
       </c>
     </row>
     <row r="99">
@@ -4619,13 +6395,31 @@
         <v>149.588780552149</v>
       </c>
       <c r="I99">
+        <v>29.5378477573395</v>
+      </c>
+      <c r="J99">
+        <v>31.8861953914165</v>
+      </c>
+      <c r="K99">
+        <v>88.16473740339281</v>
+      </c>
+      <c r="L99">
         <v>0.451317724</v>
       </c>
-      <c r="J99">
+      <c r="M99">
         <v>11.87476828842106</v>
       </c>
-      <c r="K99">
+      <c r="N99">
         <v>31.492374853084</v>
+      </c>
+      <c r="O99">
+        <v>6.218494264703052</v>
+      </c>
+      <c r="P99">
+        <v>6.712883240298211</v>
+      </c>
+      <c r="Q99">
+        <v>18.56099734808269</v>
       </c>
     </row>
     <row r="100">
@@ -4662,13 +6456,31 @@
         <v>1353.7254319489</v>
       </c>
       <c r="I100">
+        <v>717.954981327057</v>
+      </c>
+      <c r="J100">
+        <v>305.922407031059</v>
+      </c>
+      <c r="K100">
+        <v>329.848043590784</v>
+      </c>
+      <c r="L100">
         <v>1.87636962031579</v>
       </c>
-      <c r="J100">
+      <c r="M100">
         <v>69.54284979368421</v>
       </c>
-      <c r="K100">
+      <c r="N100">
         <v>284.9948277787158</v>
+      </c>
+      <c r="O100">
+        <v>151.1484171214857</v>
+      </c>
+      <c r="P100">
+        <v>64.40471726969663</v>
+      </c>
+      <c r="Q100">
+        <v>69.44169338753348</v>
       </c>
     </row>
     <row r="101">
@@ -4705,13 +6517,31 @@
         <v>50.5568670034409</v>
       </c>
       <c r="I101">
+        <v>13.9583098888397</v>
+      </c>
+      <c r="J101">
+        <v>22.5888321399689</v>
+      </c>
+      <c r="K101">
+        <v>14.0097249746323</v>
+      </c>
+      <c r="L101">
         <v>0.1223546203368421</v>
       </c>
-      <c r="J101">
+      <c r="M101">
         <v>3.441473404210526</v>
       </c>
-      <c r="K101">
+      <c r="N101">
         <v>10.64355094809282</v>
+      </c>
+      <c r="O101">
+        <v>2.9385915555452</v>
+      </c>
+      <c r="P101">
+        <v>4.755543608414506</v>
+      </c>
+      <c r="Q101">
+        <v>2.949415784133116</v>
       </c>
     </row>
     <row r="102">
@@ -4748,13 +6578,31 @@
         <v>27.3868218660355</v>
       </c>
       <c r="I102">
+        <v>26.0836868286133</v>
+      </c>
+      <c r="J102">
+        <v>1.30313503742218</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
         <v>0.009019664694736843</v>
       </c>
-      <c r="J102">
+      <c r="M102">
         <v>0.7922043473684211</v>
       </c>
-      <c r="K102">
+      <c r="N102">
         <v>5.765646708639054</v>
+      </c>
+      <c r="O102">
+        <v>5.491302490234379</v>
+      </c>
+      <c r="P102">
+        <v>0.2743442184046695</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4791,13 +6639,31 @@
         <v>2142.28491985798</v>
       </c>
       <c r="I103">
+        <v>1399.13908004761</v>
+      </c>
+      <c r="J103">
+        <v>364.83669757843</v>
+      </c>
+      <c r="K103">
+        <v>378.309142231941</v>
+      </c>
+      <c r="L103">
         <v>2.52801033543158</v>
       </c>
-      <c r="J103">
+      <c r="M103">
         <v>99.87882813473685</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <v>451.0073515490485</v>
+      </c>
+      <c r="O103">
+        <v>294.5555957994969</v>
+      </c>
+      <c r="P103">
+        <v>76.80772580598527</v>
+      </c>
+      <c r="Q103">
+        <v>79.64402994356652</v>
       </c>
     </row>
     <row r="104">
@@ -4834,13 +6700,31 @@
         <v>725.262787535787</v>
       </c>
       <c r="I104">
+        <v>272.119401693344</v>
+      </c>
+      <c r="J104">
+        <v>141.541699707508</v>
+      </c>
+      <c r="K104">
+        <v>311.601686134934</v>
+      </c>
+      <c r="L104">
         <v>2.098907610863158</v>
       </c>
-      <c r="J104">
+      <c r="M104">
         <v>52.82255728421053</v>
       </c>
-      <c r="K104">
+      <c r="N104">
         <v>152.686902639113</v>
+      </c>
+      <c r="O104">
+        <v>57.28829509333558</v>
+      </c>
+      <c r="P104">
+        <v>29.79825257000169</v>
+      </c>
+      <c r="Q104">
+        <v>65.60035497577559</v>
       </c>
     </row>
     <row r="105">
@@ -4877,13 +6761,31 @@
         <v>86.6267912387848</v>
       </c>
       <c r="I105">
+        <v>75.4584631919861</v>
+      </c>
+      <c r="J105">
+        <v>11.1683280467987</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
         <v>0.03611439305263158</v>
       </c>
-      <c r="J105">
+      <c r="M105">
         <v>2.757950835789474</v>
       </c>
-      <c r="K105">
+      <c r="N105">
         <v>18.23721920816522</v>
+      </c>
+      <c r="O105">
+        <v>15.88599225094444</v>
+      </c>
+      <c r="P105">
+        <v>2.351226957220779</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -4920,13 +6822,31 @@
         <v>4696.91302424669</v>
       </c>
       <c r="I106">
+        <v>2162.23916918039</v>
+      </c>
+      <c r="J106">
+        <v>1323.52189725637</v>
+      </c>
+      <c r="K106">
+        <v>1211.15195780993</v>
+      </c>
+      <c r="L106">
         <v>8.360175762547369</v>
       </c>
-      <c r="J106">
+      <c r="M106">
         <v>266.3226376147368</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>988.8237945782506</v>
+      </c>
+      <c r="O106">
+        <v>455.2082461432401</v>
+      </c>
+      <c r="P106">
+        <v>278.6361888960779</v>
+      </c>
+      <c r="Q106">
+        <v>254.9793595389326</v>
       </c>
     </row>
     <row r="107">
@@ -4963,13 +6883,31 @@
         <v>497.388228192925</v>
       </c>
       <c r="I107">
+        <v>237.338593542576</v>
+      </c>
+      <c r="J107">
+        <v>92.74992477893829</v>
+      </c>
+      <c r="K107">
+        <v>167.299709871411</v>
+      </c>
+      <c r="L107">
         <v>1.018365508968421</v>
       </c>
-      <c r="J107">
+      <c r="M107">
         <v>30.57930152842106</v>
       </c>
-      <c r="K107">
+      <c r="N107">
         <v>104.7133111985105</v>
+      </c>
+      <c r="O107">
+        <v>49.9660196931739</v>
+      </c>
+      <c r="P107">
+        <v>19.52629995346069</v>
+      </c>
+      <c r="Q107">
+        <v>35.220991551876</v>
       </c>
     </row>
     <row r="108">
@@ -5006,13 +6944,31 @@
         <v>700.256073102355</v>
       </c>
       <c r="I108">
+        <v>288.724561959505</v>
+      </c>
+      <c r="J108">
+        <v>135.005908817053</v>
+      </c>
+      <c r="K108">
+        <v>276.525602325797</v>
+      </c>
+      <c r="L108">
         <v>1.739090187473684</v>
       </c>
-      <c r="J108">
+      <c r="M108">
         <v>47.71792184842106</v>
       </c>
-      <c r="K108">
+      <c r="N108">
         <v>147.4223311794432</v>
+      </c>
+      <c r="O108">
+        <v>60.78411830726422</v>
+      </c>
+      <c r="P108">
+        <v>28.4222965930638</v>
+      </c>
+      <c r="Q108">
+        <v>58.21591627911516</v>
       </c>
     </row>
     <row r="109">
@@ -5049,13 +7005,31 @@
         <v>3429.81546041369</v>
       </c>
       <c r="I109">
+        <v>1954.82387453318</v>
+      </c>
+      <c r="J109">
+        <v>796.329839140177</v>
+      </c>
+      <c r="K109">
+        <v>678.661746740341</v>
+      </c>
+      <c r="L109">
         <v>4.860802461936842</v>
       </c>
-      <c r="J109">
+      <c r="M109">
         <v>173.6471674652632</v>
       </c>
-      <c r="K109">
+      <c r="N109">
         <v>722.0664127186716</v>
+      </c>
+      <c r="O109">
+        <v>411.5418683227748</v>
+      </c>
+      <c r="P109">
+        <v>167.6483871874057</v>
+      </c>
+      <c r="Q109">
+        <v>142.8761572084929</v>
       </c>
     </row>
     <row r="110">
@@ -5092,13 +7066,31 @@
         <v>238.215886414051</v>
       </c>
       <c r="I110">
+        <v>159.969879150391</v>
+      </c>
+      <c r="J110">
+        <v>52.5286767482758</v>
+      </c>
+      <c r="K110">
+        <v>25.7173305153847</v>
+      </c>
+      <c r="L110">
         <v>0.1890110096631579</v>
       </c>
-      <c r="J110">
+      <c r="M110">
         <v>9.662882334736842</v>
       </c>
-      <c r="K110">
+      <c r="N110">
         <v>50.15071292927389</v>
+      </c>
+      <c r="O110">
+        <v>33.67786929481916</v>
+      </c>
+      <c r="P110">
+        <v>11.05866878911069</v>
+      </c>
+      <c r="Q110">
+        <v>5.414174845344148</v>
       </c>
     </row>
     <row r="111">
@@ -5135,13 +7127,31 @@
         <v>53.9733228683472</v>
       </c>
       <c r="I111">
+        <v>40.6358089447021</v>
+      </c>
+      <c r="J111">
+        <v>11.4299176931381</v>
+      </c>
+      <c r="K111">
+        <v>1.9075962305069</v>
+      </c>
+      <c r="L111">
         <v>0.03324676810526316</v>
       </c>
-      <c r="J111">
+      <c r="M111">
         <v>2.017596947368421</v>
       </c>
-      <c r="K111">
+      <c r="N111">
         <v>11.36280481438888</v>
+      </c>
+      <c r="O111">
+        <v>8.554907146253074</v>
+      </c>
+      <c r="P111">
+        <v>2.406298461713284</v>
+      </c>
+      <c r="Q111">
+        <v>0.4015992064225053</v>
       </c>
     </row>
     <row r="112">
@@ -5178,13 +7188,31 @@
         <v>4632.64837805927</v>
       </c>
       <c r="I112">
+        <v>2705.43686103821</v>
+      </c>
+      <c r="J112">
+        <v>1214.34906029701</v>
+      </c>
+      <c r="K112">
+        <v>712.862456724048</v>
+      </c>
+      <c r="L112">
         <v>5.758654682378948</v>
       </c>
-      <c r="J112">
+      <c r="M112">
         <v>220.0133459663158</v>
       </c>
-      <c r="K112">
+      <c r="N112">
         <v>975.2943953808989</v>
+      </c>
+      <c r="O112">
+        <v>569.5656549554126</v>
+      </c>
+      <c r="P112">
+        <v>255.652433746739</v>
+      </c>
+      <c r="Q112">
+        <v>150.076306678747</v>
       </c>
     </row>
     <row r="113">
@@ -5221,13 +7249,31 @@
         <v>513.35659481585</v>
       </c>
       <c r="I113">
+        <v>294.271329879761</v>
+      </c>
+      <c r="J113">
+        <v>122.275733217597</v>
+      </c>
+      <c r="K113">
+        <v>96.80953171849249</v>
+      </c>
+      <c r="L113">
         <v>0.7347536029052633</v>
       </c>
-      <c r="J113">
+      <c r="M113">
         <v>26.47130292631579</v>
       </c>
-      <c r="K113">
+      <c r="N113">
         <v>108.0750725928105</v>
+      </c>
+      <c r="O113">
+        <v>61.95185892205495</v>
+      </c>
+      <c r="P113">
+        <v>25.74225962475726</v>
+      </c>
+      <c r="Q113">
+        <v>20.38095404599842</v>
       </c>
     </row>
     <row r="114">
@@ -5264,13 +7310,31 @@
         <v>234.568594321609</v>
       </c>
       <c r="I114">
+        <v>100.57264226675</v>
+      </c>
+      <c r="J114">
+        <v>52.90162140131</v>
+      </c>
+      <c r="K114">
+        <v>81.0943306535482</v>
+      </c>
+      <c r="L114">
         <v>0.5929717529894737</v>
       </c>
-      <c r="J114">
+      <c r="M114">
         <v>15.77836866947368</v>
       </c>
-      <c r="K114">
+      <c r="N114">
         <v>49.382861962444</v>
+      </c>
+      <c r="O114">
+        <v>21.17318784563158</v>
+      </c>
+      <c r="P114">
+        <v>11.13718345290737</v>
+      </c>
+      <c r="Q114">
+        <v>17.07249066390488</v>
       </c>
     </row>
     <row r="115">
@@ -5307,13 +7371,31 @@
         <v>3584.44351688027</v>
       </c>
       <c r="I115">
+        <v>1672.81739652157</v>
+      </c>
+      <c r="J115">
+        <v>949.882591217756</v>
+      </c>
+      <c r="K115">
+        <v>961.743529140949</v>
+      </c>
+      <c r="L115">
         <v>6.76706862368421</v>
       </c>
-      <c r="J115">
+      <c r="M115">
         <v>208.3073698210526</v>
       </c>
-      <c r="K115">
+      <c r="N115">
         <v>754.6196877642675</v>
+      </c>
+      <c r="O115">
+        <v>352.1720834782253</v>
+      </c>
+      <c r="P115">
+        <v>199.9752823616329</v>
+      </c>
+      <c r="Q115">
+        <v>202.4723219244103</v>
       </c>
     </row>
     <row r="116">
@@ -5350,13 +7432,31 @@
         <v>1639.95383429527</v>
       </c>
       <c r="I116">
+        <v>732.156247735023</v>
+      </c>
+      <c r="J116">
+        <v>355.229652583599</v>
+      </c>
+      <c r="K116">
+        <v>552.56793397665</v>
+      </c>
+      <c r="L116">
         <v>3.910114818547369</v>
       </c>
-      <c r="J116">
+      <c r="M116">
         <v>105.5069563052632</v>
       </c>
-      <c r="K116">
+      <c r="N116">
         <v>345.2534387990042</v>
+      </c>
+      <c r="O116">
+        <v>154.1381574178996</v>
+      </c>
+      <c r="P116">
+        <v>74.78519001759979</v>
+      </c>
+      <c r="Q116">
+        <v>116.3300913635053</v>
       </c>
     </row>
     <row r="117">
@@ -5393,13 +7493,31 @@
         <v>649.7983941733841</v>
       </c>
       <c r="I117">
+        <v>430.403321385384</v>
+      </c>
+      <c r="J117">
+        <v>88.15191733837131</v>
+      </c>
+      <c r="K117">
+        <v>131.243155449629</v>
+      </c>
+      <c r="L117">
         <v>2.393206827473684</v>
       </c>
-      <c r="J117">
+      <c r="M117">
         <v>43.18596668421053</v>
       </c>
-      <c r="K117">
+      <c r="N117">
         <v>136.7996619312388</v>
+      </c>
+      <c r="O117">
+        <v>90.61122555481769</v>
+      </c>
+      <c r="P117">
+        <v>18.55829838702554</v>
+      </c>
+      <c r="Q117">
+        <v>27.63013798939558</v>
       </c>
     </row>
     <row r="118">
@@ -5436,13 +7554,31 @@
         <v>2905.4460657239</v>
       </c>
       <c r="I118">
+        <v>1890.61446177959</v>
+      </c>
+      <c r="J118">
+        <v>586.617841541767</v>
+      </c>
+      <c r="K118">
+        <v>428.213762402534</v>
+      </c>
+      <c r="L118">
         <v>2.958676252884211</v>
       </c>
-      <c r="J118">
+      <c r="M118">
         <v>129.4018506210526</v>
       </c>
-      <c r="K118">
+      <c r="N118">
         <v>611.6728559418738</v>
+      </c>
+      <c r="O118">
+        <v>398.0240972167558</v>
+      </c>
+      <c r="P118">
+        <v>123.4984929561615</v>
+      </c>
+      <c r="Q118">
+        <v>90.15026576895453</v>
       </c>
     </row>
     <row r="119">
@@ -5479,13 +7615,31 @@
         <v>129.904288768768</v>
       </c>
       <c r="I119">
+        <v>69.57974720001221</v>
+      </c>
+      <c r="J119">
+        <v>14.0242729187012</v>
+      </c>
+      <c r="K119">
+        <v>46.3002686500549</v>
+      </c>
+      <c r="L119">
         <v>0.1864693797894737</v>
       </c>
-      <c r="J119">
+      <c r="M119">
         <v>7.004892063157895</v>
       </c>
-      <c r="K119">
+      <c r="N119">
         <v>27.34827131974063</v>
+      </c>
+      <c r="O119">
+        <v>14.64836783158152</v>
+      </c>
+      <c r="P119">
+        <v>2.952478509200253</v>
+      </c>
+      <c r="Q119">
+        <v>9.747424978958927</v>
       </c>
     </row>
     <row r="120">
@@ -5522,13 +7676,31 @@
         <v>2819.69092160463</v>
       </c>
       <c r="I120">
+        <v>1968.56083929539</v>
+      </c>
+      <c r="J120">
+        <v>463.365557163954</v>
+      </c>
+      <c r="K120">
+        <v>387.764525145292</v>
+      </c>
+      <c r="L120">
         <v>2.910777725663158</v>
       </c>
-      <c r="J120">
+      <c r="M120">
         <v>122.7163900947369</v>
       </c>
-      <c r="K120">
+      <c r="N120">
         <v>593.6191413904485</v>
+      </c>
+      <c r="O120">
+        <v>414.4338609042927</v>
+      </c>
+      <c r="P120">
+        <v>97.550643613464</v>
+      </c>
+      <c r="Q120">
+        <v>81.63463687269305</v>
       </c>
     </row>
     <row r="121">
@@ -5565,13 +7737,31 @@
         <v>1019.25198882818</v>
       </c>
       <c r="I121">
+        <v>624.498776555061</v>
+      </c>
+      <c r="J121">
+        <v>163.745483845472</v>
+      </c>
+      <c r="K121">
+        <v>231.007728427649</v>
+      </c>
+      <c r="L121">
         <v>2.201896288778948</v>
       </c>
-      <c r="J121">
+      <c r="M121">
         <v>59.14188923368421</v>
       </c>
-      <c r="K121">
+      <c r="N121">
         <v>214.5793660690905</v>
+      </c>
+      <c r="O121">
+        <v>131.4734266431707</v>
+      </c>
+      <c r="P121">
+        <v>34.472733441152</v>
+      </c>
+      <c r="Q121">
+        <v>48.63320598476822</v>
       </c>
     </row>
     <row r="122">
@@ -5608,13 +7798,31 @@
         <v>17.9235789775848</v>
       </c>
       <c r="I122">
+        <v>17.2983508110046</v>
+      </c>
+      <c r="J122">
+        <v>0.6252281665802</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
         <v>0.006398709684210526</v>
       </c>
-      <c r="J122">
+      <c r="M122">
         <v>0.5423701810526316</v>
       </c>
-      <c r="K122">
+      <c r="N122">
         <v>3.77338504791259</v>
+      </c>
+      <c r="O122">
+        <v>3.641758065474653</v>
+      </c>
+      <c r="P122">
+        <v>0.1316269824379368</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5651,13 +7859,31 @@
         <v>3379.67548635602</v>
       </c>
       <c r="I123">
+        <v>1779.14488977194</v>
+      </c>
+      <c r="J123">
+        <v>642.256557151675</v>
+      </c>
+      <c r="K123">
+        <v>958.274039432406</v>
+      </c>
+      <c r="L123">
         <v>8.750844267326315</v>
       </c>
-      <c r="J123">
+      <c r="M123">
         <v>215.9240237936842</v>
       </c>
-      <c r="K123">
+      <c r="N123">
         <v>711.5106287065305</v>
+      </c>
+      <c r="O123">
+        <v>374.5568188993558</v>
+      </c>
+      <c r="P123">
+        <v>135.2119067687737</v>
+      </c>
+      <c r="Q123">
+        <v>201.7419030384013</v>
       </c>
     </row>
     <row r="124">
@@ -5694,13 +7920,31 @@
         <v>862.667210638523</v>
       </c>
       <c r="I124">
+        <v>506.119165420532</v>
+      </c>
+      <c r="J124">
+        <v>202.795183688402</v>
+      </c>
+      <c r="K124">
+        <v>153.752861529589</v>
+      </c>
+      <c r="L124">
         <v>1.189506475578948</v>
       </c>
-      <c r="J124">
+      <c r="M124">
         <v>43.41255696210526</v>
       </c>
-      <c r="K124">
+      <c r="N124">
         <v>181.6141496081101</v>
+      </c>
+      <c r="O124">
+        <v>106.5514032464278</v>
+      </c>
+      <c r="P124">
+        <v>42.69372288176884</v>
+      </c>
+      <c r="Q124">
+        <v>32.36902347991348</v>
       </c>
     </row>
     <row r="125">
@@ -5737,13 +7981,31 @@
         <v>3075.52866274118</v>
       </c>
       <c r="I125">
+        <v>1402.07033061981</v>
+      </c>
+      <c r="J125">
+        <v>894.029915392399</v>
+      </c>
+      <c r="K125">
+        <v>779.4284167289731</v>
+      </c>
+      <c r="L125">
         <v>5.040959694842106</v>
       </c>
-      <c r="J125">
+      <c r="M125">
         <v>170.8810021031579</v>
       </c>
-      <c r="K125">
+      <c r="N125">
         <v>647.4797184718274</v>
+      </c>
+      <c r="O125">
+        <v>295.1727011831179</v>
+      </c>
+      <c r="P125">
+        <v>188.2168242931366</v>
+      </c>
+      <c r="Q125">
+        <v>164.0901929955733</v>
       </c>
     </row>
     <row r="126">
@@ -5780,13 +8042,31 @@
         <v>1057.12138098478</v>
       </c>
       <c r="I126">
+        <v>532.40148460865</v>
+      </c>
+      <c r="J126">
+        <v>239.897692799568</v>
+      </c>
+      <c r="K126">
+        <v>284.822203576565</v>
+      </c>
+      <c r="L126">
         <v>2.064170698526316</v>
       </c>
-      <c r="J126">
+      <c r="M126">
         <v>62.58335644631579</v>
       </c>
-      <c r="K126">
+      <c r="N126">
         <v>222.5518696810063</v>
+      </c>
+      <c r="O126">
+        <v>112.0845230755053</v>
+      </c>
+      <c r="P126">
+        <v>50.504777431488</v>
+      </c>
+      <c r="Q126">
+        <v>59.96256917401369</v>
       </c>
     </row>
     <row r="127">
@@ -5823,13 +8103,31 @@
         <v>6.45155239105225</v>
       </c>
       <c r="I127">
+        <v>6.45155239105225</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
         <v>0.002116095157894737</v>
       </c>
-      <c r="J127">
+      <c r="M127">
         <v>0.1900456</v>
       </c>
-      <c r="K127">
+      <c r="N127">
         <v>1.358221556011</v>
+      </c>
+      <c r="O127">
+        <v>1.358221556011</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5866,13 +8164,31 @@
         <v>5645.90638694167</v>
       </c>
       <c r="I128">
+        <v>3869.40871107578</v>
+      </c>
+      <c r="J128">
+        <v>1011.42491301894</v>
+      </c>
+      <c r="K128">
+        <v>765.0727628469469</v>
+      </c>
+      <c r="L128">
         <v>5.883497077705264</v>
       </c>
-      <c r="J128">
+      <c r="M128">
         <v>250.043962951579</v>
       </c>
-      <c r="K128">
+      <c r="N128">
         <v>1188.611870935088</v>
+      </c>
+      <c r="O128">
+        <v>814.6123602264801</v>
+      </c>
+      <c r="P128">
+        <v>212.9315606355663</v>
+      </c>
+      <c r="Q128">
+        <v>161.0679500730415</v>
       </c>
     </row>
     <row r="129">
@@ -5909,13 +8225,31 @@
         <v>160.082246899605</v>
       </c>
       <c r="I129">
+        <v>52.6786363124847</v>
+      </c>
+      <c r="J129">
+        <v>48.9733748435974</v>
+      </c>
+      <c r="K129">
+        <v>58.4302357435226</v>
+      </c>
+      <c r="L129">
         <v>0.3436539705263158</v>
       </c>
-      <c r="J129">
+      <c r="M129">
         <v>10.54502282105263</v>
       </c>
-      <c r="K129">
+      <c r="N129">
         <v>33.70152566307474</v>
+      </c>
+      <c r="O129">
+        <v>11.09023922368099</v>
+      </c>
+      <c r="P129">
+        <v>10.31018417759945</v>
+      </c>
+      <c r="Q129">
+        <v>12.30110226179423</v>
       </c>
     </row>
     <row r="130">
@@ -5952,13 +8286,31 @@
         <v>2908.04599389434</v>
       </c>
       <c r="I130">
+        <v>1881.51765429974</v>
+      </c>
+      <c r="J130">
+        <v>525.3319613784551</v>
+      </c>
+      <c r="K130">
+        <v>501.196378216147</v>
+      </c>
+      <c r="L130">
         <v>3.297907350926316</v>
       </c>
-      <c r="J130">
+      <c r="M130">
         <v>136.4209560589474</v>
       </c>
-      <c r="K130">
+      <c r="N130">
         <v>612.2202092409136</v>
+      </c>
+      <c r="O130">
+        <v>396.1089798525768</v>
+      </c>
+      <c r="P130">
+        <v>110.5962023954642</v>
+      </c>
+      <c r="Q130">
+        <v>105.5150269928731</v>
       </c>
     </row>
     <row r="131">
@@ -5995,13 +8347,31 @@
         <v>980.384364366531</v>
       </c>
       <c r="I131">
+        <v>457.371546030045</v>
+      </c>
+      <c r="J131">
+        <v>252.672757744789</v>
+      </c>
+      <c r="K131">
+        <v>270.340060591698</v>
+      </c>
+      <c r="L131">
         <v>3.000793477515789</v>
       </c>
-      <c r="J131">
+      <c r="M131">
         <v>66.67211580631579</v>
       </c>
-      <c r="K131">
+      <c r="N131">
         <v>206.3967082876908</v>
+      </c>
+      <c r="O131">
+        <v>96.28874653264106</v>
+      </c>
+      <c r="P131">
+        <v>53.19426478837664</v>
+      </c>
+      <c r="Q131">
+        <v>56.91369696667326</v>
       </c>
     </row>
     <row r="132">
@@ -6038,13 +8408,31 @@
         <v>93.0981657207012</v>
       </c>
       <c r="I132">
+        <v>37.8483166694641</v>
+      </c>
+      <c r="J132">
+        <v>31.2535162568092</v>
+      </c>
+      <c r="K132">
+        <v>23.9963327944279</v>
+      </c>
+      <c r="L132">
         <v>0.1275026768421053</v>
       </c>
-      <c r="J132">
+      <c r="M132">
         <v>5.046144463157894</v>
       </c>
-      <c r="K132">
+      <c r="N132">
         <v>19.5996138359371</v>
+      </c>
+      <c r="O132">
+        <v>7.9680666672556</v>
+      </c>
+      <c r="P132">
+        <v>6.579687633012463</v>
+      </c>
+      <c r="Q132">
+        <v>5.051859535669031</v>
       </c>
     </row>
     <row r="133">
@@ -6081,13 +8469,31 @@
         <v>1431.18960949779</v>
       </c>
       <c r="I133">
+        <v>957.086531281471</v>
+      </c>
+      <c r="J133">
+        <v>267.948562324047</v>
+      </c>
+      <c r="K133">
+        <v>206.154515892267</v>
+      </c>
+      <c r="L133">
         <v>1.732607373852632</v>
       </c>
-      <c r="J133">
+      <c r="M133">
         <v>66.48558306315789</v>
       </c>
-      <c r="K133">
+      <c r="N133">
         <v>301.3030756837453</v>
+      </c>
+      <c r="O133">
+        <v>201.491901322415</v>
+      </c>
+      <c r="P133">
+        <v>56.41022364716779</v>
+      </c>
+      <c r="Q133">
+        <v>43.40095071416148</v>
       </c>
     </row>
     <row r="134">
@@ -6124,13 +8530,31 @@
         <v>13.1136765480042</v>
       </c>
       <c r="I134">
+        <v>0.749983787536621</v>
+      </c>
+      <c r="J134">
+        <v>5.65152788162231</v>
+      </c>
+      <c r="K134">
+        <v>6.71216487884521</v>
+      </c>
+      <c r="L134">
         <v>0.0299994652631579</v>
       </c>
-      <c r="J134">
+      <c r="M134">
         <v>0.977813157894737</v>
       </c>
-      <c r="K134">
+      <c r="N134">
         <v>2.760774010106148</v>
+      </c>
+      <c r="O134">
+        <v>0.1578913236919202</v>
+      </c>
+      <c r="P134">
+        <v>1.189795343499434</v>
+      </c>
+      <c r="Q134">
+        <v>1.413087342914781</v>
       </c>
     </row>
     <row r="135">
@@ -6167,13 +8591,31 @@
         <v>43.9242856502533</v>
       </c>
       <c r="I135">
+        <v>39.7755515575409</v>
+      </c>
+      <c r="J135">
+        <v>4.1487340927124</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
         <v>0.0191331576</v>
       </c>
-      <c r="J135">
+      <c r="M135">
         <v>1.440545410526316</v>
       </c>
-      <c r="K135">
+      <c r="N135">
         <v>9.247218031632276</v>
+      </c>
+      <c r="O135">
+        <v>8.373800327903348</v>
+      </c>
+      <c r="P135">
+        <v>0.8734177037289262</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -6210,13 +8652,31 @@
         <v>3057.21026000381</v>
       </c>
       <c r="I136">
+        <v>2042.7048484683</v>
+      </c>
+      <c r="J136">
+        <v>702.113498270512</v>
+      </c>
+      <c r="K136">
+        <v>312.39191326499</v>
+      </c>
+      <c r="L136">
         <v>2.557365001494737</v>
       </c>
-      <c r="J136">
+      <c r="M136">
         <v>125.6836838463158</v>
       </c>
-      <c r="K136">
+      <c r="N136">
         <v>643.6232126323811</v>
+      </c>
+      <c r="O136">
+        <v>430.0431259933264</v>
+      </c>
+      <c r="P136">
+        <v>147.8133680569499</v>
+      </c>
+      <c r="Q136">
+        <v>65.76671858210317</v>
       </c>
     </row>
     <row r="137">
@@ -6253,13 +8713,31 @@
         <v>250.106812149286</v>
       </c>
       <c r="I137">
+        <v>126.471855759621</v>
+      </c>
+      <c r="J137">
+        <v>52.4053008258343</v>
+      </c>
+      <c r="K137">
+        <v>71.2296555638313</v>
+      </c>
+      <c r="L137">
         <v>0.3575932450526316</v>
       </c>
-      <c r="J137">
+      <c r="M137">
         <v>13.40063294526316</v>
       </c>
-      <c r="K137">
+      <c r="N137">
         <v>52.65406571563916</v>
+      </c>
+      <c r="O137">
+        <v>26.62565384413074</v>
+      </c>
+      <c r="P137">
+        <v>11.03269491070196</v>
+      </c>
+      <c r="Q137">
+        <v>14.99571696080659</v>
       </c>
     </row>
     <row r="138">
@@ -6296,13 +8774,31 @@
         <v>78.87241348624229</v>
       </c>
       <c r="I138">
+        <v>27.7365415096283</v>
+      </c>
+      <c r="J138">
+        <v>21.072757512331</v>
+      </c>
+      <c r="K138">
+        <v>30.063114464283</v>
+      </c>
+      <c r="L138">
         <v>0.1934674547368421</v>
       </c>
-      <c r="J138">
+      <c r="M138">
         <v>5.519695136842105</v>
       </c>
-      <c r="K138">
+      <c r="N138">
         <v>16.60471862868259</v>
+      </c>
+      <c r="O138">
+        <v>5.839271896763853</v>
+      </c>
+      <c r="P138">
+        <v>4.436370002596</v>
+      </c>
+      <c r="Q138">
+        <v>6.329076729322737</v>
       </c>
     </row>
     <row r="139">
@@ -6339,13 +8835,31 @@
         <v>7831.81152799726</v>
       </c>
       <c r="I139">
+        <v>4922.2468124032</v>
+      </c>
+      <c r="J139">
+        <v>1655.6647990644</v>
+      </c>
+      <c r="K139">
+        <v>1253.89991652966</v>
+      </c>
+      <c r="L139">
         <v>9.779157024757897</v>
       </c>
-      <c r="J139">
+      <c r="M139">
         <v>369.4655494105263</v>
       </c>
-      <c r="K139">
+      <c r="N139">
         <v>1648.802426946792</v>
+      </c>
+      <c r="O139">
+        <v>1036.262486821727</v>
+      </c>
+      <c r="P139">
+        <v>348.5610103293474</v>
+      </c>
+      <c r="Q139">
+        <v>263.9789297957179</v>
       </c>
     </row>
     <row r="140">
@@ -6382,13 +8896,31 @@
         <v>1981.10623559356</v>
       </c>
       <c r="I140">
+        <v>1020.65438354015</v>
+      </c>
+      <c r="J140">
+        <v>451.46543726325</v>
+      </c>
+      <c r="K140">
+        <v>508.986414790154</v>
+      </c>
+      <c r="L140">
         <v>4.515177267873685</v>
       </c>
-      <c r="J140">
+      <c r="M140">
         <v>119.8349333221053</v>
       </c>
-      <c r="K140">
+      <c r="N140">
         <v>417.0749969670653</v>
+      </c>
+      <c r="O140">
+        <v>214.8746070610842</v>
+      </c>
+      <c r="P140">
+        <v>95.04535521331579</v>
+      </c>
+      <c r="Q140">
+        <v>107.155034692664</v>
       </c>
     </row>
     <row r="141">
@@ -6425,13 +8957,31 @@
         <v>226.066040813923</v>
       </c>
       <c r="I141">
+        <v>135.39421415329</v>
+      </c>
+      <c r="J141">
+        <v>58.8000500202179</v>
+      </c>
+      <c r="K141">
+        <v>31.8717766404152</v>
+      </c>
+      <c r="L141">
         <v>0.2420018689894737</v>
       </c>
-      <c r="J141">
+      <c r="M141">
         <v>10.48362891789474</v>
       </c>
-      <c r="K141">
+      <c r="N141">
         <v>47.592850697668</v>
+      </c>
+      <c r="O141">
+        <v>28.50404508490316</v>
+      </c>
+      <c r="P141">
+        <v>12.37895789899324</v>
+      </c>
+      <c r="Q141">
+        <v>6.70984771377162</v>
       </c>
     </row>
     <row r="142">
@@ -6468,13 +9018,31 @@
         <v>4338.79545331001</v>
       </c>
       <c r="I142">
+        <v>2580.53557372093</v>
+      </c>
+      <c r="J142">
+        <v>890.756594568491</v>
+      </c>
+      <c r="K142">
+        <v>867.5032850205901</v>
+      </c>
+      <c r="L142">
         <v>6.012700613178948</v>
       </c>
-      <c r="J142">
+      <c r="M142">
         <v>216.7362267305263</v>
       </c>
-      <c r="K142">
+      <c r="N142">
         <v>913.4306217494758</v>
+      </c>
+      <c r="O142">
+        <v>543.2706470991432</v>
+      </c>
+      <c r="P142">
+        <v>187.5277041196823</v>
+      </c>
+      <c r="Q142">
+        <v>182.6322705306505</v>
       </c>
     </row>
     <row r="143">
@@ -6511,13 +9079,31 @@
         <v>544.922555685043</v>
       </c>
       <c r="I143">
+        <v>391.205990672112</v>
+      </c>
+      <c r="J143">
+        <v>132.018694698811</v>
+      </c>
+      <c r="K143">
+        <v>21.6978703141212</v>
+      </c>
+      <c r="L143">
         <v>0.3668349261052632</v>
       </c>
-      <c r="J143">
+      <c r="M143">
         <v>20.99687471789474</v>
       </c>
-      <c r="K143">
+      <c r="N143">
         <v>114.7205380389564</v>
+      </c>
+      <c r="O143">
+        <v>82.35915593097096</v>
+      </c>
+      <c r="P143">
+        <v>27.793409410276</v>
+      </c>
+      <c r="Q143">
+        <v>4.567972697709727</v>
       </c>
     </row>
     <row r="144">
@@ -6554,13 +9140,31 @@
         <v>700.877563595772</v>
       </c>
       <c r="I144">
+        <v>397.101441502571</v>
+      </c>
+      <c r="J144">
+        <v>145.454497337341</v>
+      </c>
+      <c r="K144">
+        <v>158.321624755859</v>
+      </c>
+      <c r="L144">
         <v>0.9551152477473685</v>
       </c>
-      <c r="J144">
+      <c r="M144">
         <v>35.86897119789474</v>
       </c>
-      <c r="K144">
+      <c r="N144">
         <v>147.5531712833204</v>
+      </c>
+      <c r="O144">
+        <v>83.60030347422548</v>
+      </c>
+      <c r="P144">
+        <v>30.62199943944021</v>
+      </c>
+      <c r="Q144">
+        <v>33.33086836965452</v>
       </c>
     </row>
     <row r="145">
@@ -6597,13 +9201,31 @@
         <v>9015.597810566431</v>
       </c>
       <c r="I145">
+        <v>6020.1529955864</v>
+      </c>
+      <c r="J145">
+        <v>1738.02489024401</v>
+      </c>
+      <c r="K145">
+        <v>1257.41992473602</v>
+      </c>
+      <c r="L145">
         <v>11.66698488044211</v>
       </c>
-      <c r="J145">
+      <c r="M145">
         <v>420.1157397494737</v>
       </c>
-      <c r="K145">
+      <c r="N145">
         <v>1898.020591698196</v>
+      </c>
+      <c r="O145">
+        <v>1267.400630649768</v>
+      </c>
+      <c r="P145">
+        <v>365.8999768934758</v>
+      </c>
+      <c r="Q145">
+        <v>264.7199841549516</v>
       </c>
     </row>
     <row r="146">
@@ -6640,13 +9262,31 @@
         <v>1080.71493831277</v>
       </c>
       <c r="I146">
+        <v>447.922458291054</v>
+      </c>
+      <c r="J146">
+        <v>220.444745749235</v>
+      </c>
+      <c r="K146">
+        <v>412.34773427248</v>
+      </c>
+      <c r="L146">
         <v>3.371608927010526</v>
       </c>
-      <c r="J146">
+      <c r="M146">
         <v>76.48718677684212</v>
       </c>
-      <c r="K146">
+      <c r="N146">
         <v>227.5189343816358</v>
+      </c>
+      <c r="O146">
+        <v>94.29946490337979</v>
+      </c>
+      <c r="P146">
+        <v>46.40942015773369</v>
+      </c>
+      <c r="Q146">
+        <v>86.81004932052211</v>
       </c>
     </row>
     <row r="147">
@@ -6683,13 +9323,31 @@
         <v>128.617435783148</v>
       </c>
       <c r="I147">
+        <v>92.9786460399628</v>
+      </c>
+      <c r="J147">
+        <v>26.8423122167587</v>
+      </c>
+      <c r="K147">
+        <v>8.796477526426321</v>
+      </c>
+      <c r="L147">
         <v>0.09134633208421053</v>
       </c>
-      <c r="J147">
+      <c r="M147">
         <v>5.007097374736842</v>
       </c>
-      <c r="K147">
+      <c r="N147">
         <v>27.07735490171537</v>
+      </c>
+      <c r="O147">
+        <v>19.57445179788691</v>
+      </c>
+      <c r="P147">
+        <v>5.65101309826499</v>
+      </c>
+      <c r="Q147">
+        <v>1.851890005563436</v>
       </c>
     </row>
     <row r="148">
@@ -6726,13 +9384,31 @@
         <v>3058.8034542948</v>
       </c>
       <c r="I148">
+        <v>1439.77281400561</v>
+      </c>
+      <c r="J148">
+        <v>608.155934542418</v>
+      </c>
+      <c r="K148">
+        <v>1010.87470574677</v>
+      </c>
+      <c r="L148">
         <v>8.054866887768421</v>
       </c>
-      <c r="J148">
+      <c r="M148">
         <v>199.2914302294737</v>
       </c>
-      <c r="K148">
+      <c r="N148">
         <v>643.9586219568</v>
+      </c>
+      <c r="O148">
+        <v>303.1100661064442</v>
+      </c>
+      <c r="P148">
+        <v>128.0328283247196</v>
+      </c>
+      <c r="Q148">
+        <v>212.8157275256358</v>
       </c>
     </row>
     <row r="149">
@@ -6769,13 +9445,31 @@
         <v>564.561066895723</v>
       </c>
       <c r="I149">
+        <v>310.063146591187</v>
+      </c>
+      <c r="J149">
+        <v>105.133603870869</v>
+      </c>
+      <c r="K149">
+        <v>149.364316433668</v>
+      </c>
+      <c r="L149">
         <v>1.087193004189474</v>
       </c>
-      <c r="J149">
+      <c r="M149">
         <v>32.34356747789474</v>
       </c>
-      <c r="K149">
+      <c r="N149">
         <v>118.8549614517312</v>
+      </c>
+      <c r="O149">
+        <v>65.2764519139341</v>
+      </c>
+      <c r="P149">
+        <v>22.133390288604</v>
+      </c>
+      <c r="Q149">
+        <v>31.44511924919326</v>
       </c>
     </row>
     <row r="150">
@@ -6812,13 +9506,31 @@
         <v>114.311129271984</v>
       </c>
       <c r="I150">
+        <v>27.2553136348724</v>
+      </c>
+      <c r="J150">
+        <v>49.261070728302</v>
+      </c>
+      <c r="K150">
+        <v>37.7947449088097</v>
+      </c>
+      <c r="L150">
         <v>0.1910472701052632</v>
       </c>
-      <c r="J150">
+      <c r="M150">
         <v>7.032867705263159</v>
       </c>
-      <c r="K150">
+      <c r="N150">
         <v>24.06550089936506</v>
+      </c>
+      <c r="O150">
+        <v>5.737960765236295</v>
+      </c>
+      <c r="P150">
+        <v>10.37075173227411</v>
+      </c>
+      <c r="Q150">
+        <v>7.956788401854674</v>
       </c>
     </row>
     <row r="151">
@@ -6855,13 +9567,31 @@
         <v>805.079485952854</v>
       </c>
       <c r="I151">
+        <v>493.720959067345</v>
+      </c>
+      <c r="J151">
+        <v>206.321194767952</v>
+      </c>
+      <c r="K151">
+        <v>105.037332117558</v>
+      </c>
+      <c r="L151">
         <v>0.8103162659578947</v>
       </c>
-      <c r="J151">
+      <c r="M151">
         <v>36.41842161052632</v>
       </c>
-      <c r="K151">
+      <c r="N151">
         <v>169.4904180953377</v>
+      </c>
+      <c r="O151">
+        <v>103.9412545404937</v>
+      </c>
+      <c r="P151">
+        <v>43.43604100377937</v>
+      </c>
+      <c r="Q151">
+        <v>22.11312255106484</v>
       </c>
     </row>
     <row r="152">
@@ -6898,13 +9628,31 @@
         <v>669.289186269045</v>
       </c>
       <c r="I152">
+        <v>422.381589651108</v>
+      </c>
+      <c r="J152">
+        <v>123.778203517199</v>
+      </c>
+      <c r="K152">
+        <v>123.129393100739</v>
+      </c>
+      <c r="L152">
         <v>1.368182487284211</v>
       </c>
-      <c r="J152">
+      <c r="M152">
         <v>36.41254442105263</v>
       </c>
-      <c r="K152">
+      <c r="N152">
         <v>140.9029865829569</v>
+      </c>
+      <c r="O152">
+        <v>88.92243992654906</v>
+      </c>
+      <c r="P152">
+        <v>26.05856916151558</v>
+      </c>
+      <c r="Q152">
+        <v>25.92197749489242</v>
       </c>
     </row>
     <row r="153">
@@ -6941,13 +9689,31 @@
         <v>333.7053784132</v>
       </c>
       <c r="I153">
+        <v>179.989400267601</v>
+      </c>
+      <c r="J153">
+        <v>70.08085739612579</v>
+      </c>
+      <c r="K153">
+        <v>83.6351207494736</v>
+      </c>
+      <c r="L153">
         <v>0.5116042403368422</v>
       </c>
-      <c r="J153">
+      <c r="M153">
         <v>18.06092515578947</v>
       </c>
-      <c r="K153">
+      <c r="N153">
         <v>70.25376387646317</v>
+      </c>
+      <c r="O153">
+        <v>37.89250531949496</v>
+      </c>
+      <c r="P153">
+        <v>14.75386471497385</v>
+      </c>
+      <c r="Q153">
+        <v>17.60739384199444</v>
       </c>
     </row>
     <row r="154">
@@ -6984,13 +9750,31 @@
         <v>349.208034157753</v>
       </c>
       <c r="I154">
+        <v>184.374312520027</v>
+      </c>
+      <c r="J154">
+        <v>95.5670273303986</v>
+      </c>
+      <c r="K154">
+        <v>69.2666943073273</v>
+      </c>
+      <c r="L154">
         <v>0.4990976784421053</v>
       </c>
-      <c r="J154">
+      <c r="M154">
         <v>18.31129209684211</v>
       </c>
-      <c r="K154">
+      <c r="N154">
         <v>73.51748087531642</v>
+      </c>
+      <c r="O154">
+        <v>38.81564474105831</v>
+      </c>
+      <c r="P154">
+        <v>20.11937417482076</v>
+      </c>
+      <c r="Q154">
+        <v>14.58246195943733</v>
       </c>
     </row>
     <row r="155">
@@ -7027,13 +9811,31 @@
         <v>31.4992333650589</v>
       </c>
       <c r="I155">
+        <v>23.0451130867004</v>
+      </c>
+      <c r="J155">
+        <v>8.01752984523773</v>
+      </c>
+      <c r="K155">
+        <v>0.436590433120728</v>
+      </c>
+      <c r="L155">
         <v>0.01860906294736842</v>
       </c>
-      <c r="J155">
+      <c r="M155">
         <v>1.166282463157895</v>
       </c>
-      <c r="K155">
+      <c r="N155">
         <v>6.631417550538716</v>
+      </c>
+      <c r="O155">
+        <v>4.851602755094821</v>
+      </c>
+      <c r="P155">
+        <v>1.687901020050048</v>
+      </c>
+      <c r="Q155">
+        <v>0.09191377539383748</v>
       </c>
     </row>
     <row r="156">
@@ -7070,13 +9872,31 @@
         <v>54.9551453590393</v>
       </c>
       <c r="I156">
+        <v>35.3490591049194</v>
+      </c>
+      <c r="J156">
+        <v>17.6310803890228</v>
+      </c>
+      <c r="K156">
+        <v>1.97500586509705</v>
+      </c>
+      <c r="L156">
         <v>0.03599263263157895</v>
       </c>
-      <c r="J156">
+      <c r="M156">
         <v>2.123917972631579</v>
       </c>
-      <c r="K156">
+      <c r="N156">
         <v>11.56950428611354</v>
+      </c>
+      <c r="O156">
+        <v>7.441907179983032</v>
+      </c>
+      <c r="P156">
+        <v>3.711806397689011</v>
+      </c>
+      <c r="Q156">
+        <v>0.4157907084414842</v>
       </c>
     </row>
     <row r="157">
@@ -7113,13 +9933,31 @@
         <v>5869.12201994658</v>
       </c>
       <c r="I157">
+        <v>3809.2442907691</v>
+      </c>
+      <c r="J157">
+        <v>1188.47589296103</v>
+      </c>
+      <c r="K157">
+        <v>871.40183621645</v>
+      </c>
+      <c r="L157">
         <v>6.362457568357895</v>
       </c>
-      <c r="J157">
+      <c r="M157">
         <v>264.224737511579</v>
       </c>
-      <c r="K157">
+      <c r="N157">
         <v>1235.604635778227</v>
+      </c>
+      <c r="O157">
+        <v>801.9461664777053</v>
+      </c>
+      <c r="P157">
+        <v>250.2054511496905</v>
+      </c>
+      <c r="Q157">
+        <v>183.4530181508316</v>
       </c>
     </row>
     <row r="158">
@@ -7156,13 +9994,31 @@
         <v>226.816702648997</v>
       </c>
       <c r="I158">
+        <v>108.22834970057</v>
+      </c>
+      <c r="J158">
+        <v>58.53294095397</v>
+      </c>
+      <c r="K158">
+        <v>60.0554119944572</v>
+      </c>
+      <c r="L158">
         <v>0.3114759972631579</v>
       </c>
-      <c r="J158">
+      <c r="M158">
         <v>11.95657789263158</v>
       </c>
-      <c r="K158">
+      <c r="N158">
         <v>47.7508847682099</v>
+      </c>
+      <c r="O158">
+        <v>22.78491572643579</v>
+      </c>
+      <c r="P158">
+        <v>12.3227244113621</v>
+      </c>
+      <c r="Q158">
+        <v>12.64324463041204</v>
       </c>
     </row>
     <row r="159">
@@ -7199,13 +10055,31 @@
         <v>449.869393676519</v>
       </c>
       <c r="I159">
+        <v>227.852464318275</v>
+      </c>
+      <c r="J159">
+        <v>130.007325917482</v>
+      </c>
+      <c r="K159">
+        <v>92.0096034407616</v>
+      </c>
+      <c r="L159">
         <v>0.5500514134526316</v>
       </c>
-      <c r="J159">
+      <c r="M159">
         <v>22.27900274947369</v>
       </c>
-      <c r="K159">
+      <c r="N159">
         <v>94.70934603716189</v>
+      </c>
+      <c r="O159">
+        <v>47.96893985647895</v>
+      </c>
+      <c r="P159">
+        <v>27.36996335104884</v>
+      </c>
+      <c r="Q159">
+        <v>19.37044282963402</v>
       </c>
     </row>
     <row r="160">
@@ -7242,13 +10116,31 @@
         <v>2133.30929610133</v>
       </c>
       <c r="I160">
+        <v>1422.82237696648</v>
+      </c>
+      <c r="J160">
+        <v>405.154304236174</v>
+      </c>
+      <c r="K160">
+        <v>305.332614898682</v>
+      </c>
+      <c r="L160">
         <v>2.186391443621053</v>
       </c>
-      <c r="J160">
+      <c r="M160">
         <v>94.55139306736842</v>
       </c>
-      <c r="K160">
+      <c r="N160">
         <v>449.1177465476484</v>
+      </c>
+      <c r="O160">
+        <v>299.5415530455747</v>
+      </c>
+      <c r="P160">
+        <v>85.29564299708927</v>
+      </c>
+      <c r="Q160">
+        <v>64.28055050498568</v>
       </c>
     </row>
     <row r="161">
@@ -7285,13 +10177,31 @@
         <v>362.984613895416</v>
       </c>
       <c r="I161">
+        <v>211.076905548573</v>
+      </c>
+      <c r="J161">
+        <v>89.4855387210846</v>
+      </c>
+      <c r="K161">
+        <v>62.4221696257591</v>
+      </c>
+      <c r="L161">
         <v>0.4597865123368422</v>
       </c>
-      <c r="J161">
+      <c r="M161">
         <v>17.65334833473684</v>
       </c>
-      <c r="K161">
+      <c r="N161">
         <v>76.41781345166653</v>
+      </c>
+      <c r="O161">
+        <v>44.43724327338379</v>
+      </c>
+      <c r="P161">
+        <v>18.83906078338623</v>
+      </c>
+      <c r="Q161">
+        <v>13.14150939489666</v>
       </c>
     </row>
     <row r="162">
@@ -7328,13 +10238,31 @@
         <v>47.5140070915222</v>
       </c>
       <c r="I162">
+        <v>22.0163478851318</v>
+      </c>
+      <c r="J162">
+        <v>20.652349114418</v>
+      </c>
+      <c r="K162">
+        <v>4.84531009197235</v>
+      </c>
+      <c r="L162">
         <v>0.04297728456842105</v>
       </c>
-      <c r="J162">
+      <c r="M162">
         <v>2.156263936842106</v>
       </c>
-      <c r="K162">
+      <c r="N162">
         <v>10.0029488613731</v>
+      </c>
+      <c r="O162">
+        <v>4.635020607396169</v>
+      </c>
+      <c r="P162">
+        <v>4.347862971456421</v>
+      </c>
+      <c r="Q162">
+        <v>1.020065282520495</v>
       </c>
     </row>
     <row r="163">
@@ -7371,13 +10299,31 @@
         <v>2801.49446052313</v>
       </c>
       <c r="I163">
+        <v>1740.68095982075</v>
+      </c>
+      <c r="J163">
+        <v>427.304130256176</v>
+      </c>
+      <c r="K163">
+        <v>633.509370446205</v>
+      </c>
+      <c r="L163">
         <v>5.635822244968421</v>
       </c>
-      <c r="J163">
+      <c r="M163">
         <v>156.6369828315789</v>
       </c>
-      <c r="K163">
+      <c r="N163">
         <v>589.7883074785538</v>
+      </c>
+      <c r="O163">
+        <v>366.4591494359474</v>
+      </c>
+      <c r="P163">
+        <v>89.95876426445811</v>
+      </c>
+      <c r="Q163">
+        <v>133.3703937781484</v>
       </c>
     </row>
     <row r="164">
@@ -7414,13 +10360,31 @@
         <v>715.631818622351</v>
       </c>
       <c r="I164">
+        <v>432.021230876446</v>
+      </c>
+      <c r="J164">
+        <v>132.510759681463</v>
+      </c>
+      <c r="K164">
+        <v>151.099828064442</v>
+      </c>
+      <c r="L164">
         <v>0.8919313626736842</v>
       </c>
-      <c r="J164">
+      <c r="M164">
         <v>34.81359142610526</v>
       </c>
-      <c r="K164">
+      <c r="N164">
         <v>150.6593302362844</v>
+      </c>
+      <c r="O164">
+        <v>90.9518380792518</v>
+      </c>
+      <c r="P164">
+        <v>27.89700203820274</v>
+      </c>
+      <c r="Q164">
+        <v>31.81049011882989</v>
       </c>
     </row>
     <row r="165">
@@ -7457,13 +10421,31 @@
         <v>2019.24645806849</v>
       </c>
       <c r="I165">
+        <v>1423.97640967369</v>
+      </c>
+      <c r="J165">
+        <v>331.722717523575</v>
+      </c>
+      <c r="K165">
+        <v>263.547330871224</v>
+      </c>
+      <c r="L165">
         <v>1.840743398147368</v>
       </c>
-      <c r="J165">
+      <c r="M165">
         <v>84.60498948421052</v>
       </c>
-      <c r="K165">
+      <c r="N165">
         <v>425.1045174881032</v>
+      </c>
+      <c r="O165">
+        <v>299.7845072997242</v>
+      </c>
+      <c r="P165">
+        <v>69.83636158391053</v>
+      </c>
+      <c r="Q165">
+        <v>55.48364860446822</v>
       </c>
     </row>
     <row r="166">
@@ -7500,13 +10482,31 @@
         <v>9614.23182541132</v>
       </c>
       <c r="I166">
+        <v>5651.88370466232</v>
+      </c>
+      <c r="J166">
+        <v>1999.87737238407</v>
+      </c>
+      <c r="K166">
+        <v>1962.47074836493</v>
+      </c>
+      <c r="L166">
         <v>15.21849964317895</v>
       </c>
-      <c r="J166">
+      <c r="M166">
         <v>495.2877115052632</v>
       </c>
-      <c r="K166">
+      <c r="N166">
         <v>2024.048805349752</v>
+      </c>
+      <c r="O166">
+        <v>1189.87025361312</v>
+      </c>
+      <c r="P166">
+        <v>421.0268152387516</v>
+      </c>
+      <c r="Q166">
+        <v>413.15173649788</v>
       </c>
     </row>
     <row r="167">
@@ -7543,13 +10543,31 @@
         <v>1200.76102995872</v>
       </c>
       <c r="I167">
+        <v>486.430132508278</v>
+      </c>
+      <c r="J167">
+        <v>195.738705813885</v>
+      </c>
+      <c r="K167">
+        <v>518.592191636562</v>
+      </c>
+      <c r="L167">
         <v>7.305295821684211</v>
       </c>
-      <c r="J167">
+      <c r="M167">
         <v>112.1089814821053</v>
       </c>
-      <c r="K167">
+      <c r="N167">
         <v>252.7917957807832</v>
+      </c>
+      <c r="O167">
+        <v>102.4063436859533</v>
+      </c>
+      <c r="P167">
+        <v>41.20814859239684</v>
+      </c>
+      <c r="Q167">
+        <v>109.1773035024341</v>
       </c>
     </row>
     <row r="168">
@@ -7586,13 +10604,31 @@
         <v>293.601321682334</v>
       </c>
       <c r="I168">
+        <v>107.211631923914</v>
+      </c>
+      <c r="J168">
+        <v>86.5858221054077</v>
+      </c>
+      <c r="K168">
+        <v>99.8038676530123</v>
+      </c>
+      <c r="L168">
         <v>0.4448444065473685</v>
       </c>
-      <c r="J168">
+      <c r="M168">
         <v>16.732693</v>
       </c>
-      <c r="K168">
+      <c r="N168">
         <v>61.8108045647019</v>
+      </c>
+      <c r="O168">
+        <v>22.57086987871874</v>
+      </c>
+      <c r="P168">
+        <v>18.22859412745425</v>
+      </c>
+      <c r="Q168">
+        <v>21.01134055852891</v>
       </c>
     </row>
     <row r="169">
@@ -7629,13 +10665,31 @@
         <v>3386.41005042195</v>
       </c>
       <c r="I169">
+        <v>2161.96442914009</v>
+      </c>
+      <c r="J169">
+        <v>651.487098038197</v>
+      </c>
+      <c r="K169">
+        <v>572.958523243666</v>
+      </c>
+      <c r="L169">
         <v>4.25223033471579</v>
       </c>
-      <c r="J169">
+      <c r="M169">
         <v>160.2474256484211</v>
       </c>
-      <c r="K169">
+      <c r="N169">
         <v>712.9284316677789</v>
+      </c>
+      <c r="O169">
+        <v>455.1504061347558</v>
+      </c>
+      <c r="P169">
+        <v>137.1551785343573</v>
+      </c>
+      <c r="Q169">
+        <v>120.6228469986666</v>
       </c>
     </row>
     <row r="170">
@@ -7672,13 +10726,31 @@
         <v>1300.19590942562</v>
       </c>
       <c r="I170">
+        <v>525.971540331841</v>
+      </c>
+      <c r="J170">
+        <v>276.614926323295</v>
+      </c>
+      <c r="K170">
+        <v>497.609442770481</v>
+      </c>
+      <c r="L170">
         <v>4.497150436526316</v>
       </c>
-      <c r="J170">
+      <c r="M170">
         <v>96.3106534568421</v>
       </c>
-      <c r="K170">
+      <c r="N170">
         <v>273.72545461592</v>
+      </c>
+      <c r="O170">
+        <v>110.7308505961771</v>
+      </c>
+      <c r="P170">
+        <v>58.23472133122</v>
+      </c>
+      <c r="Q170">
+        <v>104.7598826885223</v>
       </c>
     </row>
     <row r="171">
@@ -7715,13 +10787,31 @@
         <v>2320.48902072012</v>
       </c>
       <c r="I171">
+        <v>1232.55418133736</v>
+      </c>
+      <c r="J171">
+        <v>468.226641103625</v>
+      </c>
+      <c r="K171">
+        <v>619.708198279142</v>
+      </c>
+      <c r="L171">
         <v>4.629456356526316</v>
       </c>
-      <c r="J171">
+      <c r="M171">
         <v>135.3638691957895</v>
       </c>
-      <c r="K171">
+      <c r="N171">
         <v>488.5240043621306</v>
+      </c>
+      <c r="O171">
+        <v>259.4850908078653</v>
+      </c>
+      <c r="P171">
+        <v>98.57402970602632</v>
+      </c>
+      <c r="Q171">
+        <v>130.4648838482405</v>
       </c>
     </row>
     <row r="172">
@@ -7758,13 +10848,31 @@
         <v>4416.69379192591</v>
       </c>
       <c r="I172">
+        <v>2606.14150077105</v>
+      </c>
+      <c r="J172">
+        <v>834.892746269703</v>
+      </c>
+      <c r="K172">
+        <v>975.659544885159</v>
+      </c>
+      <c r="L172">
         <v>6.734501662905263</v>
       </c>
-      <c r="J172">
+      <c r="M172">
         <v>227.6476469305263</v>
       </c>
-      <c r="K172">
+      <c r="N172">
         <v>929.8302719844022</v>
+      </c>
+      <c r="O172">
+        <v>548.6613685833789</v>
+      </c>
+      <c r="P172">
+        <v>175.7668939515164</v>
+      </c>
+      <c r="Q172">
+        <v>205.4020094495072</v>
       </c>
     </row>
     <row r="173">
@@ -7801,13 +10909,31 @@
         <v>1415.55006696284</v>
       </c>
       <c r="I173">
+        <v>607.3038496375081</v>
+      </c>
+      <c r="J173">
+        <v>285.998472377658</v>
+      </c>
+      <c r="K173">
+        <v>522.247744947672</v>
+      </c>
+      <c r="L173">
         <v>6.316218577621052</v>
       </c>
-      <c r="J173">
+      <c r="M173">
         <v>113.41102804</v>
       </c>
-      <c r="K173">
+      <c r="N173">
         <v>298.0105404132295</v>
+      </c>
+      <c r="O173">
+        <v>127.8534420289491</v>
+      </c>
+      <c r="P173">
+        <v>60.2102047110859</v>
+      </c>
+      <c r="Q173">
+        <v>109.9468936731941</v>
       </c>
     </row>
     <row r="174">
@@ -7844,13 +10970,31 @@
         <v>176.22240075469</v>
       </c>
       <c r="I174">
+        <v>81.215145856142</v>
+      </c>
+      <c r="J174">
+        <v>49.5373698472977</v>
+      </c>
+      <c r="K174">
+        <v>45.4698850512505</v>
+      </c>
+      <c r="L174">
         <v>0.2673665319578948</v>
       </c>
-      <c r="J174">
+      <c r="M174">
         <v>9.61158472</v>
       </c>
-      <c r="K174">
+      <c r="N174">
         <v>37.09945279046106</v>
+      </c>
+      <c r="O174">
+        <v>17.09792544339832</v>
+      </c>
+      <c r="P174">
+        <v>10.42891996785215</v>
+      </c>
+      <c r="Q174">
+        <v>9.572607379210632</v>
       </c>
     </row>
     <row r="175">
@@ -7887,13 +11031,31 @@
         <v>3321.3036441803</v>
       </c>
       <c r="I175">
+        <v>1883.30537724495</v>
+      </c>
+      <c r="J175">
+        <v>671.187139153481</v>
+      </c>
+      <c r="K175">
+        <v>766.811127781868</v>
+      </c>
+      <c r="L175">
         <v>4.83055545351579</v>
       </c>
-      <c r="J175">
+      <c r="M175">
         <v>171.0869113473684</v>
       </c>
-      <c r="K175">
+      <c r="N175">
         <v>699.2218198274317</v>
+      </c>
+      <c r="O175">
+        <v>396.4853425778842</v>
+      </c>
+      <c r="P175">
+        <v>141.3025556112592</v>
+      </c>
+      <c r="Q175">
+        <v>161.433921638288</v>
       </c>
     </row>
     <row r="176">
@@ -7930,13 +11092,31 @@
         <v>2034.07704633474</v>
       </c>
       <c r="I176">
+        <v>1022.66491299868</v>
+      </c>
+      <c r="J176">
+        <v>369.285126000643</v>
+      </c>
+      <c r="K176">
+        <v>642.127007335424</v>
+      </c>
+      <c r="L176">
         <v>4.282365695052632</v>
       </c>
-      <c r="J176">
+      <c r="M176">
         <v>123.106138991579</v>
       </c>
-      <c r="K176">
+      <c r="N176">
         <v>428.2267465967874</v>
+      </c>
+      <c r="O176">
+        <v>215.2978764207748</v>
+      </c>
+      <c r="P176">
+        <v>77.74423705276695</v>
+      </c>
+      <c r="Q176">
+        <v>135.1846331232472</v>
       </c>
     </row>
     <row r="177">
@@ -7973,13 +11153,31 @@
         <v>300.886443167925</v>
       </c>
       <c r="I177">
+        <v>126.425726413727</v>
+      </c>
+      <c r="J177">
+        <v>64.5330465734005</v>
+      </c>
+      <c r="K177">
+        <v>109.927670180798</v>
+      </c>
+      <c r="L177">
         <v>0.5280339938947368</v>
       </c>
-      <c r="J177">
+      <c r="M177">
         <v>17.94927108842105</v>
       </c>
-      <c r="K177">
+      <c r="N177">
         <v>63.34451435114211</v>
+      </c>
+      <c r="O177">
+        <v>26.6159424028899</v>
+      </c>
+      <c r="P177">
+        <v>13.58590454176853</v>
+      </c>
+      <c r="Q177">
+        <v>23.14266740648379</v>
       </c>
     </row>
     <row r="178">
@@ -8016,13 +11214,31 @@
         <v>2118.58455139399</v>
       </c>
       <c r="I178">
+        <v>1303.6184772253</v>
+      </c>
+      <c r="J178">
+        <v>477.761576473713</v>
+      </c>
+      <c r="K178">
+        <v>337.204497694969</v>
+      </c>
+      <c r="L178">
         <v>2.582701276505263</v>
       </c>
-      <c r="J178">
+      <c r="M178">
         <v>100.6283677136842</v>
       </c>
-      <c r="K178">
+      <c r="N178">
         <v>446.0178002934716</v>
+      </c>
+      <c r="O178">
+        <v>274.4459952053263</v>
+      </c>
+      <c r="P178">
+        <v>100.5813845207817</v>
+      </c>
+      <c r="Q178">
+        <v>70.99042056736191</v>
       </c>
     </row>
     <row r="179">
@@ -8059,13 +11275,31 @@
         <v>47.7243491411209</v>
       </c>
       <c r="I179">
+        <v>17.8831996917725</v>
+      </c>
+      <c r="J179">
+        <v>10.9648624062538</v>
+      </c>
+      <c r="K179">
+        <v>18.8762870430946</v>
+      </c>
+      <c r="L179">
         <v>0.07381483600000001</v>
       </c>
-      <c r="J179">
+      <c r="M179">
         <v>2.755644989473685</v>
       </c>
-      <c r="K179">
+      <c r="N179">
         <v>10.04723139813072</v>
+      </c>
+      <c r="O179">
+        <v>3.764884145636316</v>
+      </c>
+      <c r="P179">
+        <v>2.308392085527116</v>
+      </c>
+      <c r="Q179">
+        <v>3.973955166967284</v>
       </c>
     </row>
     <row r="180">
@@ -8102,13 +11336,31 @@
         <v>47.3110512495041</v>
       </c>
       <c r="I180">
+        <v>41.1408630609512</v>
+      </c>
+      <c r="J180">
+        <v>5.14182341098785</v>
+      </c>
+      <c r="K180">
+        <v>1.028364777565</v>
+      </c>
+      <c r="L180">
         <v>0.02128991452631579</v>
       </c>
-      <c r="J180">
+      <c r="M180">
         <v>1.535680273684211</v>
       </c>
-      <c r="K180">
+      <c r="N180">
         <v>9.960221315685073</v>
+      </c>
+      <c r="O180">
+        <v>8.661234328621305</v>
+      </c>
+      <c r="P180">
+        <v>1.082489139155337</v>
+      </c>
+      <c r="Q180">
+        <v>0.2164978479084211</v>
       </c>
     </row>
     <row r="181">
@@ -8145,13 +11397,31 @@
         <v>6293.03443828225</v>
       </c>
       <c r="I181">
+        <v>3847.1060423851</v>
+      </c>
+      <c r="J181">
+        <v>1246.66833037138</v>
+      </c>
+      <c r="K181">
+        <v>1199.26006552577</v>
+      </c>
+      <c r="L181">
         <v>8.358510226021053</v>
       </c>
-      <c r="J181">
+      <c r="M181">
         <v>307.1314412505263</v>
       </c>
-      <c r="K181">
+      <c r="N181">
         <v>1324.849355427842</v>
+      </c>
+      <c r="O181">
+        <v>809.9170615547579</v>
+      </c>
+      <c r="P181">
+        <v>262.4564906045011</v>
+      </c>
+      <c r="Q181">
+        <v>252.4758032685832</v>
       </c>
     </row>
     <row r="182">
@@ -8188,13 +11458,31 @@
         <v>4601.11343318224</v>
       </c>
       <c r="I182">
+        <v>2655.08359862864</v>
+      </c>
+      <c r="J182">
+        <v>1012.47389501333</v>
+      </c>
+      <c r="K182">
+        <v>933.555939540267</v>
+      </c>
+      <c r="L182">
         <v>6.981959403557895</v>
       </c>
-      <c r="J182">
+      <c r="M182">
         <v>237.1632167578948</v>
       </c>
-      <c r="K182">
+      <c r="N182">
         <v>968.6554596173138</v>
+      </c>
+      <c r="O182">
+        <v>558.9649681323454</v>
+      </c>
+      <c r="P182">
+        <v>213.1523989501748</v>
+      </c>
+      <c r="Q182">
+        <v>196.5380925347931</v>
       </c>
     </row>
     <row r="183">
@@ -8231,13 +11519,31 @@
         <v>193.482412517071</v>
       </c>
       <c r="I183">
+        <v>143.053257703781</v>
+      </c>
+      <c r="J183">
+        <v>45.040778875351</v>
+      </c>
+      <c r="K183">
+        <v>5.38837593793869</v>
+      </c>
+      <c r="L183">
         <v>0.1103377031578947</v>
       </c>
-      <c r="J183">
+      <c r="M183">
         <v>6.967121058947369</v>
       </c>
-      <c r="K183">
+      <c r="N183">
         <v>40.73313947727811</v>
+      </c>
+      <c r="O183">
+        <v>30.11647530605916</v>
+      </c>
+      <c r="P183">
+        <v>9.482269236916</v>
+      </c>
+      <c r="Q183">
+        <v>1.134394934302882</v>
       </c>
     </row>
     <row r="184">
@@ -8274,13 +11580,31 @@
         <v>4572.97599062324</v>
       </c>
       <c r="I184">
+        <v>2305.4746221602</v>
+      </c>
+      <c r="J184">
+        <v>1170.41911579669</v>
+      </c>
+      <c r="K184">
+        <v>1097.08225266635</v>
+      </c>
+      <c r="L184">
         <v>7.512992692126316</v>
       </c>
-      <c r="J184">
+      <c r="M184">
         <v>250.7877848610526</v>
       </c>
-      <c r="K184">
+      <c r="N184">
         <v>962.7317874996296</v>
+      </c>
+      <c r="O184">
+        <v>485.3630783495158</v>
+      </c>
+      <c r="P184">
+        <v>246.4040243782505</v>
+      </c>
+      <c r="Q184">
+        <v>230.9646847718632</v>
       </c>
     </row>
     <row r="185">
@@ -8317,13 +11641,31 @@
         <v>581.875418007374</v>
       </c>
       <c r="I185">
+        <v>247.660265922546</v>
+      </c>
+      <c r="J185">
+        <v>87.2769274413586</v>
+      </c>
+      <c r="K185">
+        <v>246.938224643469</v>
+      </c>
+      <c r="L185">
         <v>1.817062696105263</v>
       </c>
-      <c r="J185">
+      <c r="M185">
         <v>43.21649839578948</v>
       </c>
-      <c r="K185">
+      <c r="N185">
         <v>122.5000880015524</v>
+      </c>
+      <c r="O185">
+        <v>52.13900335211495</v>
+      </c>
+      <c r="P185">
+        <v>18.37408998765444</v>
+      </c>
+      <c r="Q185">
+        <v>51.98699466178295</v>
       </c>
     </row>
     <row r="186">
@@ -8360,13 +11702,31 @@
         <v>172.499442115426</v>
       </c>
       <c r="I186">
+        <v>54.5602194368839</v>
+      </c>
+      <c r="J186">
+        <v>77.2322029620409</v>
+      </c>
+      <c r="K186">
+        <v>40.7070197165012</v>
+      </c>
+      <c r="L186">
         <v>0.2483402953894737</v>
       </c>
-      <c r="J186">
+      <c r="M186">
         <v>9.571003058947369</v>
       </c>
-      <c r="K186">
+      <c r="N186">
         <v>36.31567202430021</v>
+      </c>
+      <c r="O186">
+        <v>11.4863619867124</v>
+      </c>
+      <c r="P186">
+        <v>16.25941114990335</v>
+      </c>
+      <c r="Q186">
+        <v>8.569898887684463</v>
       </c>
     </row>
     <row r="187">
@@ -8403,13 +11763,31 @@
         <v>2220.37776768208</v>
       </c>
       <c r="I187">
+        <v>1227.66026711464</v>
+      </c>
+      <c r="J187">
+        <v>433.485681921244</v>
+      </c>
+      <c r="K187">
+        <v>559.231818646193</v>
+      </c>
+      <c r="L187">
         <v>3.45627115423158</v>
       </c>
-      <c r="J187">
+      <c r="M187">
         <v>118.869113231579</v>
       </c>
-      <c r="K187">
+      <c r="N187">
         <v>467.4479510909642</v>
+      </c>
+      <c r="O187">
+        <v>258.4547930767663</v>
+      </c>
+      <c r="P187">
+        <v>91.26014356236718</v>
+      </c>
+      <c r="Q187">
+        <v>117.7330144518301</v>
       </c>
     </row>
     <row r="188">
@@ -8446,13 +11824,31 @@
         <v>567.576842725277</v>
       </c>
       <c r="I188">
+        <v>351.61568570137</v>
+      </c>
+      <c r="J188">
+        <v>98.7776172161102</v>
+      </c>
+      <c r="K188">
+        <v>117.183539807796</v>
+      </c>
+      <c r="L188">
         <v>0.8508541284210526</v>
       </c>
-      <c r="J188">
+      <c r="M188">
         <v>28.89858429052632</v>
       </c>
-      <c r="K188">
+      <c r="N188">
         <v>119.4898616263741</v>
+      </c>
+      <c r="O188">
+        <v>74.02435488449895</v>
+      </c>
+      <c r="P188">
+        <v>20.79528783497057</v>
+      </c>
+      <c r="Q188">
+        <v>24.67021890690442</v>
       </c>
     </row>
     <row r="189">
@@ -8489,13 +11885,31 @@
         <v>58.0941770076752</v>
       </c>
       <c r="I189">
+        <v>36.5666016340256</v>
+      </c>
+      <c r="J189">
+        <v>11.7952926158905</v>
+      </c>
+      <c r="K189">
+        <v>9.732282757759091</v>
+      </c>
+      <c r="L189">
         <v>0.07438301452631579</v>
       </c>
-      <c r="J189">
+      <c r="M189">
         <v>2.80358608631579</v>
       </c>
-      <c r="K189">
+      <c r="N189">
         <v>12.23035305424741</v>
+      </c>
+      <c r="O189">
+        <v>7.698231922952759</v>
+      </c>
+      <c r="P189">
+        <v>2.483219498082211</v>
+      </c>
+      <c r="Q189">
+        <v>2.04890163321244</v>
       </c>
     </row>
     <row r="190">
@@ -8532,13 +11946,31 @@
         <v>4536.48876586556</v>
       </c>
       <c r="I190">
+        <v>2639.95573461056</v>
+      </c>
+      <c r="J190">
+        <v>976.827312767506</v>
+      </c>
+      <c r="K190">
+        <v>919.705718487501</v>
+      </c>
+      <c r="L190">
         <v>6.888820636273685</v>
       </c>
-      <c r="J190">
+      <c r="M190">
         <v>232.4248245052632</v>
       </c>
-      <c r="K190">
+      <c r="N190">
         <v>955.0502664980126</v>
+      </c>
+      <c r="O190">
+        <v>555.7801546548548</v>
+      </c>
+      <c r="P190">
+        <v>205.647855319475</v>
+      </c>
+      <c r="Q190">
+        <v>193.6222565236844</v>
       </c>
     </row>
     <row r="191">
@@ -8575,13 +12007,31 @@
         <v>487.967858940363</v>
       </c>
       <c r="I191">
+        <v>250.352751612663</v>
+      </c>
+      <c r="J191">
+        <v>102.248915910721</v>
+      </c>
+      <c r="K191">
+        <v>135.366191416979</v>
+      </c>
+      <c r="L191">
         <v>0.8953824352421054</v>
       </c>
-      <c r="J191">
+      <c r="M191">
         <v>28.04237188842106</v>
       </c>
-      <c r="K191">
+      <c r="N191">
         <v>102.7300755663922</v>
+      </c>
+      <c r="O191">
+        <v>52.70584244477116</v>
+      </c>
+      <c r="P191">
+        <v>21.52608756015179</v>
+      </c>
+      <c r="Q191">
+        <v>28.49814556146927</v>
       </c>
     </row>
     <row r="192">
@@ -8618,13 +12068,31 @@
         <v>36.315378844738</v>
       </c>
       <c r="I192">
+        <v>8.339580893516541</v>
+      </c>
+      <c r="J192">
+        <v>1.03783786296844</v>
+      </c>
+      <c r="K192">
+        <v>26.937960088253</v>
+      </c>
+      <c r="L192">
         <v>0.3818376341052632</v>
       </c>
-      <c r="J192">
+      <c r="M192">
         <v>5.393373094736843</v>
       </c>
-      <c r="K192">
+      <c r="N192">
         <v>7.645342914681685</v>
+      </c>
+      <c r="O192">
+        <v>1.755701240740324</v>
+      </c>
+      <c r="P192">
+        <v>0.2184921816775663</v>
+      </c>
+      <c r="Q192">
+        <v>5.67114949226379</v>
       </c>
     </row>
     <row r="193">
@@ -8661,13 +12129,31 @@
         <v>9885.91155800223</v>
       </c>
       <c r="I193">
+        <v>4415.21646237373</v>
+      </c>
+      <c r="J193">
+        <v>2509.54857493937</v>
+      </c>
+      <c r="K193">
+        <v>2961.14652068913</v>
+      </c>
+      <c r="L193">
         <v>19.57820844452632</v>
       </c>
-      <c r="J193">
+      <c r="M193">
         <v>592.4816143768422</v>
       </c>
-      <c r="K193">
+      <c r="N193">
         <v>2081.244538526785</v>
+      </c>
+      <c r="O193">
+        <v>929.5192552365747</v>
+      </c>
+      <c r="P193">
+        <v>528.3260157767096</v>
+      </c>
+      <c r="Q193">
+        <v>623.3992675135009</v>
       </c>
     </row>
     <row r="194">
@@ -8704,13 +12190,31 @@
         <v>34.4723553061485</v>
       </c>
       <c r="I194">
+        <v>22.8543354272842</v>
+      </c>
+      <c r="J194">
+        <v>11.3159066438675</v>
+      </c>
+      <c r="K194">
+        <v>0.302113234996796</v>
+      </c>
+      <c r="L194">
         <v>0.02138089256842105</v>
       </c>
-      <c r="J194">
+      <c r="M194">
         <v>1.310957747368421</v>
       </c>
-      <c r="K194">
+      <c r="N194">
         <v>7.257337959189158</v>
+      </c>
+      <c r="O194">
+        <v>4.81143903732299</v>
+      </c>
+      <c r="P194">
+        <v>2.382296135551053</v>
+      </c>
+      <c r="Q194">
+        <v>0.06360278631511494</v>
       </c>
     </row>
     <row r="195">
@@ -8747,13 +12251,31 @@
         <v>310.300355136395</v>
       </c>
       <c r="I195">
+        <v>111.807598233223</v>
+      </c>
+      <c r="J195">
+        <v>88.0018363595009</v>
+      </c>
+      <c r="K195">
+        <v>110.490920543671</v>
+      </c>
+      <c r="L195">
         <v>1.2700267544</v>
       </c>
-      <c r="J195">
+      <c r="M195">
         <v>24.31708882315789</v>
       </c>
-      <c r="K195">
+      <c r="N195">
         <v>65.32639055503053</v>
+      </c>
+      <c r="O195">
+        <v>23.53844173331011</v>
+      </c>
+      <c r="P195">
+        <v>18.52670239147387</v>
+      </c>
+      <c r="Q195">
+        <v>23.26124643024653</v>
       </c>
     </row>
     <row r="196">
@@ -8790,13 +12312,31 @@
         <v>1312.68862521648</v>
       </c>
       <c r="I196">
+        <v>646.026407599449</v>
+      </c>
+      <c r="J196">
+        <v>296.329212367535</v>
+      </c>
+      <c r="K196">
+        <v>370.3330052495</v>
+      </c>
+      <c r="L196">
         <v>2.024282182863158</v>
       </c>
-      <c r="J196">
+      <c r="M196">
         <v>71.48638407578947</v>
       </c>
-      <c r="K196">
+      <c r="N196">
         <v>276.3555000455747</v>
+      </c>
+      <c r="O196">
+        <v>136.0055594946209</v>
+      </c>
+      <c r="P196">
+        <v>62.38509734053368</v>
+      </c>
+      <c r="Q196">
+        <v>77.96484321042105</v>
       </c>
     </row>
     <row r="197">
@@ -8833,13 +12373,31 @@
         <v>53.8835606575012</v>
       </c>
       <c r="I197">
+        <v>30.102209687233</v>
+      </c>
+      <c r="J197">
+        <v>11.2035369873047</v>
+      </c>
+      <c r="K197">
+        <v>12.5778139829636</v>
+      </c>
+      <c r="L197">
         <v>0.06294947842105264</v>
       </c>
-      <c r="J197">
+      <c r="M197">
         <v>2.625013536842106</v>
       </c>
-      <c r="K197">
+      <c r="N197">
         <v>11.34390750684236</v>
+      </c>
+      <c r="O197">
+        <v>6.337307302575369</v>
+      </c>
+      <c r="P197">
+        <v>2.358639365748358</v>
+      </c>
+      <c r="Q197">
+        <v>2.647960838518653</v>
       </c>
     </row>
     <row r="198">
@@ -8876,13 +12434,31 @@
         <v>186.153921172023</v>
       </c>
       <c r="I198">
+        <v>114.852088287473</v>
+      </c>
+      <c r="J198">
+        <v>48.2744827568531</v>
+      </c>
+      <c r="K198">
+        <v>23.027350127697</v>
+      </c>
+      <c r="L198">
         <v>0.1930975356210526</v>
       </c>
-      <c r="J198">
+      <c r="M198">
         <v>8.457543903157895</v>
       </c>
-      <c r="K198">
+      <c r="N198">
         <v>39.1902991941101</v>
+      </c>
+      <c r="O198">
+        <v>24.17938700788906</v>
+      </c>
+      <c r="P198">
+        <v>10.16304900144276</v>
+      </c>
+      <c r="Q198">
+        <v>4.847863184778317</v>
       </c>
     </row>
     <row r="199">
@@ -8919,13 +12495,31 @@
         <v>1176.38146162033</v>
       </c>
       <c r="I199">
+        <v>753.460896968842</v>
+      </c>
+      <c r="J199">
+        <v>199.995842546225</v>
+      </c>
+      <c r="K199">
+        <v>222.924722105265</v>
+      </c>
+      <c r="L199">
         <v>1.920136038252632</v>
       </c>
-      <c r="J199">
+      <c r="M199">
         <v>59.88243428000001</v>
       </c>
-      <c r="K199">
+      <c r="N199">
         <v>247.6592550779642</v>
+      </c>
+      <c r="O199">
+        <v>158.6233467302826</v>
+      </c>
+      <c r="P199">
+        <v>42.10438790446842</v>
+      </c>
+      <c r="Q199">
+        <v>46.93152044321369</v>
       </c>
     </row>
     <row r="200">
@@ -8962,13 +12556,31 @@
         <v>538.031349360943</v>
       </c>
       <c r="I200">
+        <v>281.648500442505</v>
+      </c>
+      <c r="J200">
+        <v>126.316397875547</v>
+      </c>
+      <c r="K200">
+        <v>130.066451042891</v>
+      </c>
+      <c r="L200">
         <v>0.7509290957894738</v>
       </c>
-      <c r="J200">
+      <c r="M200">
         <v>27.81467199578947</v>
       </c>
-      <c r="K200">
+      <c r="N200">
         <v>113.2697577601985</v>
+      </c>
+      <c r="O200">
+        <v>59.29442114579053</v>
+      </c>
+      <c r="P200">
+        <v>26.59292586853621</v>
+      </c>
+      <c r="Q200">
+        <v>27.38241074587179</v>
       </c>
     </row>
     <row r="201">
@@ -9005,13 +12617,31 @@
         <v>215.525413125753</v>
       </c>
       <c r="I201">
+        <v>126.140715688467</v>
+      </c>
+      <c r="J201">
+        <v>65.3115301132202</v>
+      </c>
+      <c r="K201">
+        <v>24.0731673240662</v>
+      </c>
+      <c r="L201">
         <v>0.185303556</v>
       </c>
-      <c r="J201">
+      <c r="M201">
         <v>9.358845315789473</v>
       </c>
-      <c r="K201">
+      <c r="N201">
         <v>45.37377118436906</v>
+      </c>
+      <c r="O201">
+        <v>26.55594014494042</v>
+      </c>
+      <c r="P201">
+        <v>13.74979581330952</v>
+      </c>
+      <c r="Q201">
+        <v>5.0680352261192</v>
       </c>
     </row>
     <row r="202">
@@ -9048,13 +12678,31 @@
         <v>3032.83048978448</v>
       </c>
       <c r="I202">
+        <v>2303.43719220161</v>
+      </c>
+      <c r="J202">
+        <v>479.452304780483</v>
+      </c>
+      <c r="K202">
+        <v>249.940992802382</v>
+      </c>
+      <c r="L202">
         <v>2.056906966926316</v>
       </c>
-      <c r="J202">
+      <c r="M202">
         <v>113.7208210842105</v>
       </c>
-      <c r="K202">
+      <c r="N202">
         <v>638.4906294283117</v>
+      </c>
+      <c r="O202">
+        <v>484.9341457266547</v>
+      </c>
+      <c r="P202">
+        <v>100.937327322207</v>
+      </c>
+      <c r="Q202">
+        <v>52.61915637944885</v>
       </c>
     </row>
     <row r="203">
@@ -9091,13 +12739,31 @@
         <v>619.679204910994</v>
       </c>
       <c r="I203">
+        <v>239.392049312592</v>
+      </c>
+      <c r="J203">
+        <v>116.757899999619</v>
+      </c>
+      <c r="K203">
+        <v>263.529255598783</v>
+      </c>
+      <c r="L203">
         <v>3.688588822442105</v>
       </c>
-      <c r="J203">
+      <c r="M203">
         <v>56.44992632631579</v>
       </c>
-      <c r="K203">
+      <c r="N203">
         <v>130.4587799812619</v>
+      </c>
+      <c r="O203">
+        <v>50.39832617107201</v>
+      </c>
+      <c r="P203">
+        <v>24.58061052623558</v>
+      </c>
+      <c r="Q203">
+        <v>55.47984328395431</v>
       </c>
     </row>
     <row r="204">
@@ -9134,13 +12800,31 @@
         <v>52.1464307904243</v>
       </c>
       <c r="I204">
+        <v>48.0204181671143</v>
+      </c>
+      <c r="J204">
+        <v>3.61026102304459</v>
+      </c>
+      <c r="K204">
+        <v>0.515751600265503</v>
+      </c>
+      <c r="L204">
         <v>0.02025486884210527</v>
       </c>
-      <c r="J204">
+      <c r="M204">
         <v>1.604756749473684</v>
       </c>
-      <c r="K204">
+      <c r="N204">
         <v>10.9781959558788</v>
+      </c>
+      <c r="O204">
+        <v>10.10956171939248</v>
+      </c>
+      <c r="P204">
+        <v>0.7600549522199138</v>
+      </c>
+      <c r="Q204">
+        <v>0.1085792842664217</v>
       </c>
     </row>
     <row r="205">
@@ -9177,13 +12861,31 @@
         <v>3090.25014768541</v>
       </c>
       <c r="I205">
+        <v>1720.90420949459</v>
+      </c>
+      <c r="J205">
+        <v>616.913592800498</v>
+      </c>
+      <c r="K205">
+        <v>752.4323453903201</v>
+      </c>
+      <c r="L205">
         <v>5.25038652768421</v>
       </c>
-      <c r="J205">
+      <c r="M205">
         <v>167.0958156968421</v>
       </c>
-      <c r="K205">
+      <c r="N205">
         <v>650.5789784600863</v>
+      </c>
+      <c r="O205">
+        <v>362.2956230514927</v>
+      </c>
+      <c r="P205">
+        <v>129.8765458527364</v>
+      </c>
+      <c r="Q205">
+        <v>158.4068095558569</v>
       </c>
     </row>
     <row r="206">
@@ -9220,13 +12922,31 @@
         <v>919.908909022808</v>
       </c>
       <c r="I206">
+        <v>419.131858348846</v>
+      </c>
+      <c r="J206">
+        <v>218.910411834717</v>
+      </c>
+      <c r="K206">
+        <v>281.866638839245</v>
+      </c>
+      <c r="L206">
         <v>2.548998877473685</v>
       </c>
-      <c r="J206">
+      <c r="M206">
         <v>61.27182925473684</v>
       </c>
-      <c r="K206">
+      <c r="N206">
         <v>193.6650334784859</v>
+      </c>
+      <c r="O206">
+        <v>88.23828596817812</v>
+      </c>
+      <c r="P206">
+        <v>46.08640249151937</v>
+      </c>
+      <c r="Q206">
+        <v>59.34034501878843</v>
       </c>
     </row>
     <row r="207">
@@ -9263,13 +12983,31 @@
         <v>1500.69834664464</v>
       </c>
       <c r="I207">
+        <v>649.926513791084</v>
+      </c>
+      <c r="J207">
+        <v>267.344362735748</v>
+      </c>
+      <c r="K207">
+        <v>583.4274701178071</v>
+      </c>
+      <c r="L207">
         <v>4.609104508842105</v>
       </c>
-      <c r="J207">
+      <c r="M207">
         <v>109.0858792063158</v>
       </c>
-      <c r="K207">
+      <c r="N207">
         <v>315.9364940304506</v>
+      </c>
+      <c r="O207">
+        <v>136.8266344823335</v>
+      </c>
+      <c r="P207">
+        <v>56.28302373384169</v>
+      </c>
+      <c r="Q207">
+        <v>122.8268358142752</v>
       </c>
     </row>
     <row r="208">
@@ -9306,13 +13044,31 @@
         <v>149.15327835083</v>
       </c>
       <c r="I208">
+        <v>79.78556084632871</v>
+      </c>
+      <c r="J208">
+        <v>39.2351052761078</v>
+      </c>
+      <c r="K208">
+        <v>30.1326122283936</v>
+      </c>
+      <c r="L208">
         <v>0.199523655368421</v>
       </c>
-      <c r="J208">
+      <c r="M208">
         <v>7.613438905263158</v>
       </c>
-      <c r="K208">
+      <c r="N208">
         <v>31.40069017912211</v>
+      </c>
+      <c r="O208">
+        <v>16.79696017817447</v>
+      </c>
+      <c r="P208">
+        <v>8.260022163391117</v>
+      </c>
+      <c r="Q208">
+        <v>6.343707837556548</v>
       </c>
     </row>
   </sheetData>
